--- a/tmp_output/docked_raw/docked_raw_June.xlsx
+++ b/tmp_output/docked_raw/docked_raw_June.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>員編</t>
   </si>
@@ -32,12 +32,1002 @@
   </si>
   <si>
     <t>HOUR</t>
+  </si>
+  <si>
+    <t>INTWK0002206150466</t>
+  </si>
+  <si>
+    <t>INTWK0002206160215</t>
+  </si>
+  <si>
+    <t>INTWK0002206160214</t>
+  </si>
+  <si>
+    <t>INTWK0002206150465</t>
+  </si>
+  <si>
+    <t>INTWK0002206160216</t>
+  </si>
+  <si>
+    <t>INTWK0002206160213</t>
+  </si>
+  <si>
+    <t>INTWK0002206150464</t>
+  </si>
+  <si>
+    <t>INTWK0002206160238</t>
+  </si>
+  <si>
+    <t>INTWK0002206160244</t>
+  </si>
+  <si>
+    <t>INTWK0002206160231</t>
+  </si>
+  <si>
+    <t>INTWK0002206160240</t>
+  </si>
+  <si>
+    <t>INTWK0002206160280</t>
+  </si>
+  <si>
+    <t>INTWK0002206160235</t>
+  </si>
+  <si>
+    <t>INTWK0002206160294</t>
+  </si>
+  <si>
+    <t>INTWK0002206160243</t>
+  </si>
+  <si>
+    <t>INTWK0002206160219</t>
+  </si>
+  <si>
+    <t>INTWK0002206160274</t>
+  </si>
+  <si>
+    <t>INTWK0002206160279</t>
+  </si>
+  <si>
+    <t>INTWK0002206160291</t>
+  </si>
+  <si>
+    <t>INTWK0002206160275</t>
+  </si>
+  <si>
+    <t>INTWK0002206160293</t>
+  </si>
+  <si>
+    <t>INTWK0002206160242</t>
+  </si>
+  <si>
+    <t>INTWK0002206160220</t>
+  </si>
+  <si>
+    <t>INTWK0002206160276</t>
+  </si>
+  <si>
+    <t>INTWK0002206160277</t>
+  </si>
+  <si>
+    <t>INTWK0002206160241</t>
+  </si>
+  <si>
+    <t>INTWK0002206160217</t>
+  </si>
+  <si>
+    <t>INTWK0002206160237</t>
+  </si>
+  <si>
+    <t>INTWK0002206160278</t>
+  </si>
+  <si>
+    <t>INTWK0002206160236</t>
+  </si>
+  <si>
+    <t>INTWK0002206160234</t>
+  </si>
+  <si>
+    <t>INTWK0002206160239</t>
+  </si>
+  <si>
+    <t>INTWK0002206160232</t>
+  </si>
+  <si>
+    <t>INTWK0002206160292</t>
+  </si>
+  <si>
+    <t>INTWK0002206160233</t>
+  </si>
+  <si>
+    <t>INTWK0002206150322</t>
+  </si>
+  <si>
+    <t>INTWK0002206150318</t>
+  </si>
+  <si>
+    <t>INTWK0002206150326</t>
+  </si>
+  <si>
+    <t>INTWK0002206150315</t>
+  </si>
+  <si>
+    <t>INTWK0002206150317</t>
+  </si>
+  <si>
+    <t>INTWK0002206150314</t>
+  </si>
+  <si>
+    <t>INTWK0002206150320</t>
+  </si>
+  <si>
+    <t>INTWK0002206150321</t>
+  </si>
+  <si>
+    <t>INTWK0002206150324</t>
+  </si>
+  <si>
+    <t>INTWK0002206150325</t>
+  </si>
+  <si>
+    <t>INTWK0002206150316</t>
+  </si>
+  <si>
+    <t>INTWK0002206160153</t>
+  </si>
+  <si>
+    <t>INTWK0002206160142</t>
+  </si>
+  <si>
+    <t>INTWK0002206160146</t>
+  </si>
+  <si>
+    <t>INTWK0002206160149</t>
+  </si>
+  <si>
+    <t>INTWK0002206160151</t>
+  </si>
+  <si>
+    <t>INTWK0002206160139</t>
+  </si>
+  <si>
+    <t>INTWK0002206160137</t>
+  </si>
+  <si>
+    <t>INTWK0002206160145</t>
+  </si>
+  <si>
+    <t>INTWK0002206160147</t>
+  </si>
+  <si>
+    <t>INTWK0002206160152</t>
+  </si>
+  <si>
+    <t>INTWK0002206160150</t>
+  </si>
+  <si>
+    <t>INTWK0002206160144</t>
+  </si>
+  <si>
+    <t>INTWK0002206160148</t>
+  </si>
+  <si>
+    <t>INTWK0002206160209</t>
+  </si>
+  <si>
+    <t>INTWK0002206160210</t>
+  </si>
+  <si>
+    <t>INTWK0002206160138</t>
+  </si>
+  <si>
+    <t>INTWK0002206160141</t>
+  </si>
+  <si>
+    <t>INTWK0002206160140</t>
+  </si>
+  <si>
+    <t>INTWK0002206160143</t>
+  </si>
+  <si>
+    <t>INTWK0002206160221</t>
+  </si>
+  <si>
+    <t>INTWK0002206170098</t>
+  </si>
+  <si>
+    <t>INTWK0002206170113</t>
+  </si>
+  <si>
+    <t>INTWK0002206170126</t>
+  </si>
+  <si>
+    <t>INTWK0002206170089</t>
+  </si>
+  <si>
+    <t>INTWK0002206170128</t>
+  </si>
+  <si>
+    <t>INTWK0002206170129</t>
+  </si>
+  <si>
+    <t>INTWK0002206170083</t>
+  </si>
+  <si>
+    <t>INTWK0002206170131</t>
+  </si>
+  <si>
+    <t>INTWK0002206170112</t>
+  </si>
+  <si>
+    <t>INTWK0002206170087</t>
+  </si>
+  <si>
+    <t>INTWK0002206170095</t>
+  </si>
+  <si>
+    <t>INTWK0002206170120</t>
+  </si>
+  <si>
+    <t>INTWK0002206170121</t>
+  </si>
+  <si>
+    <t>INTWK0002206170117</t>
+  </si>
+  <si>
+    <t>INTWK0002206170118</t>
+  </si>
+  <si>
+    <t>INTWK0002206170123</t>
+  </si>
+  <si>
+    <t>INTWK0002206170130</t>
+  </si>
+  <si>
+    <t>INTWK0002206170124</t>
+  </si>
+  <si>
+    <t>INTWK0002206170093</t>
+  </si>
+  <si>
+    <t>INTWK0002206170101</t>
+  </si>
+  <si>
+    <t>INTWK0002206170092</t>
+  </si>
+  <si>
+    <t>INTWK0002206170108</t>
+  </si>
+  <si>
+    <t>INTWK0002206170125</t>
+  </si>
+  <si>
+    <t>INTWK0002206170119</t>
+  </si>
+  <si>
+    <t>INTWK0002206170106</t>
+  </si>
+  <si>
+    <t>INTWK0002206170100</t>
+  </si>
+  <si>
+    <t>INTWK0002206170114</t>
+  </si>
+  <si>
+    <t>INTWK0002206170107</t>
+  </si>
+  <si>
+    <t>INTWK0002206170110</t>
+  </si>
+  <si>
+    <t>INTWK0002206170115</t>
+  </si>
+  <si>
+    <t>INTWK0002206170084</t>
+  </si>
+  <si>
+    <t>INTWK0002206170104</t>
+  </si>
+  <si>
+    <t>INTWK0002206170111</t>
+  </si>
+  <si>
+    <t>INTWK0002206170091</t>
+  </si>
+  <si>
+    <t>INTWK0002206170116</t>
+  </si>
+  <si>
+    <t>INTWK0002206170088</t>
+  </si>
+  <si>
+    <t>INTWK0002206170127</t>
+  </si>
+  <si>
+    <t>INTWK0002206170082</t>
+  </si>
+  <si>
+    <t>INTWK0002206170096</t>
+  </si>
+  <si>
+    <t>INTWK0002206170085</t>
+  </si>
+  <si>
+    <t>INTWK0002206170102</t>
+  </si>
+  <si>
+    <t>INTWK0002206170122</t>
+  </si>
+  <si>
+    <t>INTWK0002206170109</t>
+  </si>
+  <si>
+    <t>INTWK0002206170099</t>
+  </si>
+  <si>
+    <t>INTWK0002206170103</t>
+  </si>
+  <si>
+    <t>INTWK0002206170086</t>
+  </si>
+  <si>
+    <t>INTWK0002206170094</t>
+  </si>
+  <si>
+    <t>INTWK0002206170097</t>
+  </si>
+  <si>
+    <t>INTWK0002206170105</t>
+  </si>
+  <si>
+    <t>INTWK0002206160261</t>
+  </si>
+  <si>
+    <t>INTWK0002206160263</t>
+  </si>
+  <si>
+    <t>INTWK0002206160264</t>
+  </si>
+  <si>
+    <t>INTWK0002206160262</t>
+  </si>
+  <si>
+    <t>INTWK0002206170139</t>
+  </si>
+  <si>
+    <t>INTWK0002206170138</t>
+  </si>
+  <si>
+    <t>INTWK0002206150478</t>
+  </si>
+  <si>
+    <t>INTWK0002206150487</t>
+  </si>
+  <si>
+    <t>INTWK0002206150477</t>
+  </si>
+  <si>
+    <t>INTWK0002206150484</t>
+  </si>
+  <si>
+    <t>INTWK0002206150486</t>
+  </si>
+  <si>
+    <t>INTWK0002206150480</t>
+  </si>
+  <si>
+    <t>INTWK0002206150479</t>
+  </si>
+  <si>
+    <t>INTWK0002206150483</t>
+  </si>
+  <si>
+    <t>INTWK0002206150482</t>
+  </si>
+  <si>
+    <t>INTWK0002206150485</t>
+  </si>
+  <si>
+    <t>INTWK0002206150488</t>
+  </si>
+  <si>
+    <t>INTWK0002206150481</t>
+  </si>
+  <si>
+    <t>INTWK0002206150476</t>
+  </si>
+  <si>
+    <t>INTWK0002206150319</t>
+  </si>
+  <si>
+    <t>INTWK0002206150323</t>
+  </si>
+  <si>
+    <t>INTWK0002206150044</t>
+  </si>
+  <si>
+    <t>INTWK0002206150042</t>
+  </si>
+  <si>
+    <t>INTWK0002206150017</t>
+  </si>
+  <si>
+    <t>INTWK0002206150043</t>
+  </si>
+  <si>
+    <t>INTWK0002206150020</t>
+  </si>
+  <si>
+    <t>INTWK0002206150041</t>
+  </si>
+  <si>
+    <t>INTWK0002206150019</t>
+  </si>
+  <si>
+    <t>INTWK0002206150248</t>
+  </si>
+  <si>
+    <t>INTWK0002206150665</t>
+  </si>
+  <si>
+    <t>INTWK0002206150664</t>
+  </si>
+  <si>
+    <t>INTWK0002206150472</t>
+  </si>
+  <si>
+    <t>INTWK0002206150471</t>
+  </si>
+  <si>
+    <t>INTWK0002206150473</t>
+  </si>
+  <si>
+    <t>INTWK0002206150469</t>
+  </si>
+  <si>
+    <t>INTWK0002206150470</t>
+  </si>
+  <si>
+    <t>INTWK0002206150468</t>
+  </si>
+  <si>
+    <t>INTWK0002206150719</t>
+  </si>
+  <si>
+    <t>INTWK0002206140489</t>
+  </si>
+  <si>
+    <t>INTWK0002206140488</t>
+  </si>
+  <si>
+    <t>INTWK0002206150717</t>
+  </si>
+  <si>
+    <t>INTWK0002206150718</t>
+  </si>
+  <si>
+    <t>INTWK0002206150714</t>
+  </si>
+  <si>
+    <t>INTWK0002206150715</t>
+  </si>
+  <si>
+    <t>INTWK0002206150716</t>
+  </si>
+  <si>
+    <t>INTWK0002206140501</t>
+  </si>
+  <si>
+    <t>INTWK0002206140504</t>
+  </si>
+  <si>
+    <t>INTWK0002206140490</t>
+  </si>
+  <si>
+    <t>INTWK0002206140502</t>
+  </si>
+  <si>
+    <t>INTWK0002206140503</t>
+  </si>
+  <si>
+    <t>INTWK0002206150474</t>
+  </si>
+  <si>
+    <t>INTWK0002206160259</t>
+  </si>
+  <si>
+    <t>INTWK0002206160260</t>
+  </si>
+  <si>
+    <t>INTWK0002206150475</t>
+  </si>
+  <si>
+    <t>INTWK0002206150015</t>
+  </si>
+  <si>
+    <t>INTWK0002206150016</t>
+  </si>
+  <si>
+    <t>INTWK0002206150011</t>
+  </si>
+  <si>
+    <t>INTWK0002206150012</t>
+  </si>
+  <si>
+    <t>INTWK0002206150013</t>
+  </si>
+  <si>
+    <t>INTWK0002206140448</t>
+  </si>
+  <si>
+    <t>INTWK0002206140447</t>
+  </si>
+  <si>
+    <t>INTWK0002206140446</t>
+  </si>
+  <si>
+    <t>INTWK0002206150048</t>
+  </si>
+  <si>
+    <t>INTWK0002206150046</t>
+  </si>
+  <si>
+    <t>INTWK0002206150045</t>
+  </si>
+  <si>
+    <t>INTWK0002206150049</t>
+  </si>
+  <si>
+    <t>INTWK0002206150047</t>
+  </si>
+  <si>
+    <t>INTWK0002206010001</t>
+  </si>
+  <si>
+    <t>INTWK0002206140387</t>
+  </si>
+  <si>
+    <t>INTWK0002206140381</t>
+  </si>
+  <si>
+    <t>INTWK0002206140384</t>
+  </si>
+  <si>
+    <t>INTWK0002206140382</t>
+  </si>
+  <si>
+    <t>INTWK0002206140380</t>
+  </si>
+  <si>
+    <t>INTWK0002206140310</t>
+  </si>
+  <si>
+    <t>INTWK0002206140312</t>
+  </si>
+  <si>
+    <t>INTWK0002206140311</t>
+  </si>
+  <si>
+    <t>INTWK0002206140378</t>
+  </si>
+  <si>
+    <t>INTWK0002206140386</t>
+  </si>
+  <si>
+    <t>INTWK0002206140385</t>
+  </si>
+  <si>
+    <t>INTWK0002206140348</t>
+  </si>
+  <si>
+    <t>INTWK0002206140374</t>
+  </si>
+  <si>
+    <t>INTWK0002206140373</t>
+  </si>
+  <si>
+    <t>INTWK0002206140377</t>
+  </si>
+  <si>
+    <t>INTWK0002206140379</t>
+  </si>
+  <si>
+    <t>INTWK0002206140376</t>
+  </si>
+  <si>
+    <t>INTWK0002206140371</t>
+  </si>
+  <si>
+    <t>INTWK0002206140383</t>
+  </si>
+  <si>
+    <t>INTWK0002206140350</t>
+  </si>
+  <si>
+    <t>INTWK0002206140347</t>
+  </si>
+  <si>
+    <t>INTWK0002206140375</t>
+  </si>
+  <si>
+    <t>INTWK0002206140349</t>
+  </si>
+  <si>
+    <t>INTWK0002206140372</t>
+  </si>
+  <si>
+    <t>INTWK0002206160256</t>
+  </si>
+  <si>
+    <t>INTWK0002206160255</t>
+  </si>
+  <si>
+    <t>INTWK0002206160200</t>
+  </si>
+  <si>
+    <t>INTWK0002206160195</t>
+  </si>
+  <si>
+    <t>INTWK0002206160212</t>
+  </si>
+  <si>
+    <t>INTWK0002206160197</t>
+  </si>
+  <si>
+    <t>INTWK0002206160198</t>
+  </si>
+  <si>
+    <t>INTWK0002206160196</t>
+  </si>
+  <si>
+    <t>INTWK0002206160211</t>
+  </si>
+  <si>
+    <t>INTWK0002206160194</t>
+  </si>
+  <si>
+    <t>INTWK0002206160192</t>
+  </si>
+  <si>
+    <t>INTWK0002206160199</t>
+  </si>
+  <si>
+    <t>INTWK0002206160193</t>
+  </si>
+  <si>
+    <t>INTWK0002206150442</t>
+  </si>
+  <si>
+    <t>INTWK0002206140443</t>
+  </si>
+  <si>
+    <t>INTWK0002206140441</t>
+  </si>
+  <si>
+    <t>INTWK0002206140445</t>
+  </si>
+  <si>
+    <t>INTWK0002206130026</t>
+  </si>
+  <si>
+    <t>INTWK0002206140444</t>
+  </si>
+  <si>
+    <t>INTWK0002206150443</t>
+  </si>
+  <si>
+    <t>INTWK0002206150441</t>
+  </si>
+  <si>
+    <t>INTWK0002206160300</t>
+  </si>
+  <si>
+    <t>INTWK0002206160311</t>
+  </si>
+  <si>
+    <t>INTWK0002206140410</t>
+  </si>
+  <si>
+    <t>INTWK0002206140442</t>
+  </si>
+  <si>
+    <t>INTWK0002206130025</t>
+  </si>
+  <si>
+    <t>INTWK0002206160104</t>
+  </si>
+  <si>
+    <t>INTWK0002206150239</t>
+  </si>
+  <si>
+    <t>INTWK0002206150238</t>
+  </si>
+  <si>
+    <t>INTWK0002206150233</t>
+  </si>
+  <si>
+    <t>INTWK0002206150222</t>
+  </si>
+  <si>
+    <t>INTWK0002206150232</t>
+  </si>
+  <si>
+    <t>INTWK0002206150167</t>
+  </si>
+  <si>
+    <t>INTWK0002206150240</t>
+  </si>
+  <si>
+    <t>INTWK0002206150241</t>
+  </si>
+  <si>
+    <t>INTWK0002206150242</t>
+  </si>
+  <si>
+    <t>INTWK0002206150235</t>
+  </si>
+  <si>
+    <t>INTWK0002206150243</t>
+  </si>
+  <si>
+    <t>INTWK0002206150229</t>
+  </si>
+  <si>
+    <t>INTWK0002206150231</t>
+  </si>
+  <si>
+    <t>INTWK0002206150246</t>
+  </si>
+  <si>
+    <t>INTWK0002206150221</t>
+  </si>
+  <si>
+    <t>INTWK0002206150234</t>
+  </si>
+  <si>
+    <t>INTWK0002206150247</t>
+  </si>
+  <si>
+    <t>INTWK0002206150245</t>
+  </si>
+  <si>
+    <t>INTWK0002206150224</t>
+  </si>
+  <si>
+    <t>INTWK0002206150227</t>
+  </si>
+  <si>
+    <t>INTWK0002206150228</t>
+  </si>
+  <si>
+    <t>INTWK0002206150168</t>
+  </si>
+  <si>
+    <t>INTWK0002206150230</t>
+  </si>
+  <si>
+    <t>INTWK0002206150169</t>
+  </si>
+  <si>
+    <t>INTWK0002206150237</t>
+  </si>
+  <si>
+    <t>INTWK0002206170252</t>
+  </si>
+  <si>
+    <t>INTWK0002206150418</t>
+  </si>
+  <si>
+    <t>INTWK0002206150417</t>
+  </si>
+  <si>
+    <t>INTWK0002206150054</t>
+  </si>
+  <si>
+    <t>INTWK0002206150053</t>
+  </si>
+  <si>
+    <t>INTWK0002206150052</t>
+  </si>
+  <si>
+    <t>INTWK0002206150051</t>
+  </si>
+  <si>
+    <t>INTWK0002206150050</t>
+  </si>
+  <si>
+    <t>INTWK0002206150056</t>
+  </si>
+  <si>
+    <t>INTWK0002206150055</t>
+  </si>
+  <si>
+    <t>INTWK0002206160038</t>
+  </si>
+  <si>
+    <t>INTWK0002206160035</t>
+  </si>
+  <si>
+    <t>INTWK0002206160037</t>
+  </si>
+  <si>
+    <t>INTWK0002206160026</t>
+  </si>
+  <si>
+    <t>INTWK0002206160045</t>
+  </si>
+  <si>
+    <t>INTWK0002206160043</t>
+  </si>
+  <si>
+    <t>INTWK0002206160018</t>
+  </si>
+  <si>
+    <t>INTWK0002206160042</t>
+  </si>
+  <si>
+    <t>INTWK0002206160044</t>
+  </si>
+  <si>
+    <t>INTWK0002206160027</t>
+  </si>
+  <si>
+    <t>INTWK0002206160016</t>
+  </si>
+  <si>
+    <t>INTWK0002206160025</t>
+  </si>
+  <si>
+    <t>INTWK0002206160012</t>
+  </si>
+  <si>
+    <t>INTWK0002206160030</t>
+  </si>
+  <si>
+    <t>INTWK0002206160013</t>
+  </si>
+  <si>
+    <t>INTWK0002206160028</t>
+  </si>
+  <si>
+    <t>INTWK0002206160024</t>
+  </si>
+  <si>
+    <t>INTWK0002206160046</t>
+  </si>
+  <si>
+    <t>INTWK0002206160015</t>
+  </si>
+  <si>
+    <t>INTWK0002206160021</t>
+  </si>
+  <si>
+    <t>INTWK0002206160020</t>
+  </si>
+  <si>
+    <t>INTWK0002206160041</t>
+  </si>
+  <si>
+    <t>INTWK0002206160017</t>
+  </si>
+  <si>
+    <t>INTWK0002206160032</t>
+  </si>
+  <si>
+    <t>INTWK0002206160031</t>
+  </si>
+  <si>
+    <t>INTWK0002206160034</t>
+  </si>
+  <si>
+    <t>INTWK0002206160019</t>
+  </si>
+  <si>
+    <t>INTWK0002206160022</t>
+  </si>
+  <si>
+    <t>INTWK0002206160036</t>
+  </si>
+  <si>
+    <t>INTWK0002206160257</t>
+  </si>
+  <si>
+    <t>INTWK0002206150265</t>
+  </si>
+  <si>
+    <t>INTWK0002206170023</t>
+  </si>
+  <si>
+    <t>INTWK0002206170022</t>
+  </si>
+  <si>
+    <t>INTWK0002206170024</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２５０</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２４９</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２５３</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２５５</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０３７７</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２５４</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０２５６</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１７０３７８</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６４</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６３</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６８</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６５</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６１</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５５</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６０</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５３</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５４</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６７</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５７０</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５６</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５９</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６６</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６２</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５６９</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５７</t>
+  </si>
+  <si>
+    <t>ＩＮＴＷＫ０００２２０６１５０５５８</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -90,11 +1080,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +1406,6586 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>126159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>126159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>126159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>126159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>126159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>126159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>126159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>126159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>126159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>126159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>126159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>126159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>126159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>126159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>126159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>126159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>126159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>126159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>126159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>240</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>126159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>126159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44732.35217592592</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>126159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44732.3521875</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>126159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44732.3521875</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>126159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44732.35225694445</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>126159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44732.35238425926</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>126159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44732.35575231481</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>126159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44732.3559375</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>126159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44732.35603009259</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>126159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44732.35609953704</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>126159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44732.35947916667</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>126159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44732.36065972222</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>126159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44732.36145833333</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>126159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44732.36160879629</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>126159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44732.36369212963</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>126159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44732.36383101852</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>126159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44732.36653935185</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>126159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44732.36667824074</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>126159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44732.36681712963</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>126159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44732.3669212963</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>126159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>240</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44732.36731481482</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>126159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44732.36827546296</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>126159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44732.36835648148</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>126159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44732.36850694445</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>126159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44732.36857638889</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>126159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44732.36879629629</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>126159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44732.36893518519</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>126159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44732.39409722222</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>126159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44732.39534722222</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>126159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44732.39538194444</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>126159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>180</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44732.39841435185</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>126159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44732.39918981482</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>126159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44732.39928240741</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>126159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>180</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44732.40150462963</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>126159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44732.40515046296</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>126159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44732.40523148148</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>126159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44732.40528935185</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>126159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44732.40532407408</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>126159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44732.40548611111</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>126159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44732.40559027778</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>126159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44732.40571759259</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>126159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44732.40684027778</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>126159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>600</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44732.40804398148</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>126159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>360</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44732.41314814815</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>126159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>360</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44732.41346064815</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>126159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>360</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44732.41521990741</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>126159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44732.41645833333</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>126159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>126159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>126159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>126159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>126159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>126159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44732.42989583333</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>126159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44732.42989583333</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>126159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44732.42989583333</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>126159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44732.42998842592</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>126159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44732.43006944445</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>126159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44732.43018518519</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>126159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44732.43111111111</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>126159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44732.43119212963</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>126159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44732.43127314815</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>126159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44732.43138888889</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>126159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44732.43387731481</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>126159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44732.43398148148</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>126159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44732.43405092593</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>126159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44732.43421296297</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>126159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44732.4344212963</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>126159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44732.43449074074</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>126159</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44732.43457175926</v>
+      </c>
+      <c r="E89">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>126159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44732.43590277778</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>126159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44732.43599537037</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>126159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44732.43662037037</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>126159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44732.43667824074</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>126159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44732.43673611111</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>126159</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44732.43679398148</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>126159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44732.43682870371</v>
+      </c>
+      <c r="E96">
+        <v>20</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>126159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44732.43689814815</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>126159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44732.43885416666</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>126159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44732.43890046296</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>126159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44732.43894675926</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>126159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44732.43902777778</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>126159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44732.4390625</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>126159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44732.43912037037</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>126159</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44732.43940972222</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>126159</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>32</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44732.43944444445</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>126159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>32</v>
+      </c>
+      <c r="D106" s="2">
+        <v>44732.43951388889</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>126159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107">
+        <v>24</v>
+      </c>
+      <c r="D107" s="2">
+        <v>44732.43959490741</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>126159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+      <c r="D108" s="2">
+        <v>44732.4396412037</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>126159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109" s="2">
+        <v>44732.43971064815</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>126159</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+      <c r="D110" s="2">
+        <v>44732.43975694444</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>126159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111" s="2">
+        <v>44732.43984953704</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>126159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+      <c r="D112" s="2">
+        <v>44732.44012731482</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>126159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>24</v>
+      </c>
+      <c r="D113" s="2">
+        <v>44732.44016203703</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>126159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44732.44019675926</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>126159</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>24</v>
+      </c>
+      <c r="D115" s="2">
+        <v>44732.44024305556</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>126159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2">
+        <v>44732.4402662037</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>126159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44732.44552083333</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>126159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44732.4455787037</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>126159</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2">
+        <v>44732.44564814815</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>126159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44732.44568287037</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>126159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>48</v>
+      </c>
+      <c r="D121" s="2">
+        <v>44732.44585648148</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>126159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>24</v>
+      </c>
+      <c r="D122" s="2">
+        <v>44732.44594907408</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>126159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2">
+        <v>44732.44736111111</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>126159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2">
+        <v>44732.44738425926</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>126159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44732.44746527778</v>
+      </c>
+      <c r="E125">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>126159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126" s="2">
+        <v>44732.44751157407</v>
+      </c>
+      <c r="E126">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>126159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>72</v>
+      </c>
+      <c r="D127" s="2">
+        <v>44732.4484375</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>126159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2">
+        <v>44732.44875</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>126159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2">
+        <v>44732.44914351852</v>
+      </c>
+      <c r="E129">
+        <v>20</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>126159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2">
+        <v>44732.44935185185</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>126159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2">
+        <v>44732.44960648148</v>
+      </c>
+      <c r="E131">
+        <v>20</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>126159</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2">
+        <v>44732.45094907407</v>
+      </c>
+      <c r="E132">
+        <v>20</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>126159</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2">
+        <v>44732.45101851852</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>126159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2">
+        <v>44732.45111111111</v>
+      </c>
+      <c r="E134">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>126159</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2">
+        <v>44732.45126157408</v>
+      </c>
+      <c r="E135">
+        <v>20</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>126159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>80</v>
+      </c>
+      <c r="D136" s="2">
+        <v>44732.4521875</v>
+      </c>
+      <c r="E136">
+        <v>20</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>126159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2">
+        <v>44732.45403935185</v>
+      </c>
+      <c r="E137">
+        <v>20</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>126159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>24</v>
+      </c>
+      <c r="D138" s="2">
+        <v>44732.45385416667</v>
+      </c>
+      <c r="E138">
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>126159</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>24</v>
+      </c>
+      <c r="D139" s="2">
+        <v>44732.45394675926</v>
+      </c>
+      <c r="E139">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>126159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2">
+        <v>44732.45412037037</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>126159</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2">
+        <v>44732.45422453704</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>126159</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2">
+        <v>44732.45434027778</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>126159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143" s="2">
+        <v>44732.45445601852</v>
+      </c>
+      <c r="E143">
+        <v>20</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>126159</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>24</v>
+      </c>
+      <c r="D144" s="2">
+        <v>44732.45450231482</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>126159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>24</v>
+      </c>
+      <c r="D145" s="2">
+        <v>44732.50221064815</v>
+      </c>
+      <c r="E145">
+        <v>20</v>
+      </c>
+      <c r="F145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>126159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146">
+        <v>200</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44732.50238425926</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>126159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147">
+        <v>800</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44732.5025</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+      <c r="F147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>126159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2">
+        <v>44732.50349537037</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>126159</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44732.50377314815</v>
+      </c>
+      <c r="E149">
+        <v>20</v>
+      </c>
+      <c r="F149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>126159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44732.50394675926</v>
+      </c>
+      <c r="E150">
+        <v>20</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>126159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151">
+        <v>60</v>
+      </c>
+      <c r="D151" s="2">
+        <v>44732.50407407407</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+      <c r="F151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>126159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2">
+        <v>44732.50528935185</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+      <c r="F152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>126159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44732.50557870371</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>126159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2">
+        <v>44732.50615740741</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+      <c r="F154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>126159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155">
+        <v>72</v>
+      </c>
+      <c r="D155" s="2">
+        <v>44732.5072337963</v>
+      </c>
+      <c r="E155">
+        <v>20</v>
+      </c>
+      <c r="F155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>126159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156">
+        <v>96</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44732.50761574074</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>126159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44732.5083912037</v>
+      </c>
+      <c r="E157">
+        <v>20</v>
+      </c>
+      <c r="F157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>126159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>44732.50849537037</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>126159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159">
+        <v>24</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44732.50868055555</v>
+      </c>
+      <c r="E159">
+        <v>20</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>126159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160">
+        <v>24</v>
+      </c>
+      <c r="D160" s="2">
+        <v>44732.50881944445</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>126159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>60</v>
+      </c>
+      <c r="D161" s="2">
+        <v>44732.50892361111</v>
+      </c>
+      <c r="E161">
+        <v>20</v>
+      </c>
+      <c r="F161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>126159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44732.5109375</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>126159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163">
+        <v>30</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44732.51136574074</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>126159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2">
+        <v>44732.51167824074</v>
+      </c>
+      <c r="E164">
+        <v>20</v>
+      </c>
+      <c r="F164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>126159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2">
+        <v>44732.5119675926</v>
+      </c>
+      <c r="E165">
+        <v>20</v>
+      </c>
+      <c r="F165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>126159</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166" s="2">
+        <v>44732.51247685185</v>
+      </c>
+      <c r="E166">
+        <v>20</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>126159</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44732.51262731481</v>
+      </c>
+      <c r="E167">
+        <v>20</v>
+      </c>
+      <c r="F167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>126159</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44732.51300925926</v>
+      </c>
+      <c r="E168">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>126159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169" s="2">
+        <v>44732.51402777778</v>
+      </c>
+      <c r="E169">
+        <v>20</v>
+      </c>
+      <c r="F169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>126159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" s="2">
+        <v>44732.51409722222</v>
+      </c>
+      <c r="E170">
+        <v>20</v>
+      </c>
+      <c r="F170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>126159</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171" s="2">
+        <v>44732.51415509259</v>
+      </c>
+      <c r="E171">
+        <v>20</v>
+      </c>
+      <c r="F171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>126159</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172" s="2">
+        <v>44732.51457175926</v>
+      </c>
+      <c r="E172">
+        <v>20</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>126159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44732.51472222222</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
+      </c>
+      <c r="F173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>126159</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174">
+        <v>24</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44732.51539351852</v>
+      </c>
+      <c r="E174">
+        <v>20</v>
+      </c>
+      <c r="F174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>126159</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175">
+        <v>24</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44732.515625</v>
+      </c>
+      <c r="E175">
+        <v>20</v>
+      </c>
+      <c r="F175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>126159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176" s="2">
+        <v>44732.51592592592</v>
+      </c>
+      <c r="E176">
+        <v>20</v>
+      </c>
+      <c r="F176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>126159</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44732.51616898148</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+      <c r="F177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>126159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178" s="2">
+        <v>44732.51880787037</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+      <c r="F178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>126159</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179">
+        <v>36</v>
+      </c>
+      <c r="D179" s="2">
+        <v>44732.51962962963</v>
+      </c>
+      <c r="E179">
+        <v>20</v>
+      </c>
+      <c r="F179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>126159</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2">
+        <v>44732.51979166667</v>
+      </c>
+      <c r="E180">
+        <v>20</v>
+      </c>
+      <c r="F180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>126159</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2">
+        <v>44732.51993055556</v>
+      </c>
+      <c r="E181">
+        <v>20</v>
+      </c>
+      <c r="F181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>126159</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44732.52013888889</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>126159</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2">
+        <v>44732.52023148148</v>
+      </c>
+      <c r="E183">
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>126159</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184">
+        <v>2000</v>
+      </c>
+      <c r="D184" s="2">
+        <v>44732.53303240741</v>
+      </c>
+      <c r="E184">
+        <v>20</v>
+      </c>
+      <c r="F184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>126159</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185" s="2">
+        <v>44732.53709490741</v>
+      </c>
+      <c r="E185">
+        <v>20</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>126159</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186" s="2">
+        <v>44732.5372337963</v>
+      </c>
+      <c r="E186">
+        <v>20</v>
+      </c>
+      <c r="F186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>126159</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187">
+        <v>72</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44732.53758101852</v>
+      </c>
+      <c r="E187">
+        <v>20</v>
+      </c>
+      <c r="F187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>126159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188">
+        <v>16</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44732.5378125</v>
+      </c>
+      <c r="E188">
+        <v>20</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>126159</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189">
+        <v>24</v>
+      </c>
+      <c r="D189" s="2">
+        <v>44732.53806712963</v>
+      </c>
+      <c r="E189">
+        <v>20</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>126159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190">
+        <v>36</v>
+      </c>
+      <c r="D190" s="2">
+        <v>44732.53856481481</v>
+      </c>
+      <c r="E190">
+        <v>20</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>126159</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191">
+        <v>240</v>
+      </c>
+      <c r="D191" s="2">
+        <v>44732.53864583333</v>
+      </c>
+      <c r="E191">
+        <v>20</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>126159</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192">
+        <v>36</v>
+      </c>
+      <c r="D192" s="2">
+        <v>44732.53888888889</v>
+      </c>
+      <c r="E192">
+        <v>20</v>
+      </c>
+      <c r="F192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>126159</v>
+      </c>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193">
+        <v>16</v>
+      </c>
+      <c r="D193" s="2">
+        <v>44732.53936342592</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>126159</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194">
+        <v>36</v>
+      </c>
+      <c r="D194" s="2">
+        <v>44732.53938657408</v>
+      </c>
+      <c r="E194">
+        <v>20</v>
+      </c>
+      <c r="F194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>126159</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195">
+        <v>24</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44732.53943287037</v>
+      </c>
+      <c r="E195">
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>126159</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2">
+        <v>44732.53949074074</v>
+      </c>
+      <c r="E196">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>126159</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2">
+        <v>44732.53951388889</v>
+      </c>
+      <c r="E197">
+        <v>20</v>
+      </c>
+      <c r="F197">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>126159</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2">
+        <v>44732.53953703704</v>
+      </c>
+      <c r="E198">
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>126159</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199" s="2">
+        <v>44732.54040509259</v>
+      </c>
+      <c r="E199">
+        <v>20</v>
+      </c>
+      <c r="F199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>126159</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" s="2">
+        <v>44732.54042824074</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>126159</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201" s="2">
+        <v>44732.54045138889</v>
+      </c>
+      <c r="E201">
+        <v>20</v>
+      </c>
+      <c r="F201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>126159</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2">
+        <v>44732.54050925926</v>
+      </c>
+      <c r="E202">
+        <v>20</v>
+      </c>
+      <c r="F202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>126159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203">
+        <v>66</v>
+      </c>
+      <c r="D203" s="2">
+        <v>44732.54063657407</v>
+      </c>
+      <c r="E203">
+        <v>20</v>
+      </c>
+      <c r="F203">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>126159</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204" s="2">
+        <v>44732.54070601852</v>
+      </c>
+      <c r="E204">
+        <v>20</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>126159</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205">
+        <v>30</v>
+      </c>
+      <c r="D205" s="2">
+        <v>44732.54079861111</v>
+      </c>
+      <c r="E205">
+        <v>20</v>
+      </c>
+      <c r="F205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>126159</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206">
+        <v>32</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44732.54206018519</v>
+      </c>
+      <c r="E206">
+        <v>20</v>
+      </c>
+      <c r="F206">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>126159</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207">
+        <v>32</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44732.54210648148</v>
+      </c>
+      <c r="E207">
+        <v>20</v>
+      </c>
+      <c r="F207">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>126159</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44732.54403935185</v>
+      </c>
+      <c r="E208">
+        <v>20</v>
+      </c>
+      <c r="F208">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>126159</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44732.55459490741</v>
+      </c>
+      <c r="E209">
+        <v>20</v>
+      </c>
+      <c r="F209">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>126159</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210">
+        <v>18</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44732.55478009259</v>
+      </c>
+      <c r="E210">
+        <v>20</v>
+      </c>
+      <c r="F210">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>126159</v>
+      </c>
+      <c r="B211" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211">
+        <v>60</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44732.56814814815</v>
+      </c>
+      <c r="E211">
+        <v>20</v>
+      </c>
+      <c r="F211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>126159</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212">
+        <v>24</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44732.57114583333</v>
+      </c>
+      <c r="E212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>126159</v>
+      </c>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213">
+        <v>24</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44732.59755787037</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>126159</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214">
+        <v>60</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44732.59768518519</v>
+      </c>
+      <c r="E214">
+        <v>20</v>
+      </c>
+      <c r="F214">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>126159</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44732.5983912037</v>
+      </c>
+      <c r="E215">
+        <v>20</v>
+      </c>
+      <c r="F215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>126159</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216">
+        <v>48</v>
+      </c>
+      <c r="D216" s="2">
+        <v>44732.59849537037</v>
+      </c>
+      <c r="E216">
+        <v>20</v>
+      </c>
+      <c r="F216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>126159</v>
+      </c>
+      <c r="B217" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217">
+        <v>48</v>
+      </c>
+      <c r="D217" s="2">
+        <v>44732.59861111111</v>
+      </c>
+      <c r="E217">
+        <v>20</v>
+      </c>
+      <c r="F217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>126159</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218">
+        <v>160</v>
+      </c>
+      <c r="D218" s="2">
+        <v>44732.59918981481</v>
+      </c>
+      <c r="E218">
+        <v>20</v>
+      </c>
+      <c r="F218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>126159</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219">
+        <v>36</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44732.59925925926</v>
+      </c>
+      <c r="E219">
+        <v>20</v>
+      </c>
+      <c r="F219">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>126159</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220">
+        <v>40</v>
+      </c>
+      <c r="D220" s="2">
+        <v>44732.599375</v>
+      </c>
+      <c r="E220">
+        <v>20</v>
+      </c>
+      <c r="F220">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>126159</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221">
+        <v>150</v>
+      </c>
+      <c r="D221" s="2">
+        <v>44732.59983796296</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>126159</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2">
+        <v>44732.60899305555</v>
+      </c>
+      <c r="E222">
+        <v>20</v>
+      </c>
+      <c r="F222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>126159</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2">
+        <v>44732.60902777778</v>
+      </c>
+      <c r="E223">
+        <v>20</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>126159</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224">
+        <v>15</v>
+      </c>
+      <c r="D224" s="2">
+        <v>44732.60912037037</v>
+      </c>
+      <c r="E224">
+        <v>20</v>
+      </c>
+      <c r="F224">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>126159</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225">
+        <v>100</v>
+      </c>
+      <c r="D225" s="2">
+        <v>44732.60974537037</v>
+      </c>
+      <c r="E225">
+        <v>20</v>
+      </c>
+      <c r="F225">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>126159</v>
+      </c>
+      <c r="B226" t="s">
+        <v>230</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2">
+        <v>44732.60981481482</v>
+      </c>
+      <c r="E226">
+        <v>20</v>
+      </c>
+      <c r="F226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>126159</v>
+      </c>
+      <c r="B227" t="s">
+        <v>231</v>
+      </c>
+      <c r="C227">
+        <v>36</v>
+      </c>
+      <c r="D227" s="2">
+        <v>44732.60991898148</v>
+      </c>
+      <c r="E227">
+        <v>20</v>
+      </c>
+      <c r="F227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>126159</v>
+      </c>
+      <c r="B228" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228">
+        <v>24</v>
+      </c>
+      <c r="D228" s="2">
+        <v>44732.60998842592</v>
+      </c>
+      <c r="E228">
+        <v>20</v>
+      </c>
+      <c r="F228">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>126159</v>
+      </c>
+      <c r="B229" t="s">
+        <v>233</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2">
+        <v>44732.61079861111</v>
+      </c>
+      <c r="E229">
+        <v>20</v>
+      </c>
+      <c r="F229">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>126159</v>
+      </c>
+      <c r="B230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C230">
+        <v>60</v>
+      </c>
+      <c r="D230" s="2">
+        <v>44732.61137731482</v>
+      </c>
+      <c r="E230">
+        <v>20</v>
+      </c>
+      <c r="F230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>126159</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2">
+        <v>44732.61221064815</v>
+      </c>
+      <c r="E231">
+        <v>20</v>
+      </c>
+      <c r="F231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>126159</v>
+      </c>
+      <c r="B232" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232">
+        <v>35</v>
+      </c>
+      <c r="D232" s="2">
+        <v>44732.61265046296</v>
+      </c>
+      <c r="E232">
+        <v>20</v>
+      </c>
+      <c r="F232">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>126159</v>
+      </c>
+      <c r="B233" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233">
+        <v>48</v>
+      </c>
+      <c r="D233" s="2">
+        <v>44732.61274305556</v>
+      </c>
+      <c r="E233">
+        <v>20</v>
+      </c>
+      <c r="F233">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>126159</v>
+      </c>
+      <c r="B234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234">
+        <v>21</v>
+      </c>
+      <c r="D234" s="2">
+        <v>44732.61288194444</v>
+      </c>
+      <c r="E234">
+        <v>20</v>
+      </c>
+      <c r="F234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>126159</v>
+      </c>
+      <c r="B235" t="s">
+        <v>239</v>
+      </c>
+      <c r="C235">
+        <v>90</v>
+      </c>
+      <c r="D235" s="2">
+        <v>44732.39646990741</v>
+      </c>
+      <c r="E235">
+        <v>20</v>
+      </c>
+      <c r="F235">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>126159</v>
+      </c>
+      <c r="B236" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236">
+        <v>240</v>
+      </c>
+      <c r="D236" s="2">
+        <v>44732.41131944444</v>
+      </c>
+      <c r="E236">
+        <v>20</v>
+      </c>
+      <c r="F236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>126159</v>
+      </c>
+      <c r="B237" t="s">
+        <v>241</v>
+      </c>
+      <c r="C237">
+        <v>60</v>
+      </c>
+      <c r="D237" s="2">
+        <v>44732.41141203704</v>
+      </c>
+      <c r="E237">
+        <v>20</v>
+      </c>
+      <c r="F237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>126159</v>
+      </c>
+      <c r="B238" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238">
+        <v>60</v>
+      </c>
+      <c r="D238" s="2">
+        <v>44732.41155092593</v>
+      </c>
+      <c r="E238">
+        <v>20</v>
+      </c>
+      <c r="F238">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>126159</v>
+      </c>
+      <c r="B239" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239">
+        <v>48</v>
+      </c>
+      <c r="D239" s="2">
+        <v>44732.41159722222</v>
+      </c>
+      <c r="E239">
+        <v>20</v>
+      </c>
+      <c r="F239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>126159</v>
+      </c>
+      <c r="B240" t="s">
+        <v>244</v>
+      </c>
+      <c r="C240">
+        <v>24</v>
+      </c>
+      <c r="D240" s="2">
+        <v>44732.41165509259</v>
+      </c>
+      <c r="E240">
+        <v>20</v>
+      </c>
+      <c r="F240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>126159</v>
+      </c>
+      <c r="B241" t="s">
+        <v>245</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241" s="2">
+        <v>44732.41592592592</v>
+      </c>
+      <c r="E241">
+        <v>20</v>
+      </c>
+      <c r="F241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>126159</v>
+      </c>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+      <c r="C242">
+        <v>240</v>
+      </c>
+      <c r="D242" s="2">
+        <v>44732.41600694445</v>
+      </c>
+      <c r="E242">
+        <v>20</v>
+      </c>
+      <c r="F242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>126159</v>
+      </c>
+      <c r="B243" t="s">
+        <v>247</v>
+      </c>
+      <c r="C243">
+        <v>120</v>
+      </c>
+      <c r="D243" s="2">
+        <v>44732.42040509259</v>
+      </c>
+      <c r="E243">
+        <v>20</v>
+      </c>
+      <c r="F243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>126159</v>
+      </c>
+      <c r="B244" t="s">
+        <v>248</v>
+      </c>
+      <c r="C244">
+        <v>24</v>
+      </c>
+      <c r="D244" s="2">
+        <v>44732.42052083334</v>
+      </c>
+      <c r="E244">
+        <v>20</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>126159</v>
+      </c>
+      <c r="B245" t="s">
+        <v>249</v>
+      </c>
+      <c r="C245">
+        <v>60</v>
+      </c>
+      <c r="D245" s="2">
+        <v>44732.42057870371</v>
+      </c>
+      <c r="E245">
+        <v>20</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>126159</v>
+      </c>
+      <c r="B246" t="s">
+        <v>250</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246" s="2">
+        <v>44732.42113425926</v>
+      </c>
+      <c r="E246">
+        <v>20</v>
+      </c>
+      <c r="F246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>126159</v>
+      </c>
+      <c r="B247" t="s">
+        <v>251</v>
+      </c>
+      <c r="C247">
+        <v>60</v>
+      </c>
+      <c r="D247" s="2">
+        <v>44732.42118055555</v>
+      </c>
+      <c r="E247">
+        <v>20</v>
+      </c>
+      <c r="F247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>126159</v>
+      </c>
+      <c r="B248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248">
+        <v>60</v>
+      </c>
+      <c r="D248" s="2">
+        <v>44732.42125</v>
+      </c>
+      <c r="E248">
+        <v>20</v>
+      </c>
+      <c r="F248">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>126159</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249">
+        <v>60</v>
+      </c>
+      <c r="D249" s="2">
+        <v>44732.42216435185</v>
+      </c>
+      <c r="E249">
+        <v>20</v>
+      </c>
+      <c r="F249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>126159</v>
+      </c>
+      <c r="B250" t="s">
+        <v>254</v>
+      </c>
+      <c r="C250">
+        <v>24</v>
+      </c>
+      <c r="D250" s="2">
+        <v>44732.42251157408</v>
+      </c>
+      <c r="E250">
+        <v>20</v>
+      </c>
+      <c r="F250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>126159</v>
+      </c>
+      <c r="B251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251">
+        <v>48</v>
+      </c>
+      <c r="D251" s="2">
+        <v>44732.42261574074</v>
+      </c>
+      <c r="E251">
+        <v>20</v>
+      </c>
+      <c r="F251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>126159</v>
+      </c>
+      <c r="B252" t="s">
+        <v>256</v>
+      </c>
+      <c r="C252">
+        <v>60</v>
+      </c>
+      <c r="D252" s="2">
+        <v>44732.42273148148</v>
+      </c>
+      <c r="E252">
+        <v>20</v>
+      </c>
+      <c r="F252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>126159</v>
+      </c>
+      <c r="B253" t="s">
+        <v>257</v>
+      </c>
+      <c r="C253">
+        <v>120</v>
+      </c>
+      <c r="D253" s="2">
+        <v>44732.42277777778</v>
+      </c>
+      <c r="E253">
+        <v>20</v>
+      </c>
+      <c r="F253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>126159</v>
+      </c>
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254">
+        <v>24</v>
+      </c>
+      <c r="D254" s="2">
+        <v>44732.42289351852</v>
+      </c>
+      <c r="E254">
+        <v>20</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>126159</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255">
+        <v>60</v>
+      </c>
+      <c r="D255" s="2">
+        <v>44732.42334490741</v>
+      </c>
+      <c r="E255">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>126159</v>
+      </c>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256">
+        <v>120</v>
+      </c>
+      <c r="D256" s="2">
+        <v>44732.42341435186</v>
+      </c>
+      <c r="E256">
+        <v>20</v>
+      </c>
+      <c r="F256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>126159</v>
+      </c>
+      <c r="B257" t="s">
+        <v>261</v>
+      </c>
+      <c r="C257">
+        <v>60</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44732.42368055556</v>
+      </c>
+      <c r="E257">
+        <v>20</v>
+      </c>
+      <c r="F257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>126159</v>
+      </c>
+      <c r="B258" t="s">
+        <v>262</v>
+      </c>
+      <c r="C258">
+        <v>120</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E258">
+        <v>20</v>
+      </c>
+      <c r="F258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>126159</v>
+      </c>
+      <c r="B259" t="s">
+        <v>263</v>
+      </c>
+      <c r="C259">
+        <v>90</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E259">
+        <v>20</v>
+      </c>
+      <c r="F259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>126159</v>
+      </c>
+      <c r="B260" t="s">
+        <v>264</v>
+      </c>
+      <c r="C260">
+        <v>90</v>
+      </c>
+      <c r="D260" s="2">
+        <v>44732.42987268518</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
+      </c>
+      <c r="F260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>126159</v>
+      </c>
+      <c r="B261" t="s">
+        <v>265</v>
+      </c>
+      <c r="C261">
+        <v>600</v>
+      </c>
+      <c r="D261" s="2">
+        <v>44732.57280092593</v>
+      </c>
+      <c r="E261">
+        <v>20</v>
+      </c>
+      <c r="F261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>62473</v>
+      </c>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262">
+        <v>48</v>
+      </c>
+      <c r="D262" s="2">
+        <v>44732.4653125</v>
+      </c>
+      <c r="E262">
+        <v>20</v>
+      </c>
+      <c r="F262">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>62473</v>
+      </c>
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263">
+        <v>30</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44732.46556712963</v>
+      </c>
+      <c r="E263">
+        <v>20</v>
+      </c>
+      <c r="F263">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>62473</v>
+      </c>
+      <c r="B264" t="s">
+        <v>268</v>
+      </c>
+      <c r="C264">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2">
+        <v>44732.46784722222</v>
+      </c>
+      <c r="E264">
+        <v>20</v>
+      </c>
+      <c r="F264">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>62473</v>
+      </c>
+      <c r="B265" t="s">
+        <v>269</v>
+      </c>
+      <c r="C265">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2">
+        <v>44732.46789351852</v>
+      </c>
+      <c r="E265">
+        <v>20</v>
+      </c>
+      <c r="F265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>62473</v>
+      </c>
+      <c r="B266" t="s">
+        <v>270</v>
+      </c>
+      <c r="C266">
+        <v>12</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44732.46796296296</v>
+      </c>
+      <c r="E266">
+        <v>20</v>
+      </c>
+      <c r="F266">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>62473</v>
+      </c>
+      <c r="B267" t="s">
+        <v>271</v>
+      </c>
+      <c r="C267">
+        <v>18</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44732.46809027778</v>
+      </c>
+      <c r="E267">
+        <v>20</v>
+      </c>
+      <c r="F267">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>62473</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44732.46959490741</v>
+      </c>
+      <c r="E268">
+        <v>20</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>62473</v>
+      </c>
+      <c r="B269" t="s">
+        <v>273</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269" s="2">
+        <v>44732.47063657407</v>
+      </c>
+      <c r="E269">
+        <v>20</v>
+      </c>
+      <c r="F269">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>62473</v>
+      </c>
+      <c r="B270" t="s">
+        <v>274</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270" s="2">
+        <v>44732.47076388889</v>
+      </c>
+      <c r="E270">
+        <v>20</v>
+      </c>
+      <c r="F270">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>62473</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271">
+        <v>36</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44732.47626157408</v>
+      </c>
+      <c r="E271">
+        <v>20</v>
+      </c>
+      <c r="F271">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>62473</v>
+      </c>
+      <c r="B272" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+      <c r="D272" s="2">
+        <v>44732.47634259259</v>
+      </c>
+      <c r="E272">
+        <v>20</v>
+      </c>
+      <c r="F272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>62473</v>
+      </c>
+      <c r="B273" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273">
+        <v>36</v>
+      </c>
+      <c r="D273" s="2">
+        <v>44732.47642361111</v>
+      </c>
+      <c r="E273">
+        <v>20</v>
+      </c>
+      <c r="F273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>62473</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>60</v>
+      </c>
+      <c r="D274" s="2">
+        <v>44732.47663194445</v>
+      </c>
+      <c r="E274">
+        <v>20</v>
+      </c>
+      <c r="F274">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>62473</v>
+      </c>
+      <c r="B275" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275">
+        <v>48</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44732.47672453704</v>
+      </c>
+      <c r="E275">
+        <v>20</v>
+      </c>
+      <c r="F275">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>62473</v>
+      </c>
+      <c r="B276" t="s">
+        <v>280</v>
+      </c>
+      <c r="C276">
+        <v>24</v>
+      </c>
+      <c r="D276" s="2">
+        <v>44732.47690972222</v>
+      </c>
+      <c r="E276">
+        <v>20</v>
+      </c>
+      <c r="F276">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>62473</v>
+      </c>
+      <c r="B277" t="s">
+        <v>281</v>
+      </c>
+      <c r="C277">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2">
+        <v>44732.47848379629</v>
+      </c>
+      <c r="E277">
+        <v>20</v>
+      </c>
+      <c r="F277">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>62473</v>
+      </c>
+      <c r="B278" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2">
+        <v>44732.47857638889</v>
+      </c>
+      <c r="E278">
+        <v>20</v>
+      </c>
+      <c r="F278">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>62473</v>
+      </c>
+      <c r="B279" t="s">
+        <v>283</v>
+      </c>
+      <c r="C279">
+        <v>20</v>
+      </c>
+      <c r="D279" s="2">
+        <v>44732.47862268519</v>
+      </c>
+      <c r="E279">
+        <v>20</v>
+      </c>
+      <c r="F279">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>62473</v>
+      </c>
+      <c r="B280" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" s="2">
+        <v>44732.47887731482</v>
+      </c>
+      <c r="E280">
+        <v>20</v>
+      </c>
+      <c r="F280">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>62473</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2">
+        <v>44732.47892361111</v>
+      </c>
+      <c r="E281">
+        <v>20</v>
+      </c>
+      <c r="F281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>62473</v>
+      </c>
+      <c r="B282" t="s">
+        <v>286</v>
+      </c>
+      <c r="C282">
+        <v>30</v>
+      </c>
+      <c r="D282" s="2">
+        <v>44732.47899305556</v>
+      </c>
+      <c r="E282">
+        <v>20</v>
+      </c>
+      <c r="F282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>62473</v>
+      </c>
+      <c r="B283" t="s">
+        <v>287</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2">
+        <v>44732.4804050926</v>
+      </c>
+      <c r="E283">
+        <v>20</v>
+      </c>
+      <c r="F283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>62473</v>
+      </c>
+      <c r="B284" t="s">
+        <v>288</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+      <c r="D284" s="2">
+        <v>44732.48056712963</v>
+      </c>
+      <c r="E284">
+        <v>20</v>
+      </c>
+      <c r="F284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>62473</v>
+      </c>
+      <c r="B285" t="s">
+        <v>289</v>
+      </c>
+      <c r="C285">
+        <v>12</v>
+      </c>
+      <c r="D285" s="2">
+        <v>44732.48068287037</v>
+      </c>
+      <c r="E285">
+        <v>20</v>
+      </c>
+      <c r="F285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>62473</v>
+      </c>
+      <c r="B286" t="s">
+        <v>290</v>
+      </c>
+      <c r="C286">
+        <v>6</v>
+      </c>
+      <c r="D286" s="2">
+        <v>44732.48077546297</v>
+      </c>
+      <c r="E286">
+        <v>20</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>62473</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2">
+        <v>44732.48087962963</v>
+      </c>
+      <c r="E287">
+        <v>20</v>
+      </c>
+      <c r="F287">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>62473</v>
+      </c>
+      <c r="B288" t="s">
+        <v>292</v>
+      </c>
+      <c r="C288">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2">
+        <v>44732.48097222222</v>
+      </c>
+      <c r="E288">
+        <v>20</v>
+      </c>
+      <c r="F288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>62473</v>
+      </c>
+      <c r="B289" t="s">
+        <v>293</v>
+      </c>
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2">
+        <v>44732.48111111111</v>
+      </c>
+      <c r="E289">
+        <v>20</v>
+      </c>
+      <c r="F289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>62473</v>
+      </c>
+      <c r="B290" t="s">
+        <v>294</v>
+      </c>
+      <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2">
+        <v>44732.48112268518</v>
+      </c>
+      <c r="E290">
+        <v>20</v>
+      </c>
+      <c r="F290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>62473</v>
+      </c>
+      <c r="B291" t="s">
+        <v>295</v>
+      </c>
+      <c r="C291">
+        <v>6</v>
+      </c>
+      <c r="D291" s="2">
+        <v>44732.4811574074</v>
+      </c>
+      <c r="E291">
+        <v>20</v>
+      </c>
+      <c r="F291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>62473</v>
+      </c>
+      <c r="B292" t="s">
+        <v>296</v>
+      </c>
+      <c r="C292">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2">
+        <v>44732.48118055556</v>
+      </c>
+      <c r="E292">
+        <v>20</v>
+      </c>
+      <c r="F292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>62473</v>
+      </c>
+      <c r="B293" t="s">
+        <v>297</v>
+      </c>
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2">
+        <v>44732.48118055556</v>
+      </c>
+      <c r="E293">
+        <v>20</v>
+      </c>
+      <c r="F293">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>62473</v>
+      </c>
+      <c r="B294" t="s">
+        <v>298</v>
+      </c>
+      <c r="C294">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2">
+        <v>44732.48121527778</v>
+      </c>
+      <c r="E294">
+        <v>20</v>
+      </c>
+      <c r="F294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>62473</v>
+      </c>
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+      <c r="C295">
+        <v>72</v>
+      </c>
+      <c r="D295" s="2">
+        <v>44732.48134259259</v>
+      </c>
+      <c r="E295">
+        <v>20</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>62473</v>
+      </c>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+      <c r="C296">
+        <v>50</v>
+      </c>
+      <c r="D296" s="2">
+        <v>44732.48144675926</v>
+      </c>
+      <c r="E296">
+        <v>20</v>
+      </c>
+      <c r="F296">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>62473</v>
+      </c>
+      <c r="B297" t="s">
+        <v>301</v>
+      </c>
+      <c r="C297">
+        <v>60</v>
+      </c>
+      <c r="D297" s="2">
+        <v>44732.48149305556</v>
+      </c>
+      <c r="E297">
+        <v>20</v>
+      </c>
+      <c r="F297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>62473</v>
+      </c>
+      <c r="B298" t="s">
+        <v>302</v>
+      </c>
+      <c r="C298">
+        <v>24</v>
+      </c>
+      <c r="D298" s="2">
+        <v>44732.48335648148</v>
+      </c>
+      <c r="E298">
+        <v>20</v>
+      </c>
+      <c r="F298">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>62473</v>
+      </c>
+      <c r="B299" t="s">
+        <v>303</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" s="2">
+        <v>44732.48340277778</v>
+      </c>
+      <c r="E299">
+        <v>20</v>
+      </c>
+      <c r="F299">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>62473</v>
+      </c>
+      <c r="B300" t="s">
+        <v>304</v>
+      </c>
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2">
+        <v>44732.49385416666</v>
+      </c>
+      <c r="E300">
+        <v>20</v>
+      </c>
+      <c r="F300">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>62473</v>
+      </c>
+      <c r="B301" t="s">
+        <v>305</v>
+      </c>
+      <c r="C301">
+        <v>60</v>
+      </c>
+      <c r="D301" s="2">
+        <v>44732.49430555556</v>
+      </c>
+      <c r="E301">
+        <v>20</v>
+      </c>
+      <c r="F301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
+        <v>62473</v>
+      </c>
+      <c r="B302" t="s">
+        <v>306</v>
+      </c>
+      <c r="C302">
+        <v>20</v>
+      </c>
+      <c r="D302" s="2">
+        <v>44732.4949537037</v>
+      </c>
+      <c r="E302">
+        <v>20</v>
+      </c>
+      <c r="F302">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303">
+        <v>62473</v>
+      </c>
+      <c r="B303" t="s">
+        <v>307</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="D303" s="2">
+        <v>44732.49552083333</v>
+      </c>
+      <c r="E303">
+        <v>20</v>
+      </c>
+      <c r="F303">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304">
+        <v>62473</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304" s="2">
+        <v>44732.49596064815</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
+      <c r="F304">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305">
+        <v>62473</v>
+      </c>
+      <c r="B305" t="s">
+        <v>309</v>
+      </c>
+      <c r="C305">
+        <v>540</v>
+      </c>
+      <c r="D305" s="2">
+        <v>44732.58417824074</v>
+      </c>
+      <c r="E305">
+        <v>20</v>
+      </c>
+      <c r="F305">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
+        <v>62473</v>
+      </c>
+      <c r="B306" t="s">
+        <v>310</v>
+      </c>
+      <c r="C306">
+        <v>540</v>
+      </c>
+      <c r="D306" s="2">
+        <v>44732.59115740741</v>
+      </c>
+      <c r="E306">
+        <v>20</v>
+      </c>
+      <c r="F306">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307">
+        <v>62473</v>
+      </c>
+      <c r="B307" t="s">
+        <v>311</v>
+      </c>
+      <c r="C307">
+        <v>20</v>
+      </c>
+      <c r="D307" s="2">
+        <v>44732.59388888889</v>
+      </c>
+      <c r="E307">
+        <v>20</v>
+      </c>
+      <c r="F307">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
+        <v>62473</v>
+      </c>
+      <c r="B308" t="s">
+        <v>312</v>
+      </c>
+      <c r="C308">
+        <v>20</v>
+      </c>
+      <c r="D308" s="2">
+        <v>44732.59403935185</v>
+      </c>
+      <c r="E308">
+        <v>20</v>
+      </c>
+      <c r="F308">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309">
+        <v>62473</v>
+      </c>
+      <c r="B309" t="s">
+        <v>313</v>
+      </c>
+      <c r="C309">
+        <v>100</v>
+      </c>
+      <c r="D309" s="2">
+        <v>44732.594375</v>
+      </c>
+      <c r="E309">
+        <v>20</v>
+      </c>
+      <c r="F309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310">
+        <v>62473</v>
+      </c>
+      <c r="B310" t="s">
+        <v>314</v>
+      </c>
+      <c r="C310">
+        <v>24</v>
+      </c>
+      <c r="D310" s="2">
+        <v>44732.59497685185</v>
+      </c>
+      <c r="E310">
+        <v>20</v>
+      </c>
+      <c r="F310">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311">
+        <v>62473</v>
+      </c>
+      <c r="B311" t="s">
+        <v>315</v>
+      </c>
+      <c r="C311">
+        <v>40</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44732.59559027778</v>
+      </c>
+      <c r="E311">
+        <v>20</v>
+      </c>
+      <c r="F311">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>62473</v>
+      </c>
+      <c r="B312" t="s">
+        <v>316</v>
+      </c>
+      <c r="C312">
+        <v>100</v>
+      </c>
+      <c r="D312" s="2">
+        <v>44732.59574074074</v>
+      </c>
+      <c r="E312">
+        <v>20</v>
+      </c>
+      <c r="F312">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313">
+        <v>62473</v>
+      </c>
+      <c r="B313" t="s">
+        <v>317</v>
+      </c>
+      <c r="C313">
+        <v>100</v>
+      </c>
+      <c r="D313" s="2">
+        <v>44732.60724537037</v>
+      </c>
+      <c r="E313">
+        <v>20</v>
+      </c>
+      <c r="F313">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>62473</v>
+      </c>
+      <c r="B314" t="s">
+        <v>318</v>
+      </c>
+      <c r="C314">
+        <v>100</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44732.60729166667</v>
+      </c>
+      <c r="E314">
+        <v>20</v>
+      </c>
+      <c r="F314">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315">
+        <v>62473</v>
+      </c>
+      <c r="B315" t="s">
+        <v>319</v>
+      </c>
+      <c r="C315">
+        <v>100</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44732.60743055555</v>
+      </c>
+      <c r="E315">
+        <v>20</v>
+      </c>
+      <c r="F315">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316">
+        <v>62473</v>
+      </c>
+      <c r="B316" t="s">
+        <v>320</v>
+      </c>
+      <c r="C316">
+        <v>36</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44732.60751157408</v>
+      </c>
+      <c r="E316">
+        <v>20</v>
+      </c>
+      <c r="F316">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
+        <v>62473</v>
+      </c>
+      <c r="B317" t="s">
+        <v>321</v>
+      </c>
+      <c r="C317">
+        <v>30</v>
+      </c>
+      <c r="D317" s="2">
+        <v>44732.61168981482</v>
+      </c>
+      <c r="E317">
+        <v>20</v>
+      </c>
+      <c r="F317">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318">
+        <v>62473</v>
+      </c>
+      <c r="B318" t="s">
+        <v>322</v>
+      </c>
+      <c r="C318">
+        <v>48</v>
+      </c>
+      <c r="D318" s="2">
+        <v>44732.61269675926</v>
+      </c>
+      <c r="E318">
+        <v>20</v>
+      </c>
+      <c r="F318">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319">
+        <v>62473</v>
+      </c>
+      <c r="B319" t="s">
+        <v>323</v>
+      </c>
+      <c r="C319">
+        <v>24</v>
+      </c>
+      <c r="D319" s="2">
+        <v>44732.61278935185</v>
+      </c>
+      <c r="E319">
+        <v>20</v>
+      </c>
+      <c r="F319">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320">
+        <v>62473</v>
+      </c>
+      <c r="B320" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320">
+        <v>40</v>
+      </c>
+      <c r="D320" s="2">
+        <v>44732.6131712963</v>
+      </c>
+      <c r="E320">
+        <v>20</v>
+      </c>
+      <c r="F320">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321">
+        <v>62473</v>
+      </c>
+      <c r="B321" t="s">
+        <v>325</v>
+      </c>
+      <c r="C321">
+        <v>40</v>
+      </c>
+      <c r="D321" s="2">
+        <v>44732.61390046297</v>
+      </c>
+      <c r="E321">
+        <v>20</v>
+      </c>
+      <c r="F321">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322">
+        <v>62473</v>
+      </c>
+      <c r="B322" t="s">
+        <v>326</v>
+      </c>
+      <c r="C322">
+        <v>24</v>
+      </c>
+      <c r="D322" s="2">
+        <v>44732.61667824074</v>
+      </c>
+      <c r="E322">
+        <v>20</v>
+      </c>
+      <c r="F322">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>62473</v>
+      </c>
+      <c r="B323" t="s">
+        <v>327</v>
+      </c>
+      <c r="C323">
+        <v>24</v>
+      </c>
+      <c r="D323" s="2">
+        <v>44732.61712962963</v>
+      </c>
+      <c r="E323">
+        <v>20</v>
+      </c>
+      <c r="F323">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>62473</v>
+      </c>
+      <c r="B324" t="s">
+        <v>328</v>
+      </c>
+      <c r="C324">
+        <v>30</v>
+      </c>
+      <c r="D324" s="2">
+        <v>44732.61784722222</v>
+      </c>
+      <c r="E324">
+        <v>20</v>
+      </c>
+      <c r="F324">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>62473</v>
+      </c>
+      <c r="B325" t="s">
+        <v>329</v>
+      </c>
+      <c r="C325">
+        <v>24</v>
+      </c>
+      <c r="D325" s="2">
+        <v>44732.61827546296</v>
+      </c>
+      <c r="E325">
+        <v>20</v>
+      </c>
+      <c r="F325">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>62473</v>
+      </c>
+      <c r="B326" t="s">
+        <v>330</v>
+      </c>
+      <c r="C326">
+        <v>24</v>
+      </c>
+      <c r="D326" s="2">
+        <v>44732.61835648148</v>
+      </c>
+      <c r="E326">
+        <v>20</v>
+      </c>
+      <c r="F326">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>62473</v>
+      </c>
+      <c r="B327" t="s">
+        <v>331</v>
+      </c>
+      <c r="C327">
+        <v>24</v>
+      </c>
+      <c r="D327" s="2">
+        <v>44732.61857638889</v>
+      </c>
+      <c r="E327">
+        <v>20</v>
+      </c>
+      <c r="F327">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>62473</v>
+      </c>
+      <c r="B328" t="s">
+        <v>332</v>
+      </c>
+      <c r="C328">
+        <v>24</v>
+      </c>
+      <c r="D328" s="2">
+        <v>44732.61898148148</v>
+      </c>
+      <c r="E328">
+        <v>20</v>
+      </c>
+      <c r="F328">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>62473</v>
+      </c>
+      <c r="B329" t="s">
+        <v>333</v>
+      </c>
+      <c r="C329">
+        <v>48</v>
+      </c>
+      <c r="D329" s="2">
+        <v>44732.61972222223</v>
+      </c>
+      <c r="E329">
+        <v>20</v>
+      </c>
+      <c r="F329">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>62473</v>
+      </c>
+      <c r="B330" t="s">
+        <v>334</v>
+      </c>
+      <c r="C330">
+        <v>24</v>
+      </c>
+      <c r="D330" s="2">
+        <v>44732.61998842593</v>
+      </c>
+      <c r="E330">
+        <v>20</v>
+      </c>
+      <c r="F330">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp_output/docked_raw/docked_raw_June.xlsx
+++ b/tmp_output/docked_raw/docked_raw_June.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>員編</t>
   </si>
@@ -34,991 +34,928 @@
     <t>HOUR</t>
   </si>
   <si>
-    <t>INTWK0002206150466</t>
-  </si>
-  <si>
-    <t>INTWK0002206160215</t>
-  </si>
-  <si>
-    <t>INTWK0002206160214</t>
-  </si>
-  <si>
-    <t>INTWK0002206150465</t>
-  </si>
-  <si>
-    <t>INTWK0002206160216</t>
-  </si>
-  <si>
-    <t>INTWK0002206160213</t>
-  </si>
-  <si>
-    <t>INTWK0002206150464</t>
-  </si>
-  <si>
-    <t>INTWK0002206160238</t>
-  </si>
-  <si>
-    <t>INTWK0002206160244</t>
-  </si>
-  <si>
-    <t>INTWK0002206160231</t>
-  </si>
-  <si>
-    <t>INTWK0002206160240</t>
-  </si>
-  <si>
-    <t>INTWK0002206160280</t>
-  </si>
-  <si>
-    <t>INTWK0002206160235</t>
-  </si>
-  <si>
-    <t>INTWK0002206160294</t>
-  </si>
-  <si>
-    <t>INTWK0002206160243</t>
-  </si>
-  <si>
-    <t>INTWK0002206160219</t>
-  </si>
-  <si>
-    <t>INTWK0002206160274</t>
-  </si>
-  <si>
-    <t>INTWK0002206160279</t>
-  </si>
-  <si>
-    <t>INTWK0002206160291</t>
-  </si>
-  <si>
-    <t>INTWK0002206160275</t>
-  </si>
-  <si>
-    <t>INTWK0002206160293</t>
-  </si>
-  <si>
-    <t>INTWK0002206160242</t>
-  </si>
-  <si>
-    <t>INTWK0002206160220</t>
-  </si>
-  <si>
-    <t>INTWK0002206160276</t>
-  </si>
-  <si>
-    <t>INTWK0002206160277</t>
-  </si>
-  <si>
-    <t>INTWK0002206160241</t>
-  </si>
-  <si>
-    <t>INTWK0002206160217</t>
-  </si>
-  <si>
-    <t>INTWK0002206160237</t>
-  </si>
-  <si>
-    <t>INTWK0002206160278</t>
-  </si>
-  <si>
-    <t>INTWK0002206160236</t>
-  </si>
-  <si>
-    <t>INTWK0002206160234</t>
-  </si>
-  <si>
-    <t>INTWK0002206160239</t>
-  </si>
-  <si>
-    <t>INTWK0002206160232</t>
-  </si>
-  <si>
-    <t>INTWK0002206160292</t>
-  </si>
-  <si>
-    <t>INTWK0002206160233</t>
-  </si>
-  <si>
-    <t>INTWK0002206150322</t>
-  </si>
-  <si>
-    <t>INTWK0002206150318</t>
-  </si>
-  <si>
-    <t>INTWK0002206150326</t>
-  </si>
-  <si>
-    <t>INTWK0002206150315</t>
-  </si>
-  <si>
-    <t>INTWK0002206150317</t>
-  </si>
-  <si>
-    <t>INTWK0002206150314</t>
-  </si>
-  <si>
-    <t>INTWK0002206150320</t>
-  </si>
-  <si>
-    <t>INTWK0002206150321</t>
-  </si>
-  <si>
-    <t>INTWK0002206150324</t>
-  </si>
-  <si>
-    <t>INTWK0002206150325</t>
-  </si>
-  <si>
-    <t>INTWK0002206150316</t>
-  </si>
-  <si>
-    <t>INTWK0002206160153</t>
-  </si>
-  <si>
-    <t>INTWK0002206160142</t>
-  </si>
-  <si>
-    <t>INTWK0002206160146</t>
-  </si>
-  <si>
-    <t>INTWK0002206160149</t>
-  </si>
-  <si>
-    <t>INTWK0002206160151</t>
-  </si>
-  <si>
-    <t>INTWK0002206160139</t>
-  </si>
-  <si>
-    <t>INTWK0002206160137</t>
-  </si>
-  <si>
-    <t>INTWK0002206160145</t>
-  </si>
-  <si>
-    <t>INTWK0002206160147</t>
-  </si>
-  <si>
-    <t>INTWK0002206160152</t>
-  </si>
-  <si>
-    <t>INTWK0002206160150</t>
-  </si>
-  <si>
-    <t>INTWK0002206160144</t>
-  </si>
-  <si>
-    <t>INTWK0002206160148</t>
-  </si>
-  <si>
-    <t>INTWK0002206160209</t>
-  </si>
-  <si>
-    <t>INTWK0002206160210</t>
-  </si>
-  <si>
-    <t>INTWK0002206160138</t>
-  </si>
-  <si>
-    <t>INTWK0002206160141</t>
-  </si>
-  <si>
-    <t>INTWK0002206160140</t>
-  </si>
-  <si>
-    <t>INTWK0002206160143</t>
-  </si>
-  <si>
-    <t>INTWK0002206160221</t>
-  </si>
-  <si>
-    <t>INTWK0002206170098</t>
-  </si>
-  <si>
-    <t>INTWK0002206170113</t>
-  </si>
-  <si>
-    <t>INTWK0002206170126</t>
-  </si>
-  <si>
-    <t>INTWK0002206170089</t>
-  </si>
-  <si>
-    <t>INTWK0002206170128</t>
-  </si>
-  <si>
-    <t>INTWK0002206170129</t>
-  </si>
-  <si>
-    <t>INTWK0002206170083</t>
-  </si>
-  <si>
-    <t>INTWK0002206170131</t>
-  </si>
-  <si>
-    <t>INTWK0002206170112</t>
-  </si>
-  <si>
-    <t>INTWK0002206170087</t>
-  </si>
-  <si>
-    <t>INTWK0002206170095</t>
-  </si>
-  <si>
-    <t>INTWK0002206170120</t>
-  </si>
-  <si>
-    <t>INTWK0002206170121</t>
-  </si>
-  <si>
-    <t>INTWK0002206170117</t>
-  </si>
-  <si>
-    <t>INTWK0002206170118</t>
-  </si>
-  <si>
-    <t>INTWK0002206170123</t>
-  </si>
-  <si>
-    <t>INTWK0002206170130</t>
-  </si>
-  <si>
-    <t>INTWK0002206170124</t>
-  </si>
-  <si>
-    <t>INTWK0002206170093</t>
-  </si>
-  <si>
-    <t>INTWK0002206170101</t>
-  </si>
-  <si>
-    <t>INTWK0002206170092</t>
-  </si>
-  <si>
-    <t>INTWK0002206170108</t>
-  </si>
-  <si>
-    <t>INTWK0002206170125</t>
-  </si>
-  <si>
-    <t>INTWK0002206170119</t>
-  </si>
-  <si>
-    <t>INTWK0002206170106</t>
-  </si>
-  <si>
-    <t>INTWK0002206170100</t>
-  </si>
-  <si>
-    <t>INTWK0002206170114</t>
-  </si>
-  <si>
-    <t>INTWK0002206170107</t>
-  </si>
-  <si>
-    <t>INTWK0002206170110</t>
-  </si>
-  <si>
-    <t>INTWK0002206170115</t>
-  </si>
-  <si>
-    <t>INTWK0002206170084</t>
-  </si>
-  <si>
-    <t>INTWK0002206170104</t>
-  </si>
-  <si>
-    <t>INTWK0002206170111</t>
-  </si>
-  <si>
-    <t>INTWK0002206170091</t>
-  </si>
-  <si>
-    <t>INTWK0002206170116</t>
-  </si>
-  <si>
-    <t>INTWK0002206170088</t>
-  </si>
-  <si>
-    <t>INTWK0002206170127</t>
-  </si>
-  <si>
-    <t>INTWK0002206170082</t>
-  </si>
-  <si>
-    <t>INTWK0002206170096</t>
-  </si>
-  <si>
-    <t>INTWK0002206170085</t>
-  </si>
-  <si>
-    <t>INTWK0002206170102</t>
-  </si>
-  <si>
-    <t>INTWK0002206170122</t>
-  </si>
-  <si>
-    <t>INTWK0002206170109</t>
-  </si>
-  <si>
-    <t>INTWK0002206170099</t>
-  </si>
-  <si>
-    <t>INTWK0002206170103</t>
-  </si>
-  <si>
-    <t>INTWK0002206170086</t>
-  </si>
-  <si>
-    <t>INTWK0002206170094</t>
-  </si>
-  <si>
-    <t>INTWK0002206170097</t>
-  </si>
-  <si>
-    <t>INTWK0002206170105</t>
-  </si>
-  <si>
-    <t>INTWK0002206160261</t>
-  </si>
-  <si>
-    <t>INTWK0002206160263</t>
-  </si>
-  <si>
-    <t>INTWK0002206160264</t>
-  </si>
-  <si>
-    <t>INTWK0002206160262</t>
-  </si>
-  <si>
-    <t>INTWK0002206170139</t>
-  </si>
-  <si>
-    <t>INTWK0002206170138</t>
-  </si>
-  <si>
-    <t>INTWK0002206150478</t>
-  </si>
-  <si>
-    <t>INTWK0002206150487</t>
-  </si>
-  <si>
-    <t>INTWK0002206150477</t>
-  </si>
-  <si>
-    <t>INTWK0002206150484</t>
-  </si>
-  <si>
-    <t>INTWK0002206150486</t>
-  </si>
-  <si>
-    <t>INTWK0002206150480</t>
-  </si>
-  <si>
-    <t>INTWK0002206150479</t>
-  </si>
-  <si>
-    <t>INTWK0002206150483</t>
-  </si>
-  <si>
-    <t>INTWK0002206150482</t>
-  </si>
-  <si>
-    <t>INTWK0002206150485</t>
-  </si>
-  <si>
-    <t>INTWK0002206150488</t>
-  </si>
-  <si>
-    <t>INTWK0002206150481</t>
-  </si>
-  <si>
-    <t>INTWK0002206150476</t>
-  </si>
-  <si>
-    <t>INTWK0002206150319</t>
-  </si>
-  <si>
-    <t>INTWK0002206150323</t>
-  </si>
-  <si>
-    <t>INTWK0002206150044</t>
-  </si>
-  <si>
-    <t>INTWK0002206150042</t>
-  </si>
-  <si>
-    <t>INTWK0002206150017</t>
-  </si>
-  <si>
-    <t>INTWK0002206150043</t>
-  </si>
-  <si>
-    <t>INTWK0002206150020</t>
-  </si>
-  <si>
-    <t>INTWK0002206150041</t>
-  </si>
-  <si>
-    <t>INTWK0002206150019</t>
-  </si>
-  <si>
-    <t>INTWK0002206150248</t>
-  </si>
-  <si>
-    <t>INTWK0002206150665</t>
-  </si>
-  <si>
-    <t>INTWK0002206150664</t>
-  </si>
-  <si>
-    <t>INTWK0002206150472</t>
-  </si>
-  <si>
-    <t>INTWK0002206150471</t>
-  </si>
-  <si>
-    <t>INTWK0002206150473</t>
-  </si>
-  <si>
-    <t>INTWK0002206150469</t>
-  </si>
-  <si>
-    <t>INTWK0002206150470</t>
-  </si>
-  <si>
-    <t>INTWK0002206150468</t>
-  </si>
-  <si>
-    <t>INTWK0002206150719</t>
-  </si>
-  <si>
-    <t>INTWK0002206140489</t>
-  </si>
-  <si>
-    <t>INTWK0002206140488</t>
-  </si>
-  <si>
-    <t>INTWK0002206150717</t>
-  </si>
-  <si>
-    <t>INTWK0002206150718</t>
-  </si>
-  <si>
-    <t>INTWK0002206150714</t>
-  </si>
-  <si>
-    <t>INTWK0002206150715</t>
-  </si>
-  <si>
-    <t>INTWK0002206150716</t>
-  </si>
-  <si>
-    <t>INTWK0002206140501</t>
-  </si>
-  <si>
-    <t>INTWK0002206140504</t>
-  </si>
-  <si>
-    <t>INTWK0002206140490</t>
-  </si>
-  <si>
-    <t>INTWK0002206140502</t>
-  </si>
-  <si>
-    <t>INTWK0002206140503</t>
-  </si>
-  <si>
-    <t>INTWK0002206150474</t>
-  </si>
-  <si>
-    <t>INTWK0002206160259</t>
-  </si>
-  <si>
-    <t>INTWK0002206160260</t>
-  </si>
-  <si>
-    <t>INTWK0002206150475</t>
-  </si>
-  <si>
-    <t>INTWK0002206150015</t>
-  </si>
-  <si>
-    <t>INTWK0002206150016</t>
-  </si>
-  <si>
-    <t>INTWK0002206150011</t>
-  </si>
-  <si>
-    <t>INTWK0002206150012</t>
-  </si>
-  <si>
-    <t>INTWK0002206150013</t>
-  </si>
-  <si>
-    <t>INTWK0002206140448</t>
-  </si>
-  <si>
-    <t>INTWK0002206140447</t>
-  </si>
-  <si>
-    <t>INTWK0002206140446</t>
-  </si>
-  <si>
-    <t>INTWK0002206150048</t>
-  </si>
-  <si>
-    <t>INTWK0002206150046</t>
-  </si>
-  <si>
-    <t>INTWK0002206150045</t>
-  </si>
-  <si>
-    <t>INTWK0002206150049</t>
-  </si>
-  <si>
-    <t>INTWK0002206150047</t>
-  </si>
-  <si>
-    <t>INTWK0002206010001</t>
-  </si>
-  <si>
-    <t>INTWK0002206140387</t>
-  </si>
-  <si>
-    <t>INTWK0002206140381</t>
-  </si>
-  <si>
-    <t>INTWK0002206140384</t>
-  </si>
-  <si>
-    <t>INTWK0002206140382</t>
-  </si>
-  <si>
-    <t>INTWK0002206140380</t>
-  </si>
-  <si>
-    <t>INTWK0002206140310</t>
-  </si>
-  <si>
-    <t>INTWK0002206140312</t>
-  </si>
-  <si>
-    <t>INTWK0002206140311</t>
-  </si>
-  <si>
-    <t>INTWK0002206140378</t>
-  </si>
-  <si>
-    <t>INTWK0002206140386</t>
-  </si>
-  <si>
-    <t>INTWK0002206140385</t>
-  </si>
-  <si>
-    <t>INTWK0002206140348</t>
-  </si>
-  <si>
-    <t>INTWK0002206140374</t>
-  </si>
-  <si>
-    <t>INTWK0002206140373</t>
-  </si>
-  <si>
-    <t>INTWK0002206140377</t>
-  </si>
-  <si>
-    <t>INTWK0002206140379</t>
-  </si>
-  <si>
-    <t>INTWK0002206140376</t>
-  </si>
-  <si>
-    <t>INTWK0002206140371</t>
-  </si>
-  <si>
-    <t>INTWK0002206140383</t>
-  </si>
-  <si>
-    <t>INTWK0002206140350</t>
-  </si>
-  <si>
-    <t>INTWK0002206140347</t>
-  </si>
-  <si>
-    <t>INTWK0002206140375</t>
-  </si>
-  <si>
-    <t>INTWK0002206140349</t>
-  </si>
-  <si>
-    <t>INTWK0002206140372</t>
-  </si>
-  <si>
-    <t>INTWK0002206160256</t>
-  </si>
-  <si>
-    <t>INTWK0002206160255</t>
-  </si>
-  <si>
-    <t>INTWK0002206160200</t>
-  </si>
-  <si>
-    <t>INTWK0002206160195</t>
-  </si>
-  <si>
-    <t>INTWK0002206160212</t>
-  </si>
-  <si>
-    <t>INTWK0002206160197</t>
-  </si>
-  <si>
-    <t>INTWK0002206160198</t>
-  </si>
-  <si>
-    <t>INTWK0002206160196</t>
-  </si>
-  <si>
-    <t>INTWK0002206160211</t>
-  </si>
-  <si>
-    <t>INTWK0002206160194</t>
-  </si>
-  <si>
-    <t>INTWK0002206160192</t>
-  </si>
-  <si>
-    <t>INTWK0002206160199</t>
-  </si>
-  <si>
-    <t>INTWK0002206160193</t>
-  </si>
-  <si>
-    <t>INTWK0002206150442</t>
-  </si>
-  <si>
-    <t>INTWK0002206140443</t>
-  </si>
-  <si>
-    <t>INTWK0002206140441</t>
-  </si>
-  <si>
-    <t>INTWK0002206140445</t>
-  </si>
-  <si>
-    <t>INTWK0002206130026</t>
-  </si>
-  <si>
-    <t>INTWK0002206140444</t>
-  </si>
-  <si>
-    <t>INTWK0002206150443</t>
-  </si>
-  <si>
-    <t>INTWK0002206150441</t>
-  </si>
-  <si>
-    <t>INTWK0002206160300</t>
-  </si>
-  <si>
-    <t>INTWK0002206160311</t>
-  </si>
-  <si>
-    <t>INTWK0002206140410</t>
-  </si>
-  <si>
-    <t>INTWK0002206140442</t>
-  </si>
-  <si>
-    <t>INTWK0002206130025</t>
-  </si>
-  <si>
-    <t>INTWK0002206160104</t>
-  </si>
-  <si>
-    <t>INTWK0002206150239</t>
-  </si>
-  <si>
-    <t>INTWK0002206150238</t>
-  </si>
-  <si>
-    <t>INTWK0002206150233</t>
-  </si>
-  <si>
-    <t>INTWK0002206150222</t>
-  </si>
-  <si>
-    <t>INTWK0002206150232</t>
-  </si>
-  <si>
-    <t>INTWK0002206150167</t>
-  </si>
-  <si>
-    <t>INTWK0002206150240</t>
-  </si>
-  <si>
-    <t>INTWK0002206150241</t>
-  </si>
-  <si>
-    <t>INTWK0002206150242</t>
-  </si>
-  <si>
-    <t>INTWK0002206150235</t>
-  </si>
-  <si>
-    <t>INTWK0002206150243</t>
-  </si>
-  <si>
-    <t>INTWK0002206150229</t>
-  </si>
-  <si>
-    <t>INTWK0002206150231</t>
-  </si>
-  <si>
-    <t>INTWK0002206150246</t>
-  </si>
-  <si>
-    <t>INTWK0002206150221</t>
-  </si>
-  <si>
-    <t>INTWK0002206150234</t>
-  </si>
-  <si>
-    <t>INTWK0002206150247</t>
-  </si>
-  <si>
-    <t>INTWK0002206150245</t>
-  </si>
-  <si>
-    <t>INTWK0002206150224</t>
-  </si>
-  <si>
-    <t>INTWK0002206150227</t>
-  </si>
-  <si>
-    <t>INTWK0002206150228</t>
-  </si>
-  <si>
-    <t>INTWK0002206150168</t>
-  </si>
-  <si>
-    <t>INTWK0002206150230</t>
-  </si>
-  <si>
-    <t>INTWK0002206150169</t>
-  </si>
-  <si>
-    <t>INTWK0002206150237</t>
-  </si>
-  <si>
-    <t>INTWK0002206170252</t>
-  </si>
-  <si>
-    <t>INTWK0002206150418</t>
-  </si>
-  <si>
-    <t>INTWK0002206150417</t>
-  </si>
-  <si>
-    <t>INTWK0002206150054</t>
-  </si>
-  <si>
-    <t>INTWK0002206150053</t>
-  </si>
-  <si>
-    <t>INTWK0002206150052</t>
-  </si>
-  <si>
-    <t>INTWK0002206150051</t>
-  </si>
-  <si>
-    <t>INTWK0002206150050</t>
-  </si>
-  <si>
-    <t>INTWK0002206150056</t>
-  </si>
-  <si>
-    <t>INTWK0002206150055</t>
-  </si>
-  <si>
-    <t>INTWK0002206160038</t>
-  </si>
-  <si>
-    <t>INTWK0002206160035</t>
-  </si>
-  <si>
-    <t>INTWK0002206160037</t>
-  </si>
-  <si>
-    <t>INTWK0002206160026</t>
-  </si>
-  <si>
-    <t>INTWK0002206160045</t>
-  </si>
-  <si>
-    <t>INTWK0002206160043</t>
-  </si>
-  <si>
-    <t>INTWK0002206160018</t>
-  </si>
-  <si>
-    <t>INTWK0002206160042</t>
-  </si>
-  <si>
-    <t>INTWK0002206160044</t>
-  </si>
-  <si>
-    <t>INTWK0002206160027</t>
-  </si>
-  <si>
-    <t>INTWK0002206160016</t>
-  </si>
-  <si>
-    <t>INTWK0002206160025</t>
-  </si>
-  <si>
-    <t>INTWK0002206160012</t>
-  </si>
-  <si>
-    <t>INTWK0002206160030</t>
-  </si>
-  <si>
-    <t>INTWK0002206160013</t>
-  </si>
-  <si>
-    <t>INTWK0002206160028</t>
-  </si>
-  <si>
-    <t>INTWK0002206160024</t>
-  </si>
-  <si>
-    <t>INTWK0002206160046</t>
-  </si>
-  <si>
-    <t>INTWK0002206160015</t>
-  </si>
-  <si>
-    <t>INTWK0002206160021</t>
-  </si>
-  <si>
-    <t>INTWK0002206160020</t>
-  </si>
-  <si>
-    <t>INTWK0002206160041</t>
-  </si>
-  <si>
-    <t>INTWK0002206160017</t>
-  </si>
-  <si>
-    <t>INTWK0002206160032</t>
-  </si>
-  <si>
-    <t>INTWK0002206160031</t>
-  </si>
-  <si>
-    <t>INTWK0002206160034</t>
-  </si>
-  <si>
-    <t>INTWK0002206160019</t>
-  </si>
-  <si>
-    <t>INTWK0002206160022</t>
-  </si>
-  <si>
-    <t>INTWK0002206160036</t>
-  </si>
-  <si>
-    <t>INTWK0002206160257</t>
-  </si>
-  <si>
-    <t>INTWK0002206150265</t>
-  </si>
-  <si>
-    <t>INTWK0002206170023</t>
-  </si>
-  <si>
-    <t>INTWK0002206170022</t>
-  </si>
-  <si>
-    <t>INTWK0002206170024</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２５０</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２４９</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２５３</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２５５</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０３７７</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２５４</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０２５６</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１７０３７８</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６４</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６３</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６８</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６５</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６１</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５５</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６０</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５３</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５４</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６７</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５７０</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５６</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５９</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６６</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６２</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５６９</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５７</t>
-  </si>
-  <si>
-    <t>ＩＮＴＷＫ０００２２０６１５０５５８</t>
+    <t>INTWK0002206160251</t>
+  </si>
+  <si>
+    <t>INTWK0002206160252</t>
+  </si>
+  <si>
+    <t>INTWK0002206160190</t>
+  </si>
+  <si>
+    <t>INTWK0002206160191</t>
+  </si>
+  <si>
+    <t>INTWK0002206160184</t>
+  </si>
+  <si>
+    <t>INTWK0002206160185</t>
+  </si>
+  <si>
+    <t>INTWK0002206160188</t>
+  </si>
+  <si>
+    <t>INTWK0002206160189</t>
+  </si>
+  <si>
+    <t>INTWK0002206160187</t>
+  </si>
+  <si>
+    <t>INTWK0002206160183</t>
+  </si>
+  <si>
+    <t>INTWK0002206150071</t>
+  </si>
+  <si>
+    <t>INTWK0002206150074</t>
+  </si>
+  <si>
+    <t>INTWK0002206150082</t>
+  </si>
+  <si>
+    <t>INTWK0002206150080</t>
+  </si>
+  <si>
+    <t>INTWK0002206150072</t>
+  </si>
+  <si>
+    <t>INTWK0002206150040</t>
+  </si>
+  <si>
+    <t>INTWK0002206150075</t>
+  </si>
+  <si>
+    <t>INTWK0002206150081</t>
+  </si>
+  <si>
+    <t>INTWK0002206150073</t>
+  </si>
+  <si>
+    <t>INTWK0002206150076</t>
+  </si>
+  <si>
+    <t>INTWK0002206150078</t>
+  </si>
+  <si>
+    <t>INTWK0002206150079</t>
+  </si>
+  <si>
+    <t>INTWK0002206150742</t>
+  </si>
+  <si>
+    <t>INTWK0002206150738</t>
+  </si>
+  <si>
+    <t>INTWK0002206150743</t>
+  </si>
+  <si>
+    <t>INTWK0002206150746</t>
+  </si>
+  <si>
+    <t>INTWK0002206150740</t>
+  </si>
+  <si>
+    <t>INTWK0002206150744</t>
+  </si>
+  <si>
+    <t>INTWK0002206150739</t>
+  </si>
+  <si>
+    <t>INTWK0002206150741</t>
+  </si>
+  <si>
+    <t>INTWK0002206150747</t>
+  </si>
+  <si>
+    <t>INTWK0002206150745</t>
+  </si>
+  <si>
+    <t>INTWK0002206170350</t>
+  </si>
+  <si>
+    <t>INTWK0002206170348</t>
+  </si>
+  <si>
+    <t>INTWK0002206170361</t>
+  </si>
+  <si>
+    <t>INTWK0002206170349</t>
+  </si>
+  <si>
+    <t>INTWK0002206160066</t>
+  </si>
+  <si>
+    <t>INTWK0002206160068</t>
+  </si>
+  <si>
+    <t>INTWK0002206160065</t>
+  </si>
+  <si>
+    <t>INTWK0002206160067</t>
+  </si>
+  <si>
+    <t>INTWK0002206150724</t>
+  </si>
+  <si>
+    <t>INTWK0002206150725</t>
+  </si>
+  <si>
+    <t>INTWK0002206150207</t>
+  </si>
+  <si>
+    <t>INTWK0002206150205</t>
+  </si>
+  <si>
+    <t>INTWK0002206150196</t>
+  </si>
+  <si>
+    <t>INTWK0002206150150</t>
+  </si>
+  <si>
+    <t>INTWK0002206150217</t>
+  </si>
+  <si>
+    <t>INTWK0002206150173</t>
+  </si>
+  <si>
+    <t>INTWK0002206150200</t>
+  </si>
+  <si>
+    <t>INTWK0002206150203</t>
+  </si>
+  <si>
+    <t>INTWK0002206150182</t>
+  </si>
+  <si>
+    <t>INTWK0002206150206</t>
+  </si>
+  <si>
+    <t>INTWK0002206150143</t>
+  </si>
+  <si>
+    <t>INTWK0002206150179</t>
+  </si>
+  <si>
+    <t>INTWK0002206150102</t>
+  </si>
+  <si>
+    <t>INTWK0002206150218</t>
+  </si>
+  <si>
+    <t>INTWK0002206150104</t>
+  </si>
+  <si>
+    <t>INTWK0002206150212</t>
+  </si>
+  <si>
+    <t>INTWK0002206150197</t>
+  </si>
+  <si>
+    <t>INTWK0002206150213</t>
+  </si>
+  <si>
+    <t>INTWK0002206150193</t>
+  </si>
+  <si>
+    <t>INTWK0002206150219</t>
+  </si>
+  <si>
+    <t>INTWK0002206150185</t>
+  </si>
+  <si>
+    <t>INTWK0002206150149</t>
+  </si>
+  <si>
+    <t>INTWK0002206150181</t>
+  </si>
+  <si>
+    <t>INTWK0002206150148</t>
+  </si>
+  <si>
+    <t>INTWK0002206150146</t>
+  </si>
+  <si>
+    <t>INTWK0002206150210</t>
+  </si>
+  <si>
+    <t>INTWK0002206150070</t>
+  </si>
+  <si>
+    <t>INTWK0002206150208</t>
+  </si>
+  <si>
+    <t>INTWK0002206150172</t>
+  </si>
+  <si>
+    <t>INTWK0002206150144</t>
+  </si>
+  <si>
+    <t>INTWK0002206150214</t>
+  </si>
+  <si>
+    <t>INTWK0002206150171</t>
+  </si>
+  <si>
+    <t>INTWK0002206150142</t>
+  </si>
+  <si>
+    <t>INTWK0002206150097</t>
+  </si>
+  <si>
+    <t>INTWK0002206150202</t>
+  </si>
+  <si>
+    <t>INTWK0002206150189</t>
+  </si>
+  <si>
+    <t>INTWK0002206150092</t>
+  </si>
+  <si>
+    <t>INTWK0002206150177</t>
+  </si>
+  <si>
+    <t>INTWK0002206150194</t>
+  </si>
+  <si>
+    <t>INTWK0002206150187</t>
+  </si>
+  <si>
+    <t>INTWK0002206150178</t>
+  </si>
+  <si>
+    <t>INTWK0002206150105</t>
+  </si>
+  <si>
+    <t>INTWK0002206150147</t>
+  </si>
+  <si>
+    <t>INTWK0002206150183</t>
+  </si>
+  <si>
+    <t>INTWK0002206150215</t>
+  </si>
+  <si>
+    <t>INTWK0002206150176</t>
+  </si>
+  <si>
+    <t>INTWK0002206150201</t>
+  </si>
+  <si>
+    <t>INTWK0002206150065</t>
+  </si>
+  <si>
+    <t>INTWK0002206150188</t>
+  </si>
+  <si>
+    <t>INTWK0002206150186</t>
+  </si>
+  <si>
+    <t>INTWK0002206150184</t>
+  </si>
+  <si>
+    <t>INTWK0002206150190</t>
+  </si>
+  <si>
+    <t>INTWK0002206150216</t>
+  </si>
+  <si>
+    <t>INTWK0002206150110</t>
+  </si>
+  <si>
+    <t>INTWK0002206150195</t>
+  </si>
+  <si>
+    <t>INTWK0002206150191</t>
+  </si>
+  <si>
+    <t>INTWK0002206150204</t>
+  </si>
+  <si>
+    <t>INTWK0002206150098</t>
+  </si>
+  <si>
+    <t>INTWK0002206150064</t>
+  </si>
+  <si>
+    <t>INTWK0002206150211</t>
+  </si>
+  <si>
+    <t>INTWK0002206150099</t>
+  </si>
+  <si>
+    <t>INTWK0002206150198</t>
+  </si>
+  <si>
+    <t>INTWK0002206150175</t>
+  </si>
+  <si>
+    <t>INTWK0002206150094</t>
+  </si>
+  <si>
+    <t>INTWK0002206150100</t>
+  </si>
+  <si>
+    <t>INTWK0002206150209</t>
+  </si>
+  <si>
+    <t>INTWK0002206150174</t>
+  </si>
+  <si>
+    <t>INTWK0002206150109</t>
+  </si>
+  <si>
+    <t>INTWK0002206150096</t>
+  </si>
+  <si>
+    <t>INTWK0002206150108</t>
+  </si>
+  <si>
+    <t>INTWK0002206150063</t>
+  </si>
+  <si>
+    <t>INTWK0002206150107</t>
+  </si>
+  <si>
+    <t>INTWK0002206150111</t>
+  </si>
+  <si>
+    <t>INTWK0002206150068</t>
+  </si>
+  <si>
+    <t>INTWK0002206150112</t>
+  </si>
+  <si>
+    <t>INTWK0002206150091</t>
+  </si>
+  <si>
+    <t>INTWK0002206150066</t>
+  </si>
+  <si>
+    <t>INTWK0002206150069</t>
+  </si>
+  <si>
+    <t>INTWK0002206150101</t>
+  </si>
+  <si>
+    <t>INTWK0002206150103</t>
+  </si>
+  <si>
+    <t>INTWK0002206150199</t>
+  </si>
+  <si>
+    <t>INTWK0002206150106</t>
+  </si>
+  <si>
+    <t>INTWK0002206150093</t>
+  </si>
+  <si>
+    <t>INTWK0002206160074</t>
+  </si>
+  <si>
+    <t>INTWK0002206160048</t>
+  </si>
+  <si>
+    <t>INTWK0002206160049</t>
+  </si>
+  <si>
+    <t>INTWK0002206160075</t>
+  </si>
+  <si>
+    <t>INTWK0002206160047</t>
+  </si>
+  <si>
+    <t>INTWK0002206160071</t>
+  </si>
+  <si>
+    <t>INTWK0002206160073</t>
+  </si>
+  <si>
+    <t>INTWK0002206160072</t>
+  </si>
+  <si>
+    <t>INTWK0002206160050</t>
+  </si>
+  <si>
+    <t>INTWK0002206140364</t>
+  </si>
+  <si>
+    <t>INTWK0002206140359</t>
+  </si>
+  <si>
+    <t>INTWK0002206140351</t>
+  </si>
+  <si>
+    <t>INTWK0002206140360</t>
+  </si>
+  <si>
+    <t>INTWK0002206140356</t>
+  </si>
+  <si>
+    <t>INTWK0002206140338</t>
+  </si>
+  <si>
+    <t>INTWK0002206140365</t>
+  </si>
+  <si>
+    <t>INTWK0002206140363</t>
+  </si>
+  <si>
+    <t>INTWK0002206140357</t>
+  </si>
+  <si>
+    <t>INTWK0002206140362</t>
+  </si>
+  <si>
+    <t>INTWK0002206140355</t>
+  </si>
+  <si>
+    <t>INTWK0002206140339</t>
+  </si>
+  <si>
+    <t>INTWK0002206140358</t>
+  </si>
+  <si>
+    <t>INTWK0002206140361</t>
+  </si>
+  <si>
+    <t>INTWK0002206140352</t>
+  </si>
+  <si>
+    <t>INTWK0002206140340</t>
+  </si>
+  <si>
+    <t>INTWK0002206140354</t>
+  </si>
+  <si>
+    <t>INTWK0002206140337</t>
+  </si>
+  <si>
+    <t>INTWK0002206150728</t>
+  </si>
+  <si>
+    <t>INTWK0002206170521</t>
+  </si>
+  <si>
+    <t>INTWK0002206170497</t>
+  </si>
+  <si>
+    <t>INTWK0002206170500</t>
+  </si>
+  <si>
+    <t>INTWK0002206170499</t>
+  </si>
+  <si>
+    <t>INTWK0002206170031</t>
+  </si>
+  <si>
+    <t>INTWK0002206170028</t>
+  </si>
+  <si>
+    <t>INTWK0002206160321</t>
+  </si>
+  <si>
+    <t>INTWK0002206160326</t>
+  </si>
+  <si>
+    <t>INTWK0002206160325</t>
+  </si>
+  <si>
+    <t>INTWK0002206160328</t>
+  </si>
+  <si>
+    <t>INTWK0002206160323</t>
+  </si>
+  <si>
+    <t>INTWK0002206160322</t>
+  </si>
+  <si>
+    <t>INTWK0002206160327</t>
+  </si>
+  <si>
+    <t>INTWK0002206160324</t>
+  </si>
+  <si>
+    <t>INTWK0002206150002</t>
+  </si>
+  <si>
+    <t>INTWK0002206170013</t>
+  </si>
+  <si>
+    <t>INTWK0002206160337</t>
+  </si>
+  <si>
+    <t>INTWK0002206160329</t>
+  </si>
+  <si>
+    <t>INTWK0002206160336</t>
+  </si>
+  <si>
+    <t>INTWK0002206160331</t>
+  </si>
+  <si>
+    <t>INTWK0002206160334</t>
+  </si>
+  <si>
+    <t>INTWK0002206160332</t>
+  </si>
+  <si>
+    <t>INTWK0002206160333</t>
+  </si>
+  <si>
+    <t>INTWK0002206150286</t>
+  </si>
+  <si>
+    <t>INTWK0002206150287</t>
+  </si>
+  <si>
+    <t>INTWK0002206150289</t>
+  </si>
+  <si>
+    <t>INTWK0002206150282</t>
+  </si>
+  <si>
+    <t>INTWK0002206150285</t>
+  </si>
+  <si>
+    <t>INTWK0002206150283</t>
+  </si>
+  <si>
+    <t>INTWK0002206170300</t>
+  </si>
+  <si>
+    <t>INTWK0002206170311</t>
+  </si>
+  <si>
+    <t>INTWK0002206170296</t>
+  </si>
+  <si>
+    <t>INTWK0002206170297</t>
+  </si>
+  <si>
+    <t>INTWK0002206170298</t>
+  </si>
+  <si>
+    <t>INTWK0002206170299</t>
+  </si>
+  <si>
+    <t>INTWK0002206170012</t>
+  </si>
+  <si>
+    <t>INTWK0002206170011</t>
+  </si>
+  <si>
+    <t>INTWK0002206150001</t>
+  </si>
+  <si>
+    <t>INTWK0002206150271</t>
+  </si>
+  <si>
+    <t>INTWK0002206150249</t>
+  </si>
+  <si>
+    <t>INTWK0002206150250</t>
+  </si>
+  <si>
+    <t>INTWK0002206170342</t>
+  </si>
+  <si>
+    <t>INTWK0002206170341</t>
+  </si>
+  <si>
+    <t>INTWK0002206170343</t>
+  </si>
+  <si>
+    <t>INTWK0002206150401</t>
+  </si>
+  <si>
+    <t>INTWK0002206150402</t>
+  </si>
+  <si>
+    <t>INTWK0002206150360</t>
+  </si>
+  <si>
+    <t>INTWK0002206150403</t>
+  </si>
+  <si>
+    <t>INTWK0002206170511</t>
+  </si>
+  <si>
+    <t>INTWK0002206170512</t>
+  </si>
+  <si>
+    <t>INTWK0002206170510</t>
+  </si>
+  <si>
+    <t>INTWK0002206100153</t>
+  </si>
+  <si>
+    <t>INTWK0002206100155</t>
+  </si>
+  <si>
+    <t>INTWK0002206100154</t>
+  </si>
+  <si>
+    <t>INTWK0002206160011</t>
+  </si>
+  <si>
+    <t>INTWK0002206150263</t>
+  </si>
+  <si>
+    <t>INTWK0002206160208</t>
+  </si>
+  <si>
+    <t>INTWK0002206160206</t>
+  </si>
+  <si>
+    <t>INTWK0002206160207</t>
+  </si>
+  <si>
+    <t>INTWK0002206170180</t>
+  </si>
+  <si>
+    <t>INTWK0002206170179</t>
+  </si>
+  <si>
+    <t>INTWK0002206170178</t>
+  </si>
+  <si>
+    <t>INTWK0002206150264</t>
+  </si>
+  <si>
+    <t>INTWK0002206200176</t>
+  </si>
+  <si>
+    <t>INTWK0002206200177</t>
+  </si>
+  <si>
+    <t>INTWK0002206200180</t>
+  </si>
+  <si>
+    <t>INTWK0002206200179</t>
+  </si>
+  <si>
+    <t>INTWK0002206200175</t>
+  </si>
+  <si>
+    <t>INTWK0002206200191</t>
+  </si>
+  <si>
+    <t>INTWK0002206200178</t>
+  </si>
+  <si>
+    <t>INTWK0002206170044</t>
+  </si>
+  <si>
+    <t>INTWK0002206170439</t>
+  </si>
+  <si>
+    <t>INTWK0002206170317</t>
+  </si>
+  <si>
+    <t>INTWK0002206170316</t>
+  </si>
+  <si>
+    <t>INTWK0002206150059</t>
+  </si>
+  <si>
+    <t>INTWK0002206150062</t>
+  </si>
+  <si>
+    <t>INTWK0002206150061</t>
+  </si>
+  <si>
+    <t>INTWK0002206150060</t>
+  </si>
+  <si>
+    <t>INTWK0002206150058</t>
+  </si>
+  <si>
+    <t>INTWK0002206150057</t>
+  </si>
+  <si>
+    <t>INTWK0002206160361</t>
+  </si>
+  <si>
+    <t>INTWK0002206170517</t>
+  </si>
+  <si>
+    <t>INTWK0002206170532</t>
+  </si>
+  <si>
+    <t>INTWK0002206170518</t>
+  </si>
+  <si>
+    <t>INTWK0002206170514</t>
+  </si>
+  <si>
+    <t>INTWK0002206170534</t>
+  </si>
+  <si>
+    <t>INTWK0002206170533</t>
+  </si>
+  <si>
+    <t>INTWK0002206170519</t>
+  </si>
+  <si>
+    <t>INTWK0002206170531</t>
+  </si>
+  <si>
+    <t>INTWK0002206170312</t>
+  </si>
+  <si>
+    <t>INTWK0002206170515</t>
+  </si>
+  <si>
+    <t>INTWK0002206170520</t>
+  </si>
+  <si>
+    <t>INTWK0002206170181</t>
+  </si>
+  <si>
+    <t>INTWK0002206170183</t>
+  </si>
+  <si>
+    <t>INTWK0002206170184</t>
+  </si>
+  <si>
+    <t>INTWK0002206170182</t>
+  </si>
+  <si>
+    <t>INTWK0002206170516</t>
+  </si>
+  <si>
+    <t>INTWK0002206180004</t>
+  </si>
+  <si>
+    <t>INTWK0002206170513</t>
+  </si>
+  <si>
+    <t>INTWK0002206180011</t>
+  </si>
+  <si>
+    <t>INTWK0002206170528</t>
+  </si>
+  <si>
+    <t>INTWK0002206170529</t>
+  </si>
+  <si>
+    <t>INTWK0002206180012</t>
+  </si>
+  <si>
+    <t>INTWK0002206170301</t>
+  </si>
+  <si>
+    <t>INTWK0002206180003</t>
+  </si>
+  <si>
+    <t>INTWK0002206170302</t>
+  </si>
+  <si>
+    <t>INTWK0002206170498</t>
+  </si>
+  <si>
+    <t>INTWK0002206170027</t>
+  </si>
+  <si>
+    <t>INTWK0002206170025</t>
+  </si>
+  <si>
+    <t>INTWK0002206170034</t>
+  </si>
+  <si>
+    <t>INTWK0002206170032</t>
+  </si>
+  <si>
+    <t>INTWK0002206170030</t>
+  </si>
+  <si>
+    <t>INTWK0002206170026</t>
+  </si>
+  <si>
+    <t>INTWK0002206170033</t>
+  </si>
+  <si>
+    <t>INTWK0002206150751</t>
+  </si>
+  <si>
+    <t>INTWK0002206150726</t>
+  </si>
+  <si>
+    <t>INTWK0002206150730</t>
+  </si>
+  <si>
+    <t>INTWK0002206150727</t>
+  </si>
+  <si>
+    <t>INTWK0002206150729</t>
+  </si>
+  <si>
+    <t>INTWK0002206150763</t>
+  </si>
+  <si>
+    <t>INTWK0002206150764</t>
+  </si>
+  <si>
+    <t>INTWK0002206150761</t>
+  </si>
+  <si>
+    <t>INTWK0002206150765</t>
+  </si>
+  <si>
+    <t>INTWK0002206150766</t>
+  </si>
+  <si>
+    <t>INTWK0002206150762</t>
+  </si>
+  <si>
+    <t>INTWK0002206170061</t>
+  </si>
+  <si>
+    <t>INTWK0002206170041</t>
+  </si>
+  <si>
+    <t>INTWK0002206170064</t>
+  </si>
+  <si>
+    <t>INTWK0002206170039</t>
+  </si>
+  <si>
+    <t>INTWK0002206170035</t>
+  </si>
+  <si>
+    <t>INTWK0002206170055</t>
+  </si>
+  <si>
+    <t>INTWK0002206170043</t>
+  </si>
+  <si>
+    <t>INTWK0002206170038</t>
+  </si>
+  <si>
+    <t>INTWK0002206170063</t>
+  </si>
+  <si>
+    <t>INTWK0002206170049</t>
+  </si>
+  <si>
+    <t>INTWK0002206170048</t>
+  </si>
+  <si>
+    <t>INTWK0002206170037</t>
+  </si>
+  <si>
+    <t>INTWK0002206170045</t>
+  </si>
+  <si>
+    <t>INTWK0002206170057</t>
+  </si>
+  <si>
+    <t>INTWK0002206170062</t>
+  </si>
+  <si>
+    <t>INTWK0002206170047</t>
+  </si>
+  <si>
+    <t>INTWK0002206170050</t>
+  </si>
+  <si>
+    <t>INTWK0002206170052</t>
+  </si>
+  <si>
+    <t>INTWK0002206170056</t>
+  </si>
+  <si>
+    <t>INTWK0002206170042</t>
+  </si>
+  <si>
+    <t>INTWK0002206170040</t>
+  </si>
+  <si>
+    <t>INTWK0002206170046</t>
+  </si>
+  <si>
+    <t>INTWK0002206170060</t>
+  </si>
+  <si>
+    <t>INTWK0002206170059</t>
+  </si>
+  <si>
+    <t>INTWK0002206170053</t>
+  </si>
+  <si>
+    <t>INTWK0002206170058</t>
+  </si>
+  <si>
+    <t>INTWK0002206170051</t>
+  </si>
+  <si>
+    <t>INTWK0002206170036</t>
+  </si>
+  <si>
+    <t>INTWK0002206170054</t>
+  </si>
+  <si>
+    <t>INTWK0002206170069</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,16 +1351,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33118055556</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1434,16 +1371,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.32152777778</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1454,16 +1391,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33188657407</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1474,16 +1411,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33243055556</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1494,16 +1431,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33263888889</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1514,16 +1451,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33305555556</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1534,13 +1471,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33472222222</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1554,13 +1491,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33479166667</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1574,13 +1511,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33490740741</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -1594,13 +1531,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.33525462963</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1614,13 +1551,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34091435185</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -1634,13 +1571,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34138888889</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1654,13 +1591,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>500</v>
       </c>
       <c r="D14" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34163194444</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1674,13 +1611,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34221064814</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1694,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34261574074</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -1714,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.343125</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1734,13 +1671,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34318287037</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1754,13 +1691,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34346064815</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1774,13 +1711,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34413194445</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -1794,13 +1731,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34423611111</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -1814,13 +1751,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
-        <v>44732.35217592592</v>
+        <v>44733.34429398148</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -1834,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
-        <v>44732.3521875</v>
+        <v>44733.34436342592</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -1854,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>44732.3521875</v>
+        <v>44733.34650462963</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1874,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>44732.35225694445</v>
+        <v>44733.34655092593</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1894,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>44732.35238425926</v>
+        <v>44733.34662037037</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -1914,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>44732.35575231481</v>
+        <v>44733.34680555556</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -1934,13 +1871,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>44732.3559375</v>
+        <v>44733.34690972222</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -1954,13 +1891,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>44732.35603009259</v>
+        <v>44733.34703703703</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1974,13 +1911,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>44732.35609953704</v>
+        <v>44733.34711805556</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1994,13 +1931,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>44732.35947916667</v>
+        <v>44733.34724537037</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -2014,13 +1951,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>44732.36065972222</v>
+        <v>44733.34736111111</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -2034,13 +1971,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>44732.36145833333</v>
+        <v>44733.34743055556</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -2054,13 +1991,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2">
-        <v>44732.36160879629</v>
+        <v>44733.35635416667</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -2074,13 +2011,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D35" s="2">
-        <v>44732.36369212963</v>
+        <v>44733.35722222222</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -2094,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="D36" s="2">
-        <v>44732.36383101852</v>
+        <v>44733.35954861111</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -2114,13 +2051,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2">
-        <v>44732.36653935185</v>
+        <v>44733.3625462963</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -2134,13 +2071,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2">
-        <v>44732.36667824074</v>
+        <v>44733.36760416667</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -2154,13 +2091,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2">
-        <v>44732.36681712963</v>
+        <v>44733.36768518519</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -2174,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>44732.3669212963</v>
+        <v>44733.36783564815</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -2194,13 +2131,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2">
-        <v>44732.36731481482</v>
+        <v>44733.36797453704</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -2214,16 +2151,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>44732.36827546296</v>
+        <v>44733.39037037037</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2234,16 +2171,16 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
-        <v>44732.36835648148</v>
+        <v>44733.39049768518</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2254,16 +2191,16 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>44732.36850694445</v>
+        <v>44733.40357638889</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2274,16 +2211,16 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
-        <v>44732.36857638889</v>
+        <v>44733.40364583334</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2294,16 +2231,16 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2">
-        <v>44732.36879629629</v>
+        <v>44733.40387731481</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2314,16 +2251,16 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2">
-        <v>44732.36893518519</v>
+        <v>44733.40393518518</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2334,13 +2271,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
-        <v>44732.39409722222</v>
+        <v>44733.4040625</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -2354,13 +2291,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
-        <v>44732.39534722222</v>
+        <v>44733.40417824074</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -2374,13 +2311,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>44732.39538194444</v>
+        <v>44733.40428240741</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -2394,13 +2331,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2">
-        <v>44732.39841435185</v>
+        <v>44733.40457175926</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -2414,13 +2351,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2">
-        <v>44732.39918981482</v>
+        <v>44733.40494212963</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -2434,13 +2371,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2">
-        <v>44732.39928240741</v>
+        <v>44733.40545138889</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -2454,13 +2391,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2">
-        <v>44732.40150462963</v>
+        <v>44733.40553240741</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -2474,13 +2411,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2">
-        <v>44732.40515046296</v>
+        <v>44733.40563657408</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -2494,13 +2431,13 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2">
-        <v>44732.40523148148</v>
+        <v>44733.40630787037</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F56">
         <v>9</v>
@@ -2514,13 +2451,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2">
-        <v>44732.40528935185</v>
+        <v>44733.40636574074</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57">
         <v>9</v>
@@ -2534,13 +2471,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2">
-        <v>44732.40532407408</v>
+        <v>44733.40644675926</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -2554,13 +2491,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D59" s="2">
-        <v>44732.40548611111</v>
+        <v>44733.40657407408</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -2574,13 +2511,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
-        <v>44732.40559027778</v>
+        <v>44733.40837962963</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60">
         <v>9</v>
@@ -2594,13 +2531,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
-        <v>44732.40571759259</v>
+        <v>44733.40847222223</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F61">
         <v>9</v>
@@ -2614,13 +2551,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2">
-        <v>44732.40684027778</v>
+        <v>44733.40854166666</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -2634,13 +2571,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>44732.40804398148</v>
+        <v>44733.40862268519</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -2654,13 +2591,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
-        <v>44732.41314814815</v>
+        <v>44733.40878472223</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64">
         <v>9</v>
@@ -2674,13 +2611,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
-        <v>44732.41346064815</v>
+        <v>44733.40887731482</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -2694,13 +2631,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
-        <v>44732.41521990741</v>
+        <v>44733.40894675926</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66">
         <v>9</v>
@@ -2714,13 +2651,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
-        <v>44732.41645833333</v>
+        <v>44733.40902777778</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F67">
         <v>9</v>
@@ -2737,13 +2674,13 @@
         <v>10</v>
       </c>
       <c r="D68" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.41027777778</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2754,16 +2691,16 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.41037037037</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2774,16 +2711,16 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.41042824074</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2794,16 +2731,16 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.41049768519</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2814,16 +2751,16 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.41059027778</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2834,16 +2771,16 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
-        <v>44732.42989583333</v>
+        <v>44733.41090277778</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2854,16 +2791,16 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>44732.42989583333</v>
+        <v>44733.41096064815</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2874,16 +2811,16 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
-        <v>44732.42989583333</v>
+        <v>44733.41103009259</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2894,16 +2831,16 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="D76" s="2">
-        <v>44732.42998842592</v>
+        <v>44733.41128472222</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2914,16 +2851,16 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D77" s="2">
-        <v>44732.43006944445</v>
+        <v>44733.41163194444</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2934,13 +2871,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="D78" s="2">
-        <v>44732.43018518519</v>
+        <v>44733.42280092592</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -2954,13 +2891,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2">
-        <v>44732.43111111111</v>
+        <v>44733.42335648148</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -2974,13 +2911,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D80" s="2">
-        <v>44732.43119212963</v>
+        <v>44733.42336805556</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -2994,13 +2931,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2">
-        <v>44732.43127314815</v>
+        <v>44733.42336805556</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -3014,13 +2951,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2">
-        <v>44732.43138888889</v>
+        <v>44733.42336805556</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -3034,13 +2971,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2">
-        <v>44732.43387731481</v>
+        <v>44733.42336805556</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -3054,13 +2991,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2">
-        <v>44732.43398148148</v>
+        <v>44733.42346064815</v>
       </c>
       <c r="E84">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -3074,13 +3011,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2">
-        <v>44732.43405092593</v>
+        <v>44733.42353009259</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3094,13 +3031,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2">
-        <v>44732.43421296297</v>
+        <v>44733.42368055556</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -3114,13 +3051,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2">
-        <v>44732.4344212963</v>
+        <v>44733.42444444444</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -3134,13 +3071,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2">
-        <v>44732.43449074074</v>
+        <v>44733.42452546296</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -3154,13 +3091,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2">
-        <v>44732.43457175926</v>
+        <v>44733.4258449074</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -3174,13 +3111,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2">
-        <v>44732.43590277778</v>
+        <v>44733.42591435185</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -3194,13 +3131,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2">
-        <v>44732.43599537037</v>
+        <v>44733.4259837963</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -3214,13 +3151,13 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
-        <v>44732.43662037037</v>
+        <v>44733.42611111111</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -3234,13 +3171,13 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2">
-        <v>44732.43667824074</v>
+        <v>44733.42730324074</v>
       </c>
       <c r="E93">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -3254,13 +3191,13 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2">
-        <v>44732.43673611111</v>
+        <v>44733.42738425926</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -3277,10 +3214,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="2">
-        <v>44732.43679398148</v>
+        <v>44733.42751157407</v>
       </c>
       <c r="E95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -3297,10 +3234,10 @@
         <v>12</v>
       </c>
       <c r="D96" s="2">
-        <v>44732.43682870371</v>
+        <v>44733.42759259259</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -3314,13 +3251,13 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2">
-        <v>44732.43689814815</v>
+        <v>44733.42769675926</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -3334,13 +3271,13 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2">
-        <v>44732.43885416666</v>
+        <v>44733.42778935185</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -3354,13 +3291,13 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2">
-        <v>44732.43890046296</v>
+        <v>44733.42782407408</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -3374,13 +3311,13 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D100" s="2">
-        <v>44732.43894675926</v>
+        <v>44733.42789351852</v>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -3394,13 +3331,13 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>44732.43902777778</v>
+        <v>44733.43043981482</v>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -3414,13 +3351,13 @@
         <v>106</v>
       </c>
       <c r="C102">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2">
-        <v>44732.4390625</v>
+        <v>44733.43050925926</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -3434,13 +3371,13 @@
         <v>107</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D103" s="2">
-        <v>44732.43912037037</v>
+        <v>44733.43061342592</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -3454,13 +3391,13 @@
         <v>108</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2">
-        <v>44732.43940972222</v>
+        <v>44733.43070601852</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -3474,13 +3411,13 @@
         <v>109</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>44732.43944444445</v>
+        <v>44733.43074074074</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -3494,13 +3431,13 @@
         <v>110</v>
       </c>
       <c r="C106">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>44732.43951388889</v>
+        <v>44733.43085648148</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -3514,13 +3451,13 @@
         <v>111</v>
       </c>
       <c r="C107">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2">
-        <v>44732.43959490741</v>
+        <v>44733.43091435185</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -3537,10 +3474,10 @@
         <v>24</v>
       </c>
       <c r="D108" s="2">
-        <v>44732.4396412037</v>
+        <v>44733.43119212963</v>
       </c>
       <c r="E108">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -3554,13 +3491,13 @@
         <v>113</v>
       </c>
       <c r="C109">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>44732.43971064815</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -3574,13 +3511,13 @@
         <v>114</v>
       </c>
       <c r="C110">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
-        <v>44732.43975694444</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -3594,13 +3531,13 @@
         <v>115</v>
       </c>
       <c r="C111">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D111" s="2">
-        <v>44732.43984953704</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -3614,13 +3551,13 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2">
-        <v>44732.44012731482</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -3637,10 +3574,10 @@
         <v>24</v>
       </c>
       <c r="D113" s="2">
-        <v>44732.44016203703</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -3654,13 +3591,13 @@
         <v>118</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D114" s="2">
-        <v>44732.44019675926</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -3674,13 +3611,13 @@
         <v>119</v>
       </c>
       <c r="C115">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2">
-        <v>44732.44024305556</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3694,13 +3631,13 @@
         <v>120</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2">
-        <v>44732.4402662037</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116">
         <v>10</v>
@@ -3714,13 +3651,13 @@
         <v>121</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D117" s="2">
-        <v>44732.44552083333</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E117">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -3734,13 +3671,13 @@
         <v>122</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D118" s="2">
-        <v>44732.4455787037</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E118">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F118">
         <v>10</v>
@@ -3754,13 +3691,13 @@
         <v>123</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2">
-        <v>44732.44564814815</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E119">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -3774,13 +3711,13 @@
         <v>124</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2">
-        <v>44732.44568287037</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E120">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -3794,13 +3731,13 @@
         <v>125</v>
       </c>
       <c r="C121">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>44732.44585648148</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E121">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -3814,13 +3751,13 @@
         <v>126</v>
       </c>
       <c r="C122">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2">
-        <v>44732.44594907408</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E122">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F122">
         <v>10</v>
@@ -3834,13 +3771,13 @@
         <v>127</v>
       </c>
       <c r="C123">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
-        <v>44732.44736111111</v>
+        <v>44733.43347222222</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -3854,13 +3791,13 @@
         <v>128</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D124" s="2">
-        <v>44732.44738425926</v>
+        <v>44733.43355324074</v>
       </c>
       <c r="E124">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -3874,13 +3811,13 @@
         <v>129</v>
       </c>
       <c r="C125">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D125" s="2">
-        <v>44732.44746527778</v>
+        <v>44733.4337037037</v>
       </c>
       <c r="E125">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -3894,13 +3831,13 @@
         <v>130</v>
       </c>
       <c r="C126">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D126" s="2">
-        <v>44732.44751157407</v>
+        <v>44733.43375</v>
       </c>
       <c r="E126">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -3914,13 +3851,13 @@
         <v>131</v>
       </c>
       <c r="C127">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D127" s="2">
-        <v>44732.4484375</v>
+        <v>44733.44069444444</v>
       </c>
       <c r="E127">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -3934,13 +3871,13 @@
         <v>132</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D128" s="2">
-        <v>44732.44875</v>
+        <v>44733.44114583333</v>
       </c>
       <c r="E128">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -3954,13 +3891,13 @@
         <v>133</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D129" s="2">
-        <v>44732.44914351852</v>
+        <v>44733.44123842593</v>
       </c>
       <c r="E129">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -3974,13 +3911,13 @@
         <v>134</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D130" s="2">
-        <v>44732.44935185185</v>
+        <v>44733.4413425926</v>
       </c>
       <c r="E130">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -3994,13 +3931,13 @@
         <v>135</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D131" s="2">
-        <v>44732.44960648148</v>
+        <v>44733.44144675926</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F131">
         <v>10</v>
@@ -4014,13 +3951,13 @@
         <v>136</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D132" s="2">
-        <v>44732.45094907407</v>
+        <v>44733.44221064815</v>
       </c>
       <c r="E132">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -4034,13 +3971,13 @@
         <v>137</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D133" s="2">
-        <v>44732.45101851852</v>
+        <v>44733.44230324074</v>
       </c>
       <c r="E133">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -4054,13 +3991,13 @@
         <v>138</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D134" s="2">
-        <v>44732.45111111111</v>
+        <v>44733.44238425926</v>
       </c>
       <c r="E134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -4074,13 +4011,13 @@
         <v>139</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2">
-        <v>44732.45126157408</v>
+        <v>44733.44263888889</v>
       </c>
       <c r="E135">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -4094,13 +4031,13 @@
         <v>140</v>
       </c>
       <c r="C136">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2">
-        <v>44732.4521875</v>
+        <v>44733.44380787037</v>
       </c>
       <c r="E136">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F136">
         <v>10</v>
@@ -4117,10 +4054,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="2">
-        <v>44732.45403935185</v>
+        <v>44733.44333333334</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -4134,13 +4071,13 @@
         <v>142</v>
       </c>
       <c r="C138">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2">
-        <v>44732.45385416667</v>
+        <v>44733.44341435185</v>
       </c>
       <c r="E138">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -4154,13 +4091,13 @@
         <v>143</v>
       </c>
       <c r="C139">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D139" s="2">
-        <v>44732.45394675926</v>
+        <v>44733.44366898148</v>
       </c>
       <c r="E139">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -4174,13 +4111,13 @@
         <v>144</v>
       </c>
       <c r="C140">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D140" s="2">
-        <v>44732.45412037037</v>
+        <v>44733.44388888889</v>
       </c>
       <c r="E140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -4194,13 +4131,13 @@
         <v>145</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2">
-        <v>44732.45422453704</v>
+        <v>44733.44420138889</v>
       </c>
       <c r="E141">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F141">
         <v>10</v>
@@ -4214,13 +4151,13 @@
         <v>146</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2">
-        <v>44732.45434027778</v>
+        <v>44733.44927083333</v>
       </c>
       <c r="E142">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -4234,13 +4171,13 @@
         <v>147</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D143" s="2">
-        <v>44732.45445601852</v>
+        <v>44733.45037037037</v>
       </c>
       <c r="E143">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -4257,10 +4194,10 @@
         <v>24</v>
       </c>
       <c r="D144" s="2">
-        <v>44732.45450231482</v>
+        <v>44733.45045138889</v>
       </c>
       <c r="E144">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -4277,13 +4214,13 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>44732.50221064815</v>
+        <v>44733.45055555556</v>
       </c>
       <c r="E145">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4294,16 +4231,16 @@
         <v>150</v>
       </c>
       <c r="C146">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2">
-        <v>44732.50238425926</v>
+        <v>44733.45064814815</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4314,16 +4251,16 @@
         <v>151</v>
       </c>
       <c r="C147">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="D147" s="2">
-        <v>44732.5025</v>
+        <v>44733.45071759259</v>
       </c>
       <c r="E147">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4334,16 +4271,16 @@
         <v>152</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>44732.50349537037</v>
+        <v>44733.45082175926</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4354,16 +4291,16 @@
         <v>153</v>
       </c>
       <c r="C149">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2">
-        <v>44732.50377314815</v>
+        <v>44733.45087962963</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4374,16 +4311,16 @@
         <v>154</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D150" s="2">
-        <v>44732.50394675926</v>
+        <v>44733.45114583334</v>
       </c>
       <c r="E150">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4394,16 +4331,16 @@
         <v>155</v>
       </c>
       <c r="C151">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2">
-        <v>44732.50407407407</v>
+        <v>44733.45127314814</v>
       </c>
       <c r="E151">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4414,16 +4351,16 @@
         <v>156</v>
       </c>
       <c r="C152">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D152" s="2">
-        <v>44732.50528935185</v>
+        <v>44733.45159722222</v>
       </c>
       <c r="E152">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4434,16 +4371,16 @@
         <v>157</v>
       </c>
       <c r="C153">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D153" s="2">
-        <v>44732.50557870371</v>
+        <v>44733.45162037037</v>
       </c>
       <c r="E153">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4457,10 +4394,10 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>44732.50615740741</v>
+        <v>44733.50335648148</v>
       </c>
       <c r="E154">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F154">
         <v>12</v>
@@ -4474,13 +4411,13 @@
         <v>159</v>
       </c>
       <c r="C155">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D155" s="2">
-        <v>44732.5072337963</v>
+        <v>44733.50351851852</v>
       </c>
       <c r="E155">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F155">
         <v>12</v>
@@ -4494,13 +4431,13 @@
         <v>160</v>
       </c>
       <c r="C156">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D156" s="2">
-        <v>44732.50761574074</v>
+        <v>44733.50373842593</v>
       </c>
       <c r="E156">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F156">
         <v>12</v>
@@ -4514,13 +4451,13 @@
         <v>161</v>
       </c>
       <c r="C157">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2">
-        <v>44732.5083912037</v>
+        <v>44733.50386574074</v>
       </c>
       <c r="E157">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F157">
         <v>12</v>
@@ -4537,10 +4474,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>44732.50849537037</v>
+        <v>44733.50475694444</v>
       </c>
       <c r="E158">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F158">
         <v>12</v>
@@ -4554,13 +4491,13 @@
         <v>163</v>
       </c>
       <c r="C159">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D159" s="2">
-        <v>44732.50868055555</v>
+        <v>44733.50503472222</v>
       </c>
       <c r="E159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F159">
         <v>12</v>
@@ -4574,13 +4511,13 @@
         <v>164</v>
       </c>
       <c r="C160">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2">
-        <v>44732.50881944445</v>
+        <v>44733.50523148148</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F160">
         <v>12</v>
@@ -4594,13 +4531,13 @@
         <v>165</v>
       </c>
       <c r="C161">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2">
-        <v>44732.50892361111</v>
+        <v>44733.50568287037</v>
       </c>
       <c r="E161">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F161">
         <v>12</v>
@@ -4614,13 +4551,13 @@
         <v>166</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2">
-        <v>44732.5109375</v>
+        <v>44733.50596064814</v>
       </c>
       <c r="E162">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F162">
         <v>12</v>
@@ -4634,13 +4571,13 @@
         <v>167</v>
       </c>
       <c r="C163">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>44732.51136574074</v>
+        <v>44733.50606481481</v>
       </c>
       <c r="E163">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F163">
         <v>12</v>
@@ -4654,13 +4591,13 @@
         <v>168</v>
       </c>
       <c r="C164">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D164" s="2">
-        <v>44732.51167824074</v>
+        <v>44733.5066087963</v>
       </c>
       <c r="E164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F164">
         <v>12</v>
@@ -4674,13 +4611,13 @@
         <v>169</v>
       </c>
       <c r="C165">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D165" s="2">
-        <v>44732.5119675926</v>
+        <v>44733.50758101852</v>
       </c>
       <c r="E165">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F165">
         <v>12</v>
@@ -4694,13 +4631,13 @@
         <v>170</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D166" s="2">
-        <v>44732.51247685185</v>
+        <v>44733.50818287037</v>
       </c>
       <c r="E166">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F166">
         <v>12</v>
@@ -4714,13 +4651,13 @@
         <v>171</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D167" s="2">
-        <v>44732.51262731481</v>
+        <v>44733.50930555556</v>
       </c>
       <c r="E167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167">
         <v>12</v>
@@ -4734,13 +4671,13 @@
         <v>172</v>
       </c>
       <c r="C168">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D168" s="2">
-        <v>44732.51300925926</v>
+        <v>44733.50998842593</v>
       </c>
       <c r="E168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F168">
         <v>12</v>
@@ -4754,13 +4691,13 @@
         <v>173</v>
       </c>
       <c r="C169">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D169" s="2">
-        <v>44732.51402777778</v>
+        <v>44733.51049768519</v>
       </c>
       <c r="E169">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F169">
         <v>12</v>
@@ -4774,13 +4711,13 @@
         <v>174</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D170" s="2">
-        <v>44732.51409722222</v>
+        <v>44733.51077546296</v>
       </c>
       <c r="E170">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F170">
         <v>12</v>
@@ -4794,13 +4731,13 @@
         <v>175</v>
       </c>
       <c r="C171">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D171" s="2">
-        <v>44732.51415509259</v>
+        <v>44733.51131944444</v>
       </c>
       <c r="E171">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F171">
         <v>12</v>
@@ -4814,13 +4751,13 @@
         <v>176</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2">
-        <v>44732.51457175926</v>
+        <v>44733.51179398148</v>
       </c>
       <c r="E172">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F172">
         <v>12</v>
@@ -4834,13 +4771,13 @@
         <v>177</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D173" s="2">
-        <v>44732.51472222222</v>
+        <v>44733.51207175926</v>
       </c>
       <c r="E173">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F173">
         <v>12</v>
@@ -4854,13 +4791,13 @@
         <v>178</v>
       </c>
       <c r="C174">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D174" s="2">
-        <v>44732.51539351852</v>
+        <v>44733.51219907407</v>
       </c>
       <c r="E174">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F174">
         <v>12</v>
@@ -4874,13 +4811,13 @@
         <v>179</v>
       </c>
       <c r="C175">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D175" s="2">
-        <v>44732.515625</v>
+        <v>44733.51225694444</v>
       </c>
       <c r="E175">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F175">
         <v>12</v>
@@ -4894,13 +4831,13 @@
         <v>180</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2">
-        <v>44732.51592592592</v>
+        <v>44733.51268518518</v>
       </c>
       <c r="E176">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F176">
         <v>12</v>
@@ -4914,13 +4851,13 @@
         <v>181</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D177" s="2">
-        <v>44732.51616898148</v>
+        <v>44733.51278935185</v>
       </c>
       <c r="E177">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F177">
         <v>12</v>
@@ -4934,13 +4871,13 @@
         <v>182</v>
       </c>
       <c r="C178">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D178" s="2">
-        <v>44732.51880787037</v>
+        <v>44733.51288194444</v>
       </c>
       <c r="E178">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F178">
         <v>12</v>
@@ -4954,13 +4891,13 @@
         <v>183</v>
       </c>
       <c r="C179">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D179" s="2">
-        <v>44732.51962962963</v>
+        <v>44733.51296296297</v>
       </c>
       <c r="E179">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F179">
         <v>12</v>
@@ -4974,13 +4911,13 @@
         <v>184</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2">
-        <v>44732.51979166667</v>
+        <v>44733.51331018518</v>
       </c>
       <c r="E180">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F180">
         <v>12</v>
@@ -4994,13 +4931,13 @@
         <v>185</v>
       </c>
       <c r="C181">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2">
-        <v>44732.51993055556</v>
+        <v>44733.51332175926</v>
       </c>
       <c r="E181">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F181">
         <v>12</v>
@@ -5014,13 +4951,13 @@
         <v>186</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D182" s="2">
-        <v>44732.52013888889</v>
+        <v>44733.51392361111</v>
       </c>
       <c r="E182">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F182">
         <v>12</v>
@@ -5034,13 +4971,13 @@
         <v>187</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D183" s="2">
-        <v>44732.52023148148</v>
+        <v>44733.5140625</v>
       </c>
       <c r="E183">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F183">
         <v>12</v>
@@ -5054,13 +4991,13 @@
         <v>188</v>
       </c>
       <c r="C184">
-        <v>2000</v>
+        <v>24</v>
       </c>
       <c r="D184" s="2">
-        <v>44732.53303240741</v>
+        <v>44733.51462962963</v>
       </c>
       <c r="E184">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F184">
         <v>12</v>
@@ -5074,13 +5011,13 @@
         <v>189</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D185" s="2">
-        <v>44732.53709490741</v>
+        <v>44733.51493055555</v>
       </c>
       <c r="E185">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F185">
         <v>12</v>
@@ -5094,13 +5031,13 @@
         <v>190</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2">
-        <v>44732.5372337963</v>
+        <v>44733.51547453704</v>
       </c>
       <c r="E186">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F186">
         <v>12</v>
@@ -5114,13 +5051,13 @@
         <v>191</v>
       </c>
       <c r="C187">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D187" s="2">
-        <v>44732.53758101852</v>
+        <v>44733.51577546296</v>
       </c>
       <c r="E187">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F187">
         <v>12</v>
@@ -5134,13 +5071,13 @@
         <v>192</v>
       </c>
       <c r="C188">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D188" s="2">
-        <v>44732.5378125</v>
+        <v>44733.51637731482</v>
       </c>
       <c r="E188">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F188">
         <v>12</v>
@@ -5154,13 +5091,13 @@
         <v>193</v>
       </c>
       <c r="C189">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D189" s="2">
-        <v>44732.53806712963</v>
+        <v>44733.51680555556</v>
       </c>
       <c r="E189">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F189">
         <v>12</v>
@@ -5174,13 +5111,13 @@
         <v>194</v>
       </c>
       <c r="C190">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D190" s="2">
-        <v>44732.53856481481</v>
+        <v>44733.51733796296</v>
       </c>
       <c r="E190">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F190">
         <v>12</v>
@@ -5194,13 +5131,13 @@
         <v>195</v>
       </c>
       <c r="C191">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="D191" s="2">
-        <v>44732.53864583333</v>
+        <v>44733.51747685186</v>
       </c>
       <c r="E191">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F191">
         <v>12</v>
@@ -5214,13 +5151,13 @@
         <v>196</v>
       </c>
       <c r="C192">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D192" s="2">
-        <v>44732.53888888889</v>
+        <v>44733.51813657407</v>
       </c>
       <c r="E192">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F192">
         <v>12</v>
@@ -5234,13 +5171,13 @@
         <v>197</v>
       </c>
       <c r="C193">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D193" s="2">
-        <v>44732.53936342592</v>
+        <v>44733.52011574074</v>
       </c>
       <c r="E193">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F193">
         <v>12</v>
@@ -5254,13 +5191,13 @@
         <v>198</v>
       </c>
       <c r="C194">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D194" s="2">
-        <v>44732.53938657408</v>
+        <v>44733.52092592593</v>
       </c>
       <c r="E194">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F194">
         <v>12</v>
@@ -5277,10 +5214,10 @@
         <v>24</v>
       </c>
       <c r="D195" s="2">
-        <v>44732.53943287037</v>
+        <v>44733.52153935185</v>
       </c>
       <c r="E195">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F195">
         <v>12</v>
@@ -5294,13 +5231,13 @@
         <v>200</v>
       </c>
       <c r="C196">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2">
-        <v>44732.53949074074</v>
+        <v>44733.52351851852</v>
       </c>
       <c r="E196">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F196">
         <v>12</v>
@@ -5314,13 +5251,13 @@
         <v>201</v>
       </c>
       <c r="C197">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D197" s="2">
-        <v>44732.53951388889</v>
+        <v>44733.52400462963</v>
       </c>
       <c r="E197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F197">
         <v>12</v>
@@ -5334,13 +5271,13 @@
         <v>202</v>
       </c>
       <c r="C198">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D198" s="2">
-        <v>44732.53953703704</v>
+        <v>44733.52417824074</v>
       </c>
       <c r="E198">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F198">
         <v>12</v>
@@ -5354,13 +5291,13 @@
         <v>203</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="D199" s="2">
-        <v>44732.54040509259</v>
+        <v>44733.52548611111</v>
       </c>
       <c r="E199">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F199">
         <v>12</v>
@@ -5374,13 +5311,13 @@
         <v>204</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D200" s="2">
-        <v>44732.54042824074</v>
+        <v>44733.52863425926</v>
       </c>
       <c r="E200">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F200">
         <v>12</v>
@@ -5394,13 +5331,13 @@
         <v>205</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D201" s="2">
-        <v>44732.54045138889</v>
+        <v>44733.52872685185</v>
       </c>
       <c r="E201">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F201">
         <v>12</v>
@@ -5414,13 +5351,13 @@
         <v>206</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="D202" s="2">
-        <v>44732.54050925926</v>
+        <v>44733.53806712963</v>
       </c>
       <c r="E202">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F202">
         <v>12</v>
@@ -5434,16 +5371,16 @@
         <v>207</v>
       </c>
       <c r="C203">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D203" s="2">
-        <v>44732.54063657407</v>
+        <v>44733.57508101852</v>
       </c>
       <c r="E203">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F203">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5454,16 +5391,16 @@
         <v>208</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D204" s="2">
-        <v>44732.54070601852</v>
+        <v>44733.57523148148</v>
       </c>
       <c r="E204">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F204">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5474,16 +5411,16 @@
         <v>209</v>
       </c>
       <c r="C205">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D205" s="2">
-        <v>44732.54079861111</v>
+        <v>44733.57540509259</v>
       </c>
       <c r="E205">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F205">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5494,16 +5431,16 @@
         <v>210</v>
       </c>
       <c r="C206">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D206" s="2">
-        <v>44732.54206018519</v>
+        <v>44733.52674768519</v>
       </c>
       <c r="E206">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F206">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5514,16 +5451,16 @@
         <v>211</v>
       </c>
       <c r="C207">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D207" s="2">
-        <v>44732.54210648148</v>
+        <v>44733.52707175926</v>
       </c>
       <c r="E207">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F207">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5534,16 +5471,16 @@
         <v>212</v>
       </c>
       <c r="C208">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D208" s="2">
-        <v>44732.54403935185</v>
+        <v>44733.52793981481</v>
       </c>
       <c r="E208">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F208">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5554,16 +5491,16 @@
         <v>213</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D209" s="2">
-        <v>44732.55459490741</v>
+        <v>44733.53736111111</v>
       </c>
       <c r="E209">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F209">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5574,16 +5511,16 @@
         <v>214</v>
       </c>
       <c r="C210">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D210" s="2">
-        <v>44732.55478009259</v>
+        <v>44733.59847222222</v>
       </c>
       <c r="E210">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F210">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5594,16 +5531,16 @@
         <v>215</v>
       </c>
       <c r="C211">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D211" s="2">
-        <v>44732.56814814815</v>
+        <v>44733.59971064814</v>
       </c>
       <c r="E211">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F211">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5614,16 +5551,16 @@
         <v>216</v>
       </c>
       <c r="C212">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D212" s="2">
-        <v>44732.57114583333</v>
+        <v>44733.59997685185</v>
       </c>
       <c r="E212">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F212">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5634,13 +5571,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D213" s="2">
-        <v>44732.59755787037</v>
+        <v>44733.60013888889</v>
       </c>
       <c r="E213">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F213">
         <v>14</v>
@@ -5654,13 +5591,13 @@
         <v>218</v>
       </c>
       <c r="C214">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D214" s="2">
-        <v>44732.59768518519</v>
+        <v>44733.60148148148</v>
       </c>
       <c r="E214">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F214">
         <v>14</v>
@@ -5674,13 +5611,13 @@
         <v>219</v>
       </c>
       <c r="C215">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D215" s="2">
-        <v>44732.5983912037</v>
+        <v>44733.60159722222</v>
       </c>
       <c r="E215">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F215">
         <v>14</v>
@@ -5694,13 +5631,13 @@
         <v>220</v>
       </c>
       <c r="C216">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D216" s="2">
-        <v>44732.59849537037</v>
+        <v>44733.60171296296</v>
       </c>
       <c r="E216">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F216">
         <v>14</v>
@@ -5714,13 +5651,13 @@
         <v>221</v>
       </c>
       <c r="C217">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D217" s="2">
-        <v>44732.59861111111</v>
+        <v>44733.60178240741</v>
       </c>
       <c r="E217">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F217">
         <v>14</v>
@@ -5734,13 +5671,13 @@
         <v>222</v>
       </c>
       <c r="C218">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D218" s="2">
-        <v>44732.59918981481</v>
+        <v>44733.60436342593</v>
       </c>
       <c r="E218">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F218">
         <v>14</v>
@@ -5754,13 +5691,13 @@
         <v>223</v>
       </c>
       <c r="C219">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D219" s="2">
-        <v>44732.59925925926</v>
+        <v>44733.60443287037</v>
       </c>
       <c r="E219">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F219">
         <v>14</v>
@@ -5774,13 +5711,13 @@
         <v>224</v>
       </c>
       <c r="C220">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2">
-        <v>44732.599375</v>
+        <v>44733.60445601852</v>
       </c>
       <c r="E220">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F220">
         <v>14</v>
@@ -5794,13 +5731,13 @@
         <v>225</v>
       </c>
       <c r="C221">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2">
-        <v>44732.59983796296</v>
+        <v>44733.60472222222</v>
       </c>
       <c r="E221">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F221">
         <v>14</v>
@@ -5814,13 +5751,13 @@
         <v>226</v>
       </c>
       <c r="C222">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D222" s="2">
-        <v>44732.60899305555</v>
+        <v>44733.60482638889</v>
       </c>
       <c r="E222">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F222">
         <v>14</v>
@@ -5834,13 +5771,13 @@
         <v>227</v>
       </c>
       <c r="C223">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D223" s="2">
-        <v>44732.60902777778</v>
+        <v>44733.60487268519</v>
       </c>
       <c r="E223">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F223">
         <v>14</v>
@@ -5854,13 +5791,13 @@
         <v>228</v>
       </c>
       <c r="C224">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D224" s="2">
-        <v>44732.60912037037</v>
+        <v>44733.60497685185</v>
       </c>
       <c r="E224">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F224">
         <v>14</v>
@@ -5874,13 +5811,13 @@
         <v>229</v>
       </c>
       <c r="C225">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D225" s="2">
-        <v>44732.60974537037</v>
+        <v>44733.60537037037</v>
       </c>
       <c r="E225">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F225">
         <v>14</v>
@@ -5894,16 +5831,16 @@
         <v>230</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D226" s="2">
-        <v>44732.60981481482</v>
+        <v>44733.42280092592</v>
       </c>
       <c r="E226">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F226">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5914,16 +5851,16 @@
         <v>231</v>
       </c>
       <c r="C227">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D227" s="2">
-        <v>44732.60991898148</v>
+        <v>44733.42280092592</v>
       </c>
       <c r="E227">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F227">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5934,16 +5871,16 @@
         <v>232</v>
       </c>
       <c r="C228">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D228" s="2">
-        <v>44732.60998842592</v>
+        <v>44733.42280092592</v>
       </c>
       <c r="E228">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F228">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5954,16 +5891,16 @@
         <v>233</v>
       </c>
       <c r="C229">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D229" s="2">
-        <v>44732.61079861111</v>
+        <v>44733.44568287037</v>
       </c>
       <c r="E229">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F229">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5974,16 +5911,16 @@
         <v>234</v>
       </c>
       <c r="C230">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D230" s="2">
-        <v>44732.61137731482</v>
+        <v>44733.44586805555</v>
       </c>
       <c r="E230">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F230">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5994,16 +5931,16 @@
         <v>235</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2">
-        <v>44732.61221064815</v>
+        <v>44733.44599537037</v>
       </c>
       <c r="E231">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F231">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6014,16 +5951,16 @@
         <v>236</v>
       </c>
       <c r="C232">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2">
-        <v>44732.61265046296</v>
+        <v>44733.44606481482</v>
       </c>
       <c r="E232">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F232">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6034,16 +5971,16 @@
         <v>237</v>
       </c>
       <c r="C233">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D233" s="2">
-        <v>44732.61274305556</v>
+        <v>44733.44614583333</v>
       </c>
       <c r="E233">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F233">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6054,573 +5991,573 @@
         <v>238</v>
       </c>
       <c r="C234">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2">
-        <v>44732.61288194444</v>
+        <v>44733.44623842592</v>
       </c>
       <c r="E234">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F234">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B235" t="s">
         <v>239</v>
       </c>
       <c r="C235">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D235" s="2">
-        <v>44732.39646990741</v>
+        <v>44733.45855324074</v>
       </c>
       <c r="E235">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F235">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B236" t="s">
         <v>240</v>
       </c>
       <c r="C236">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="D236" s="2">
-        <v>44732.41131944444</v>
+        <v>44733.47680555555</v>
       </c>
       <c r="E236">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F236">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B237" t="s">
         <v>241</v>
       </c>
       <c r="C237">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D237" s="2">
-        <v>44732.41141203704</v>
+        <v>44733.47690972222</v>
       </c>
       <c r="E237">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F237">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B238" t="s">
         <v>242</v>
       </c>
       <c r="C238">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D238" s="2">
-        <v>44732.41155092593</v>
+        <v>44733.47762731482</v>
       </c>
       <c r="E238">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F238">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B239" t="s">
         <v>243</v>
       </c>
       <c r="C239">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D239" s="2">
-        <v>44732.41159722222</v>
+        <v>44733.47773148148</v>
       </c>
       <c r="E239">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F239">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B240" t="s">
         <v>244</v>
       </c>
       <c r="C240">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2">
-        <v>44732.41165509259</v>
+        <v>44733.4777662037</v>
       </c>
       <c r="E240">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F240">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B241" t="s">
         <v>245</v>
       </c>
       <c r="C241">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="D241" s="2">
-        <v>44732.41592592592</v>
+        <v>44733.47783564815</v>
       </c>
       <c r="E241">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F241">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B242" t="s">
         <v>246</v>
       </c>
       <c r="C242">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="D242" s="2">
-        <v>44732.41600694445</v>
+        <v>44733.48362268518</v>
       </c>
       <c r="E242">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F242">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B243" t="s">
         <v>247</v>
       </c>
       <c r="C243">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D243" s="2">
-        <v>44732.42040509259</v>
+        <v>44733.48368055555</v>
       </c>
       <c r="E243">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F243">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B244" t="s">
         <v>248</v>
       </c>
       <c r="C244">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D244" s="2">
-        <v>44732.42052083334</v>
+        <v>44733.48373842592</v>
       </c>
       <c r="E244">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F244">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B245" t="s">
         <v>249</v>
       </c>
       <c r="C245">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D245" s="2">
-        <v>44732.42057870371</v>
+        <v>44733.48391203704</v>
       </c>
       <c r="E245">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F245">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B246" t="s">
         <v>250</v>
       </c>
       <c r="C246">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D246" s="2">
-        <v>44732.42113425926</v>
+        <v>44733.48396990741</v>
       </c>
       <c r="E246">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F246">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B247" t="s">
         <v>251</v>
       </c>
       <c r="C247">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D247" s="2">
-        <v>44732.42118055555</v>
+        <v>44733.48418981482</v>
       </c>
       <c r="E247">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F247">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B248" t="s">
         <v>252</v>
       </c>
       <c r="C248">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D248" s="2">
-        <v>44732.42125</v>
+        <v>44733.48447916667</v>
       </c>
       <c r="E248">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F248">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B249" t="s">
         <v>253</v>
       </c>
       <c r="C249">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D249" s="2">
-        <v>44732.42216435185</v>
+        <v>44733.48469907408</v>
       </c>
       <c r="E249">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F249">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B250" t="s">
         <v>254</v>
       </c>
       <c r="C250">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D250" s="2">
-        <v>44732.42251157408</v>
+        <v>44733.48474537037</v>
       </c>
       <c r="E250">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F250">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B251" t="s">
         <v>255</v>
       </c>
       <c r="C251">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D251" s="2">
-        <v>44732.42261574074</v>
+        <v>44733.48504629629</v>
       </c>
       <c r="E251">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F251">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B252" t="s">
         <v>256</v>
       </c>
       <c r="C252">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D252" s="2">
-        <v>44732.42273148148</v>
+        <v>44733.48798611111</v>
       </c>
       <c r="E252">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B253" t="s">
         <v>257</v>
       </c>
       <c r="C253">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D253" s="2">
-        <v>44732.42277777778</v>
+        <v>44733.48814814815</v>
       </c>
       <c r="E253">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F253">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B254" t="s">
         <v>258</v>
       </c>
       <c r="C254">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D254" s="2">
-        <v>44732.42289351852</v>
+        <v>44733.48833333333</v>
       </c>
       <c r="E254">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F254">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B255" t="s">
         <v>259</v>
       </c>
       <c r="C255">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D255" s="2">
-        <v>44732.42334490741</v>
+        <v>44733.4884375</v>
       </c>
       <c r="E255">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F255">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B256" t="s">
         <v>260</v>
       </c>
       <c r="C256">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D256" s="2">
-        <v>44732.42341435186</v>
+        <v>44733.48850694444</v>
       </c>
       <c r="E256">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F256">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B257" t="s">
         <v>261</v>
       </c>
       <c r="C257">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D257" s="2">
-        <v>44732.42368055556</v>
+        <v>44733.48854166667</v>
       </c>
       <c r="E257">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F257">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B258" t="s">
         <v>262</v>
       </c>
       <c r="C258">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="D258" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.49039351852</v>
       </c>
       <c r="E258">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F258">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B259" t="s">
         <v>263</v>
       </c>
       <c r="C259">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D259" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.49049768518</v>
       </c>
       <c r="E259">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F259">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B260" t="s">
         <v>264</v>
       </c>
       <c r="C260">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D260" s="2">
-        <v>44732.42987268518</v>
+        <v>44733.49084490741</v>
       </c>
       <c r="E260">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F260">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>126159</v>
+        <v>42437</v>
       </c>
       <c r="B261" t="s">
         <v>265</v>
       </c>
       <c r="C261">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D261" s="2">
-        <v>44732.57280092593</v>
+        <v>44733.49480324074</v>
       </c>
       <c r="E261">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F261">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B262" t="s">
         <v>266</v>
       </c>
       <c r="C262">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D262" s="2">
-        <v>44732.4653125</v>
+        <v>44733.49505787037</v>
       </c>
       <c r="E262">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F262">
         <v>11</v>
@@ -6628,19 +6565,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B263" t="s">
         <v>267</v>
       </c>
       <c r="C263">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D263" s="2">
-        <v>44732.46556712963</v>
+        <v>44733.49512731482</v>
       </c>
       <c r="E263">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F263">
         <v>11</v>
@@ -6648,19 +6585,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B264" t="s">
         <v>268</v>
       </c>
       <c r="C264">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>44732.46784722222</v>
+        <v>44733.49518518519</v>
       </c>
       <c r="E264">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F264">
         <v>11</v>
@@ -6668,19 +6605,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B265" t="s">
         <v>269</v>
       </c>
       <c r="C265">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D265" s="2">
-        <v>44732.46789351852</v>
+        <v>44733.49523148148</v>
       </c>
       <c r="E265">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F265">
         <v>11</v>
@@ -6688,7 +6625,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B266" t="s">
         <v>270</v>
@@ -6697,10 +6634,10 @@
         <v>12</v>
       </c>
       <c r="D266" s="2">
-        <v>44732.46796296296</v>
+        <v>44733.49534722222</v>
       </c>
       <c r="E266">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F266">
         <v>11</v>
@@ -6708,19 +6645,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B267" t="s">
         <v>271</v>
       </c>
       <c r="C267">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D267" s="2">
-        <v>44732.46809027778</v>
+        <v>44733.49542824074</v>
       </c>
       <c r="E267">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F267">
         <v>11</v>
@@ -6728,19 +6665,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B268" t="s">
         <v>272</v>
       </c>
       <c r="C268">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D268" s="2">
-        <v>44732.46959490741</v>
+        <v>44733.49552083333</v>
       </c>
       <c r="E268">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F268">
         <v>11</v>
@@ -6748,19 +6685,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B269" t="s">
         <v>273</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" s="2">
-        <v>44732.47063657407</v>
+        <v>44733.49575231481</v>
       </c>
       <c r="E269">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F269">
         <v>11</v>
@@ -6768,19 +6705,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B270" t="s">
         <v>274</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D270" s="2">
-        <v>44732.47076388889</v>
+        <v>44733.49594907407</v>
       </c>
       <c r="E270">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F270">
         <v>11</v>
@@ -6788,19 +6725,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B271" t="s">
         <v>275</v>
       </c>
       <c r="C271">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D271" s="2">
-        <v>44732.47626157408</v>
+        <v>44733.49612268519</v>
       </c>
       <c r="E271">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F271">
         <v>11</v>
@@ -6808,19 +6745,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B272" t="s">
         <v>276</v>
       </c>
       <c r="C272">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D272" s="2">
-        <v>44732.47634259259</v>
+        <v>44733.49621527778</v>
       </c>
       <c r="E272">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F272">
         <v>11</v>
@@ -6828,19 +6765,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B273" t="s">
         <v>277</v>
       </c>
       <c r="C273">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D273" s="2">
-        <v>44732.47642361111</v>
+        <v>44733.49631944444</v>
       </c>
       <c r="E273">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F273">
         <v>11</v>
@@ -6848,287 +6785,287 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B274" t="s">
         <v>278</v>
       </c>
       <c r="C274">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D274" s="2">
-        <v>44732.47663194445</v>
+        <v>44733.58248842593</v>
       </c>
       <c r="E274">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F274">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B275" t="s">
         <v>279</v>
       </c>
       <c r="C275">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>44732.47672453704</v>
+        <v>44733.58262731481</v>
       </c>
       <c r="E275">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F275">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B276" t="s">
         <v>280</v>
       </c>
       <c r="C276">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D276" s="2">
-        <v>44732.47690972222</v>
+        <v>44733.58274305556</v>
       </c>
       <c r="E276">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F276">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B277" t="s">
         <v>281</v>
       </c>
       <c r="C277">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D277" s="2">
-        <v>44732.47848379629</v>
+        <v>44733.58300925926</v>
       </c>
       <c r="E277">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F277">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B278" t="s">
         <v>282</v>
       </c>
       <c r="C278">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D278" s="2">
-        <v>44732.47857638889</v>
+        <v>44733.583125</v>
       </c>
       <c r="E278">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F278">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B279" t="s">
         <v>283</v>
       </c>
       <c r="C279">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D279" s="2">
-        <v>44732.47862268519</v>
+        <v>44733.5834375</v>
       </c>
       <c r="E279">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F279">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B280" t="s">
         <v>284</v>
       </c>
       <c r="C280">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D280" s="2">
-        <v>44732.47887731482</v>
+        <v>44733.58780092592</v>
       </c>
       <c r="E280">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F280">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B281" t="s">
         <v>285</v>
       </c>
       <c r="C281">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D281" s="2">
-        <v>44732.47892361111</v>
+        <v>44733.58787037037</v>
       </c>
       <c r="E281">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F281">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B282" t="s">
         <v>286</v>
       </c>
       <c r="C282">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D282" s="2">
-        <v>44732.47899305556</v>
+        <v>44733.58795138889</v>
       </c>
       <c r="E282">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F282">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B283" t="s">
         <v>287</v>
       </c>
       <c r="C283">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D283" s="2">
-        <v>44732.4804050926</v>
+        <v>44733.58806712963</v>
       </c>
       <c r="E283">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F283">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B284" t="s">
         <v>288</v>
       </c>
       <c r="C284">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D284" s="2">
-        <v>44732.48056712963</v>
+        <v>44733.58818287037</v>
       </c>
       <c r="E284">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F284">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B285" t="s">
         <v>289</v>
       </c>
       <c r="C285">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D285" s="2">
-        <v>44732.48068287037</v>
+        <v>44733.5883912037</v>
       </c>
       <c r="E285">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F285">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B286" t="s">
         <v>290</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D286" s="2">
-        <v>44732.48077546297</v>
+        <v>44733.58842592593</v>
       </c>
       <c r="E286">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F286">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B287" t="s">
         <v>291</v>
       </c>
       <c r="C287">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D287" s="2">
-        <v>44732.48087962963</v>
+        <v>44733.58846064815</v>
       </c>
       <c r="E287">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F287">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B288" t="s">
         <v>292</v>
@@ -7137,198 +7074,198 @@
         <v>12</v>
       </c>
       <c r="D288" s="2">
-        <v>44732.48097222222</v>
+        <v>44733.58854166666</v>
       </c>
       <c r="E288">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F288">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B289" t="s">
         <v>293</v>
       </c>
       <c r="C289">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D289" s="2">
-        <v>44732.48111111111</v>
+        <v>44733.58857638889</v>
       </c>
       <c r="E289">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F289">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B290" t="s">
         <v>294</v>
       </c>
       <c r="C290">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D290" s="2">
-        <v>44732.48112268518</v>
+        <v>44733.58862268519</v>
       </c>
       <c r="E290">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F290">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B291" t="s">
         <v>295</v>
       </c>
       <c r="C291">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D291" s="2">
-        <v>44732.4811574074</v>
+        <v>44733.58991898148</v>
       </c>
       <c r="E291">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F291">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B292" t="s">
         <v>296</v>
       </c>
       <c r="C292">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D292" s="2">
-        <v>44732.48118055556</v>
+        <v>44733.5899537037</v>
       </c>
       <c r="E292">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F292">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B293" t="s">
         <v>297</v>
       </c>
       <c r="C293">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D293" s="2">
-        <v>44732.48118055556</v>
+        <v>44733.59001157407</v>
       </c>
       <c r="E293">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F293">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B294" t="s">
         <v>298</v>
       </c>
       <c r="C294">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D294" s="2">
-        <v>44732.48121527778</v>
+        <v>44733.59012731481</v>
       </c>
       <c r="E294">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F294">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B295" t="s">
         <v>299</v>
       </c>
       <c r="C295">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D295" s="2">
-        <v>44732.48134259259</v>
+        <v>44733.59016203704</v>
       </c>
       <c r="E295">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F295">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B296" t="s">
         <v>300</v>
       </c>
       <c r="C296">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D296" s="2">
-        <v>44732.48144675926</v>
+        <v>44733.59159722222</v>
       </c>
       <c r="E296">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F296">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B297" t="s">
         <v>301</v>
       </c>
       <c r="C297">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D297" s="2">
-        <v>44732.48149305556</v>
+        <v>44733.59162037037</v>
       </c>
       <c r="E297">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F297">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B298" t="s">
         <v>302</v>
@@ -7337,18 +7274,18 @@
         <v>24</v>
       </c>
       <c r="D298" s="2">
-        <v>44732.48335648148</v>
+        <v>44733.59181712963</v>
       </c>
       <c r="E298">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F298">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B299" t="s">
         <v>303</v>
@@ -7357,38 +7294,38 @@
         <v>10</v>
       </c>
       <c r="D299" s="2">
-        <v>44732.48340277778</v>
+        <v>44733.59186342593</v>
       </c>
       <c r="E299">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F299">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B300" t="s">
         <v>304</v>
       </c>
       <c r="C300">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D300" s="2">
-        <v>44732.49385416666</v>
+        <v>44733.59193287037</v>
       </c>
       <c r="E300">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F300">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B301" t="s">
         <v>305</v>
@@ -7397,90 +7334,90 @@
         <v>60</v>
       </c>
       <c r="D301" s="2">
-        <v>44732.49430555556</v>
+        <v>44733.59438657408</v>
       </c>
       <c r="E301">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F301">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B302" t="s">
         <v>306</v>
       </c>
       <c r="C302">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D302" s="2">
-        <v>44732.4949537037</v>
+        <v>44733.59453703704</v>
       </c>
       <c r="E302">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F302">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B303" t="s">
         <v>307</v>
       </c>
       <c r="C303">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D303" s="2">
-        <v>44732.49552083333</v>
+        <v>44733.59459490741</v>
       </c>
       <c r="E303">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F303">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B304" t="s">
         <v>308</v>
       </c>
       <c r="C304">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D304" s="2">
-        <v>44732.49596064815</v>
+        <v>44733.59469907408</v>
       </c>
       <c r="E304">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F304">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B305" t="s">
         <v>309</v>
       </c>
       <c r="C305">
-        <v>540</v>
+        <v>24</v>
       </c>
       <c r="D305" s="2">
-        <v>44732.58417824074</v>
+        <v>44733.59598379629</v>
       </c>
       <c r="E305">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F305">
         <v>14</v>
@@ -7488,19 +7425,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B306" t="s">
         <v>310</v>
       </c>
       <c r="C306">
-        <v>540</v>
+        <v>24</v>
       </c>
       <c r="D306" s="2">
-        <v>44732.59115740741</v>
+        <v>44733.59601851852</v>
       </c>
       <c r="E306">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F306">
         <v>14</v>
@@ -7508,19 +7445,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B307" t="s">
         <v>311</v>
       </c>
       <c r="C307">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D307" s="2">
-        <v>44732.59388888889</v>
+        <v>44733.59612268519</v>
       </c>
       <c r="E307">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F307">
         <v>14</v>
@@ -7528,19 +7465,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>62473</v>
+        <v>42437</v>
       </c>
       <c r="B308" t="s">
         <v>312</v>
       </c>
       <c r="C308">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D308" s="2">
-        <v>44732.59403935185</v>
+        <v>44733.59623842593</v>
       </c>
       <c r="E308">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F308">
         <v>14</v>
@@ -7548,442 +7485,22 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>62473</v>
+        <v>42540</v>
       </c>
       <c r="B309" t="s">
         <v>313</v>
       </c>
       <c r="C309">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D309" s="2">
-        <v>44732.594375</v>
+        <v>44733.42875</v>
       </c>
       <c r="E309">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F309">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310">
-        <v>62473</v>
-      </c>
-      <c r="B310" t="s">
-        <v>314</v>
-      </c>
-      <c r="C310">
-        <v>24</v>
-      </c>
-      <c r="D310" s="2">
-        <v>44732.59497685185</v>
-      </c>
-      <c r="E310">
-        <v>20</v>
-      </c>
-      <c r="F310">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
-      <c r="A311">
-        <v>62473</v>
-      </c>
-      <c r="B311" t="s">
-        <v>315</v>
-      </c>
-      <c r="C311">
-        <v>40</v>
-      </c>
-      <c r="D311" s="2">
-        <v>44732.59559027778</v>
-      </c>
-      <c r="E311">
-        <v>20</v>
-      </c>
-      <c r="F311">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312">
-        <v>62473</v>
-      </c>
-      <c r="B312" t="s">
-        <v>316</v>
-      </c>
-      <c r="C312">
-        <v>100</v>
-      </c>
-      <c r="D312" s="2">
-        <v>44732.59574074074</v>
-      </c>
-      <c r="E312">
-        <v>20</v>
-      </c>
-      <c r="F312">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
-      <c r="A313">
-        <v>62473</v>
-      </c>
-      <c r="B313" t="s">
-        <v>317</v>
-      </c>
-      <c r="C313">
-        <v>100</v>
-      </c>
-      <c r="D313" s="2">
-        <v>44732.60724537037</v>
-      </c>
-      <c r="E313">
-        <v>20</v>
-      </c>
-      <c r="F313">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314">
-        <v>62473</v>
-      </c>
-      <c r="B314" t="s">
-        <v>318</v>
-      </c>
-      <c r="C314">
-        <v>100</v>
-      </c>
-      <c r="D314" s="2">
-        <v>44732.60729166667</v>
-      </c>
-      <c r="E314">
-        <v>20</v>
-      </c>
-      <c r="F314">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315">
-        <v>62473</v>
-      </c>
-      <c r="B315" t="s">
-        <v>319</v>
-      </c>
-      <c r="C315">
-        <v>100</v>
-      </c>
-      <c r="D315" s="2">
-        <v>44732.60743055555</v>
-      </c>
-      <c r="E315">
-        <v>20</v>
-      </c>
-      <c r="F315">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316">
-        <v>62473</v>
-      </c>
-      <c r="B316" t="s">
-        <v>320</v>
-      </c>
-      <c r="C316">
-        <v>36</v>
-      </c>
-      <c r="D316" s="2">
-        <v>44732.60751157408</v>
-      </c>
-      <c r="E316">
-        <v>20</v>
-      </c>
-      <c r="F316">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317">
-        <v>62473</v>
-      </c>
-      <c r="B317" t="s">
-        <v>321</v>
-      </c>
-      <c r="C317">
-        <v>30</v>
-      </c>
-      <c r="D317" s="2">
-        <v>44732.61168981482</v>
-      </c>
-      <c r="E317">
-        <v>20</v>
-      </c>
-      <c r="F317">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318">
-        <v>62473</v>
-      </c>
-      <c r="B318" t="s">
-        <v>322</v>
-      </c>
-      <c r="C318">
-        <v>48</v>
-      </c>
-      <c r="D318" s="2">
-        <v>44732.61269675926</v>
-      </c>
-      <c r="E318">
-        <v>20</v>
-      </c>
-      <c r="F318">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319">
-        <v>62473</v>
-      </c>
-      <c r="B319" t="s">
-        <v>323</v>
-      </c>
-      <c r="C319">
-        <v>24</v>
-      </c>
-      <c r="D319" s="2">
-        <v>44732.61278935185</v>
-      </c>
-      <c r="E319">
-        <v>20</v>
-      </c>
-      <c r="F319">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320">
-        <v>62473</v>
-      </c>
-      <c r="B320" t="s">
-        <v>324</v>
-      </c>
-      <c r="C320">
-        <v>40</v>
-      </c>
-      <c r="D320" s="2">
-        <v>44732.6131712963</v>
-      </c>
-      <c r="E320">
-        <v>20</v>
-      </c>
-      <c r="F320">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321">
-        <v>62473</v>
-      </c>
-      <c r="B321" t="s">
-        <v>325</v>
-      </c>
-      <c r="C321">
-        <v>40</v>
-      </c>
-      <c r="D321" s="2">
-        <v>44732.61390046297</v>
-      </c>
-      <c r="E321">
-        <v>20</v>
-      </c>
-      <c r="F321">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322">
-        <v>62473</v>
-      </c>
-      <c r="B322" t="s">
-        <v>326</v>
-      </c>
-      <c r="C322">
-        <v>24</v>
-      </c>
-      <c r="D322" s="2">
-        <v>44732.61667824074</v>
-      </c>
-      <c r="E322">
-        <v>20</v>
-      </c>
-      <c r="F322">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323">
-        <v>62473</v>
-      </c>
-      <c r="B323" t="s">
-        <v>327</v>
-      </c>
-      <c r="C323">
-        <v>24</v>
-      </c>
-      <c r="D323" s="2">
-        <v>44732.61712962963</v>
-      </c>
-      <c r="E323">
-        <v>20</v>
-      </c>
-      <c r="F323">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324">
-        <v>62473</v>
-      </c>
-      <c r="B324" t="s">
-        <v>328</v>
-      </c>
-      <c r="C324">
-        <v>30</v>
-      </c>
-      <c r="D324" s="2">
-        <v>44732.61784722222</v>
-      </c>
-      <c r="E324">
-        <v>20</v>
-      </c>
-      <c r="F324">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325">
-        <v>62473</v>
-      </c>
-      <c r="B325" t="s">
-        <v>329</v>
-      </c>
-      <c r="C325">
-        <v>24</v>
-      </c>
-      <c r="D325" s="2">
-        <v>44732.61827546296</v>
-      </c>
-      <c r="E325">
-        <v>20</v>
-      </c>
-      <c r="F325">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326">
-        <v>62473</v>
-      </c>
-      <c r="B326" t="s">
-        <v>330</v>
-      </c>
-      <c r="C326">
-        <v>24</v>
-      </c>
-      <c r="D326" s="2">
-        <v>44732.61835648148</v>
-      </c>
-      <c r="E326">
-        <v>20</v>
-      </c>
-      <c r="F326">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327">
-        <v>62473</v>
-      </c>
-      <c r="B327" t="s">
-        <v>331</v>
-      </c>
-      <c r="C327">
-        <v>24</v>
-      </c>
-      <c r="D327" s="2">
-        <v>44732.61857638889</v>
-      </c>
-      <c r="E327">
-        <v>20</v>
-      </c>
-      <c r="F327">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328">
-        <v>62473</v>
-      </c>
-      <c r="B328" t="s">
-        <v>332</v>
-      </c>
-      <c r="C328">
-        <v>24</v>
-      </c>
-      <c r="D328" s="2">
-        <v>44732.61898148148</v>
-      </c>
-      <c r="E328">
-        <v>20</v>
-      </c>
-      <c r="F328">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329">
-        <v>62473</v>
-      </c>
-      <c r="B329" t="s">
-        <v>333</v>
-      </c>
-      <c r="C329">
-        <v>48</v>
-      </c>
-      <c r="D329" s="2">
-        <v>44732.61972222223</v>
-      </c>
-      <c r="E329">
-        <v>20</v>
-      </c>
-      <c r="F329">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330">
-        <v>62473</v>
-      </c>
-      <c r="B330" t="s">
-        <v>334</v>
-      </c>
-      <c r="C330">
-        <v>24</v>
-      </c>
-      <c r="D330" s="2">
-        <v>44732.61998842593</v>
-      </c>
-      <c r="E330">
-        <v>20</v>
-      </c>
-      <c r="F330">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_output/docked_raw/docked_raw_June.xlsx
+++ b/tmp_output/docked_raw/docked_raw_June.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>員編</t>
   </si>
@@ -34,928 +34,865 @@
     <t>HOUR</t>
   </si>
   <si>
-    <t>INTWK0002206160251</t>
-  </si>
-  <si>
-    <t>INTWK0002206160252</t>
-  </si>
-  <si>
-    <t>INTWK0002206160190</t>
-  </si>
-  <si>
-    <t>INTWK0002206160191</t>
-  </si>
-  <si>
-    <t>INTWK0002206160184</t>
-  </si>
-  <si>
-    <t>INTWK0002206160185</t>
-  </si>
-  <si>
-    <t>INTWK0002206160188</t>
-  </si>
-  <si>
-    <t>INTWK0002206160189</t>
-  </si>
-  <si>
-    <t>INTWK0002206160187</t>
-  </si>
-  <si>
-    <t>INTWK0002206160183</t>
-  </si>
-  <si>
-    <t>INTWK0002206150071</t>
-  </si>
-  <si>
-    <t>INTWK0002206150074</t>
-  </si>
-  <si>
-    <t>INTWK0002206150082</t>
-  </si>
-  <si>
-    <t>INTWK0002206150080</t>
-  </si>
-  <si>
-    <t>INTWK0002206150072</t>
-  </si>
-  <si>
-    <t>INTWK0002206150040</t>
-  </si>
-  <si>
-    <t>INTWK0002206150075</t>
-  </si>
-  <si>
-    <t>INTWK0002206150081</t>
-  </si>
-  <si>
-    <t>INTWK0002206150073</t>
-  </si>
-  <si>
-    <t>INTWK0002206150076</t>
-  </si>
-  <si>
-    <t>INTWK0002206150078</t>
-  </si>
-  <si>
-    <t>INTWK0002206150079</t>
-  </si>
-  <si>
-    <t>INTWK0002206150742</t>
-  </si>
-  <si>
-    <t>INTWK0002206150738</t>
-  </si>
-  <si>
-    <t>INTWK0002206150743</t>
-  </si>
-  <si>
-    <t>INTWK0002206150746</t>
-  </si>
-  <si>
-    <t>INTWK0002206150740</t>
-  </si>
-  <si>
-    <t>INTWK0002206150744</t>
-  </si>
-  <si>
-    <t>INTWK0002206150739</t>
-  </si>
-  <si>
-    <t>INTWK0002206150741</t>
-  </si>
-  <si>
-    <t>INTWK0002206150747</t>
-  </si>
-  <si>
-    <t>INTWK0002206150745</t>
-  </si>
-  <si>
-    <t>INTWK0002206170350</t>
-  </si>
-  <si>
-    <t>INTWK0002206170348</t>
-  </si>
-  <si>
-    <t>INTWK0002206170361</t>
-  </si>
-  <si>
-    <t>INTWK0002206170349</t>
-  </si>
-  <si>
-    <t>INTWK0002206160066</t>
-  </si>
-  <si>
-    <t>INTWK0002206160068</t>
-  </si>
-  <si>
-    <t>INTWK0002206160065</t>
-  </si>
-  <si>
-    <t>INTWK0002206160067</t>
-  </si>
-  <si>
-    <t>INTWK0002206150724</t>
-  </si>
-  <si>
-    <t>INTWK0002206150725</t>
-  </si>
-  <si>
-    <t>INTWK0002206150207</t>
-  </si>
-  <si>
-    <t>INTWK0002206150205</t>
-  </si>
-  <si>
-    <t>INTWK0002206150196</t>
-  </si>
-  <si>
-    <t>INTWK0002206150150</t>
-  </si>
-  <si>
-    <t>INTWK0002206150217</t>
-  </si>
-  <si>
-    <t>INTWK0002206150173</t>
-  </si>
-  <si>
-    <t>INTWK0002206150200</t>
-  </si>
-  <si>
-    <t>INTWK0002206150203</t>
-  </si>
-  <si>
-    <t>INTWK0002206150182</t>
-  </si>
-  <si>
-    <t>INTWK0002206150206</t>
-  </si>
-  <si>
-    <t>INTWK0002206150143</t>
-  </si>
-  <si>
-    <t>INTWK0002206150179</t>
-  </si>
-  <si>
-    <t>INTWK0002206150102</t>
-  </si>
-  <si>
-    <t>INTWK0002206150218</t>
-  </si>
-  <si>
-    <t>INTWK0002206150104</t>
-  </si>
-  <si>
-    <t>INTWK0002206150212</t>
-  </si>
-  <si>
-    <t>INTWK0002206150197</t>
-  </si>
-  <si>
-    <t>INTWK0002206150213</t>
-  </si>
-  <si>
-    <t>INTWK0002206150193</t>
-  </si>
-  <si>
-    <t>INTWK0002206150219</t>
-  </si>
-  <si>
-    <t>INTWK0002206150185</t>
-  </si>
-  <si>
-    <t>INTWK0002206150149</t>
-  </si>
-  <si>
-    <t>INTWK0002206150181</t>
-  </si>
-  <si>
-    <t>INTWK0002206150148</t>
-  </si>
-  <si>
-    <t>INTWK0002206150146</t>
-  </si>
-  <si>
-    <t>INTWK0002206150210</t>
-  </si>
-  <si>
-    <t>INTWK0002206150070</t>
-  </si>
-  <si>
-    <t>INTWK0002206150208</t>
-  </si>
-  <si>
-    <t>INTWK0002206150172</t>
-  </si>
-  <si>
-    <t>INTWK0002206150144</t>
-  </si>
-  <si>
-    <t>INTWK0002206150214</t>
-  </si>
-  <si>
-    <t>INTWK0002206150171</t>
-  </si>
-  <si>
-    <t>INTWK0002206150142</t>
-  </si>
-  <si>
-    <t>INTWK0002206150097</t>
-  </si>
-  <si>
-    <t>INTWK0002206150202</t>
-  </si>
-  <si>
-    <t>INTWK0002206150189</t>
-  </si>
-  <si>
-    <t>INTWK0002206150092</t>
-  </si>
-  <si>
-    <t>INTWK0002206150177</t>
-  </si>
-  <si>
-    <t>INTWK0002206150194</t>
-  </si>
-  <si>
-    <t>INTWK0002206150187</t>
-  </si>
-  <si>
-    <t>INTWK0002206150178</t>
-  </si>
-  <si>
-    <t>INTWK0002206150105</t>
-  </si>
-  <si>
-    <t>INTWK0002206150147</t>
-  </si>
-  <si>
-    <t>INTWK0002206150183</t>
-  </si>
-  <si>
-    <t>INTWK0002206150215</t>
-  </si>
-  <si>
-    <t>INTWK0002206150176</t>
-  </si>
-  <si>
-    <t>INTWK0002206150201</t>
-  </si>
-  <si>
-    <t>INTWK0002206150065</t>
-  </si>
-  <si>
-    <t>INTWK0002206150188</t>
-  </si>
-  <si>
-    <t>INTWK0002206150186</t>
-  </si>
-  <si>
-    <t>INTWK0002206150184</t>
-  </si>
-  <si>
-    <t>INTWK0002206150190</t>
-  </si>
-  <si>
-    <t>INTWK0002206150216</t>
-  </si>
-  <si>
-    <t>INTWK0002206150110</t>
-  </si>
-  <si>
-    <t>INTWK0002206150195</t>
-  </si>
-  <si>
-    <t>INTWK0002206150191</t>
-  </si>
-  <si>
-    <t>INTWK0002206150204</t>
-  </si>
-  <si>
-    <t>INTWK0002206150098</t>
-  </si>
-  <si>
-    <t>INTWK0002206150064</t>
-  </si>
-  <si>
-    <t>INTWK0002206150211</t>
-  </si>
-  <si>
-    <t>INTWK0002206150099</t>
-  </si>
-  <si>
-    <t>INTWK0002206150198</t>
-  </si>
-  <si>
-    <t>INTWK0002206150175</t>
-  </si>
-  <si>
-    <t>INTWK0002206150094</t>
-  </si>
-  <si>
-    <t>INTWK0002206150100</t>
-  </si>
-  <si>
-    <t>INTWK0002206150209</t>
-  </si>
-  <si>
-    <t>INTWK0002206150174</t>
-  </si>
-  <si>
-    <t>INTWK0002206150109</t>
-  </si>
-  <si>
-    <t>INTWK0002206150096</t>
-  </si>
-  <si>
-    <t>INTWK0002206150108</t>
-  </si>
-  <si>
-    <t>INTWK0002206150063</t>
-  </si>
-  <si>
-    <t>INTWK0002206150107</t>
-  </si>
-  <si>
-    <t>INTWK0002206150111</t>
-  </si>
-  <si>
-    <t>INTWK0002206150068</t>
-  </si>
-  <si>
-    <t>INTWK0002206150112</t>
-  </si>
-  <si>
-    <t>INTWK0002206150091</t>
-  </si>
-  <si>
-    <t>INTWK0002206150066</t>
-  </si>
-  <si>
-    <t>INTWK0002206150069</t>
-  </si>
-  <si>
-    <t>INTWK0002206150101</t>
-  </si>
-  <si>
-    <t>INTWK0002206150103</t>
-  </si>
-  <si>
-    <t>INTWK0002206150199</t>
-  </si>
-  <si>
-    <t>INTWK0002206150106</t>
-  </si>
-  <si>
-    <t>INTWK0002206150093</t>
-  </si>
-  <si>
-    <t>INTWK0002206160074</t>
-  </si>
-  <si>
-    <t>INTWK0002206160048</t>
-  </si>
-  <si>
-    <t>INTWK0002206160049</t>
-  </si>
-  <si>
-    <t>INTWK0002206160075</t>
-  </si>
-  <si>
-    <t>INTWK0002206160047</t>
-  </si>
-  <si>
-    <t>INTWK0002206160071</t>
-  </si>
-  <si>
-    <t>INTWK0002206160073</t>
-  </si>
-  <si>
-    <t>INTWK0002206160072</t>
-  </si>
-  <si>
-    <t>INTWK0002206160050</t>
-  </si>
-  <si>
-    <t>INTWK0002206140364</t>
-  </si>
-  <si>
-    <t>INTWK0002206140359</t>
-  </si>
-  <si>
-    <t>INTWK0002206140351</t>
-  </si>
-  <si>
-    <t>INTWK0002206140360</t>
-  </si>
-  <si>
-    <t>INTWK0002206140356</t>
-  </si>
-  <si>
-    <t>INTWK0002206140338</t>
-  </si>
-  <si>
-    <t>INTWK0002206140365</t>
-  </si>
-  <si>
-    <t>INTWK0002206140363</t>
-  </si>
-  <si>
-    <t>INTWK0002206140357</t>
-  </si>
-  <si>
-    <t>INTWK0002206140362</t>
-  </si>
-  <si>
-    <t>INTWK0002206140355</t>
-  </si>
-  <si>
-    <t>INTWK0002206140339</t>
-  </si>
-  <si>
-    <t>INTWK0002206140358</t>
-  </si>
-  <si>
-    <t>INTWK0002206140361</t>
-  </si>
-  <si>
-    <t>INTWK0002206140352</t>
-  </si>
-  <si>
-    <t>INTWK0002206140340</t>
-  </si>
-  <si>
-    <t>INTWK0002206140354</t>
-  </si>
-  <si>
-    <t>INTWK0002206140337</t>
-  </si>
-  <si>
-    <t>INTWK0002206150728</t>
-  </si>
-  <si>
-    <t>INTWK0002206170521</t>
-  </si>
-  <si>
-    <t>INTWK0002206170497</t>
-  </si>
-  <si>
-    <t>INTWK0002206170500</t>
-  </si>
-  <si>
-    <t>INTWK0002206170499</t>
-  </si>
-  <si>
-    <t>INTWK0002206170031</t>
-  </si>
-  <si>
-    <t>INTWK0002206170028</t>
-  </si>
-  <si>
-    <t>INTWK0002206160321</t>
-  </si>
-  <si>
-    <t>INTWK0002206160326</t>
-  </si>
-  <si>
-    <t>INTWK0002206160325</t>
-  </si>
-  <si>
-    <t>INTWK0002206160328</t>
-  </si>
-  <si>
-    <t>INTWK0002206160323</t>
-  </si>
-  <si>
-    <t>INTWK0002206160322</t>
-  </si>
-  <si>
-    <t>INTWK0002206160327</t>
-  </si>
-  <si>
-    <t>INTWK0002206160324</t>
-  </si>
-  <si>
-    <t>INTWK0002206150002</t>
-  </si>
-  <si>
-    <t>INTWK0002206170013</t>
-  </si>
-  <si>
-    <t>INTWK0002206160337</t>
-  </si>
-  <si>
-    <t>INTWK0002206160329</t>
-  </si>
-  <si>
-    <t>INTWK0002206160336</t>
-  </si>
-  <si>
-    <t>INTWK0002206160331</t>
-  </si>
-  <si>
-    <t>INTWK0002206160334</t>
-  </si>
-  <si>
-    <t>INTWK0002206160332</t>
-  </si>
-  <si>
-    <t>INTWK0002206160333</t>
-  </si>
-  <si>
-    <t>INTWK0002206150286</t>
-  </si>
-  <si>
-    <t>INTWK0002206150287</t>
-  </si>
-  <si>
-    <t>INTWK0002206150289</t>
-  </si>
-  <si>
-    <t>INTWK0002206150282</t>
-  </si>
-  <si>
-    <t>INTWK0002206150285</t>
-  </si>
-  <si>
-    <t>INTWK0002206150283</t>
-  </si>
-  <si>
-    <t>INTWK0002206170300</t>
-  </si>
-  <si>
-    <t>INTWK0002206170311</t>
-  </si>
-  <si>
-    <t>INTWK0002206170296</t>
-  </si>
-  <si>
-    <t>INTWK0002206170297</t>
-  </si>
-  <si>
-    <t>INTWK0002206170298</t>
-  </si>
-  <si>
-    <t>INTWK0002206170299</t>
-  </si>
-  <si>
-    <t>INTWK0002206170012</t>
-  </si>
-  <si>
-    <t>INTWK0002206170011</t>
-  </si>
-  <si>
-    <t>INTWK0002206150001</t>
-  </si>
-  <si>
-    <t>INTWK0002206150271</t>
-  </si>
-  <si>
-    <t>INTWK0002206150249</t>
-  </si>
-  <si>
-    <t>INTWK0002206150250</t>
-  </si>
-  <si>
-    <t>INTWK0002206170342</t>
-  </si>
-  <si>
-    <t>INTWK0002206170341</t>
-  </si>
-  <si>
-    <t>INTWK0002206170343</t>
-  </si>
-  <si>
-    <t>INTWK0002206150401</t>
-  </si>
-  <si>
-    <t>INTWK0002206150402</t>
-  </si>
-  <si>
-    <t>INTWK0002206150360</t>
-  </si>
-  <si>
-    <t>INTWK0002206150403</t>
-  </si>
-  <si>
-    <t>INTWK0002206170511</t>
-  </si>
-  <si>
-    <t>INTWK0002206170512</t>
-  </si>
-  <si>
-    <t>INTWK0002206170510</t>
-  </si>
-  <si>
-    <t>INTWK0002206100153</t>
-  </si>
-  <si>
-    <t>INTWK0002206100155</t>
-  </si>
-  <si>
-    <t>INTWK0002206100154</t>
-  </si>
-  <si>
-    <t>INTWK0002206160011</t>
-  </si>
-  <si>
-    <t>INTWK0002206150263</t>
-  </si>
-  <si>
-    <t>INTWK0002206160208</t>
-  </si>
-  <si>
-    <t>INTWK0002206160206</t>
-  </si>
-  <si>
-    <t>INTWK0002206160207</t>
-  </si>
-  <si>
-    <t>INTWK0002206170180</t>
-  </si>
-  <si>
-    <t>INTWK0002206170179</t>
-  </si>
-  <si>
-    <t>INTWK0002206170178</t>
-  </si>
-  <si>
-    <t>INTWK0002206150264</t>
-  </si>
-  <si>
-    <t>INTWK0002206200176</t>
-  </si>
-  <si>
-    <t>INTWK0002206200177</t>
-  </si>
-  <si>
-    <t>INTWK0002206200180</t>
-  </si>
-  <si>
-    <t>INTWK0002206200179</t>
-  </si>
-  <si>
-    <t>INTWK0002206200175</t>
-  </si>
-  <si>
-    <t>INTWK0002206200191</t>
-  </si>
-  <si>
-    <t>INTWK0002206200178</t>
-  </si>
-  <si>
-    <t>INTWK0002206170044</t>
-  </si>
-  <si>
-    <t>INTWK0002206170439</t>
-  </si>
-  <si>
-    <t>INTWK0002206170317</t>
-  </si>
-  <si>
-    <t>INTWK0002206170316</t>
-  </si>
-  <si>
-    <t>INTWK0002206150059</t>
-  </si>
-  <si>
-    <t>INTWK0002206150062</t>
-  </si>
-  <si>
-    <t>INTWK0002206150061</t>
-  </si>
-  <si>
-    <t>INTWK0002206150060</t>
-  </si>
-  <si>
-    <t>INTWK0002206150058</t>
-  </si>
-  <si>
-    <t>INTWK0002206150057</t>
-  </si>
-  <si>
-    <t>INTWK0002206160361</t>
-  </si>
-  <si>
-    <t>INTWK0002206170517</t>
-  </si>
-  <si>
-    <t>INTWK0002206170532</t>
-  </si>
-  <si>
-    <t>INTWK0002206170518</t>
-  </si>
-  <si>
-    <t>INTWK0002206170514</t>
-  </si>
-  <si>
-    <t>INTWK0002206170534</t>
-  </si>
-  <si>
-    <t>INTWK0002206170533</t>
-  </si>
-  <si>
-    <t>INTWK0002206170519</t>
-  </si>
-  <si>
-    <t>INTWK0002206170531</t>
-  </si>
-  <si>
-    <t>INTWK0002206170312</t>
-  </si>
-  <si>
-    <t>INTWK0002206170515</t>
-  </si>
-  <si>
-    <t>INTWK0002206170520</t>
-  </si>
-  <si>
-    <t>INTWK0002206170181</t>
-  </si>
-  <si>
-    <t>INTWK0002206170183</t>
-  </si>
-  <si>
-    <t>INTWK0002206170184</t>
-  </si>
-  <si>
-    <t>INTWK0002206170182</t>
-  </si>
-  <si>
-    <t>INTWK0002206170516</t>
-  </si>
-  <si>
-    <t>INTWK0002206180004</t>
-  </si>
-  <si>
-    <t>INTWK0002206170513</t>
-  </si>
-  <si>
-    <t>INTWK0002206180011</t>
-  </si>
-  <si>
-    <t>INTWK0002206170528</t>
-  </si>
-  <si>
-    <t>INTWK0002206170529</t>
-  </si>
-  <si>
-    <t>INTWK0002206180012</t>
-  </si>
-  <si>
-    <t>INTWK0002206170301</t>
-  </si>
-  <si>
-    <t>INTWK0002206180003</t>
-  </si>
-  <si>
-    <t>INTWK0002206170302</t>
-  </si>
-  <si>
-    <t>INTWK0002206170498</t>
-  </si>
-  <si>
-    <t>INTWK0002206170027</t>
-  </si>
-  <si>
-    <t>INTWK0002206170025</t>
-  </si>
-  <si>
-    <t>INTWK0002206170034</t>
-  </si>
-  <si>
-    <t>INTWK0002206170032</t>
-  </si>
-  <si>
-    <t>INTWK0002206170030</t>
-  </si>
-  <si>
-    <t>INTWK0002206170026</t>
-  </si>
-  <si>
-    <t>INTWK0002206170033</t>
-  </si>
-  <si>
-    <t>INTWK0002206150751</t>
-  </si>
-  <si>
-    <t>INTWK0002206150726</t>
-  </si>
-  <si>
-    <t>INTWK0002206150730</t>
-  </si>
-  <si>
-    <t>INTWK0002206150727</t>
-  </si>
-  <si>
-    <t>INTWK0002206150729</t>
-  </si>
-  <si>
-    <t>INTWK0002206150763</t>
-  </si>
-  <si>
-    <t>INTWK0002206150764</t>
-  </si>
-  <si>
-    <t>INTWK0002206150761</t>
-  </si>
-  <si>
-    <t>INTWK0002206150765</t>
-  </si>
-  <si>
-    <t>INTWK0002206150766</t>
-  </si>
-  <si>
-    <t>INTWK0002206150762</t>
-  </si>
-  <si>
-    <t>INTWK0002206170061</t>
-  </si>
-  <si>
-    <t>INTWK0002206170041</t>
-  </si>
-  <si>
-    <t>INTWK0002206170064</t>
-  </si>
-  <si>
-    <t>INTWK0002206170039</t>
-  </si>
-  <si>
-    <t>INTWK0002206170035</t>
-  </si>
-  <si>
-    <t>INTWK0002206170055</t>
-  </si>
-  <si>
-    <t>INTWK0002206170043</t>
-  </si>
-  <si>
-    <t>INTWK0002206170038</t>
-  </si>
-  <si>
-    <t>INTWK0002206170063</t>
-  </si>
-  <si>
-    <t>INTWK0002206170049</t>
-  </si>
-  <si>
-    <t>INTWK0002206170048</t>
-  </si>
-  <si>
-    <t>INTWK0002206170037</t>
-  </si>
-  <si>
-    <t>INTWK0002206170045</t>
-  </si>
-  <si>
-    <t>INTWK0002206170057</t>
-  </si>
-  <si>
-    <t>INTWK0002206170062</t>
-  </si>
-  <si>
-    <t>INTWK0002206170047</t>
-  </si>
-  <si>
-    <t>INTWK0002206170050</t>
-  </si>
-  <si>
-    <t>INTWK0002206170052</t>
-  </si>
-  <si>
-    <t>INTWK0002206170056</t>
-  </si>
-  <si>
-    <t>INTWK0002206170042</t>
-  </si>
-  <si>
-    <t>INTWK0002206170040</t>
-  </si>
-  <si>
-    <t>INTWK0002206170046</t>
-  </si>
-  <si>
-    <t>INTWK0002206170060</t>
-  </si>
-  <si>
-    <t>INTWK0002206170059</t>
-  </si>
-  <si>
-    <t>INTWK0002206170053</t>
-  </si>
-  <si>
-    <t>INTWK0002206170058</t>
-  </si>
-  <si>
-    <t>INTWK0002206170051</t>
-  </si>
-  <si>
-    <t>INTWK0002206170036</t>
-  </si>
-  <si>
-    <t>INTWK0002206170054</t>
-  </si>
-  <si>
-    <t>INTWK0002206170069</t>
+    <t>INTWK0002206200144</t>
+  </si>
+  <si>
+    <t>INTWK0002206200130</t>
+  </si>
+  <si>
+    <t>INTWK0002206200143</t>
+  </si>
+  <si>
+    <t>INTWK0002206200154</t>
+  </si>
+  <si>
+    <t>INTWK0002206200156</t>
+  </si>
+  <si>
+    <t>INTWK0002206200155</t>
+  </si>
+  <si>
+    <t>INTWK0002206200145</t>
+  </si>
+  <si>
+    <t>INTWK0002206200157</t>
+  </si>
+  <si>
+    <t>INTWK0002206200151</t>
+  </si>
+  <si>
+    <t>INTWK0002206200126</t>
+  </si>
+  <si>
+    <t>INTWK0002206200142</t>
+  </si>
+  <si>
+    <t>INTWK0002206200129</t>
+  </si>
+  <si>
+    <t>INTWK0002206200141</t>
+  </si>
+  <si>
+    <t>INTWK0002206200149</t>
+  </si>
+  <si>
+    <t>INTWK0002206200152</t>
+  </si>
+  <si>
+    <t>INTWK0002206200146</t>
+  </si>
+  <si>
+    <t>INTWK0002206200148</t>
+  </si>
+  <si>
+    <t>INTWK0002206200159</t>
+  </si>
+  <si>
+    <t>INTWK0002206200127</t>
+  </si>
+  <si>
+    <t>INTWK0002206200128</t>
+  </si>
+  <si>
+    <t>INTWK0002206200150</t>
+  </si>
+  <si>
+    <t>INTWK0002206200147</t>
+  </si>
+  <si>
+    <t>INTWK0002206200158</t>
+  </si>
+  <si>
+    <t>INTWK0002206160007</t>
+  </si>
+  <si>
+    <t>INTWK0002206150575</t>
+  </si>
+  <si>
+    <t>INTWK0002206150588</t>
+  </si>
+  <si>
+    <t>INTWK0002206160006</t>
+  </si>
+  <si>
+    <t>INTWK0002206150583</t>
+  </si>
+  <si>
+    <t>INTWK0002206150597</t>
+  </si>
+  <si>
+    <t>INTWK0002206150510</t>
+  </si>
+  <si>
+    <t>INTWK0002206150600</t>
+  </si>
+  <si>
+    <t>INTWK0002206150586</t>
+  </si>
+  <si>
+    <t>INTWK0002206150580</t>
+  </si>
+  <si>
+    <t>INTWK0002206150507</t>
+  </si>
+  <si>
+    <t>INTWK0002206150584</t>
+  </si>
+  <si>
+    <t>INTWK0002206150596</t>
+  </si>
+  <si>
+    <t>INTWK0002206150607</t>
+  </si>
+  <si>
+    <t>INTWK0002206150603</t>
+  </si>
+  <si>
+    <t>INTWK0002206150508</t>
+  </si>
+  <si>
+    <t>INTWK0002206150609</t>
+  </si>
+  <si>
+    <t>INTWK0002206150589</t>
+  </si>
+  <si>
+    <t>INTWK0002206150605</t>
+  </si>
+  <si>
+    <t>INTWK0002206150587</t>
+  </si>
+  <si>
+    <t>INTWK0002206150602</t>
+  </si>
+  <si>
+    <t>INTWK0002206150573</t>
+  </si>
+  <si>
+    <t>INTWK0002206150581</t>
+  </si>
+  <si>
+    <t>INTWK0002206150590</t>
+  </si>
+  <si>
+    <t>INTWK0002206150595</t>
+  </si>
+  <si>
+    <t>INTWK0002206150571</t>
+  </si>
+  <si>
+    <t>INTWK0002206150598</t>
+  </si>
+  <si>
+    <t>INTWK0002206150599</t>
+  </si>
+  <si>
+    <t>INTWK0002206150593</t>
+  </si>
+  <si>
+    <t>INTWK0002206150585</t>
+  </si>
+  <si>
+    <t>INTWK0002206150591</t>
+  </si>
+  <si>
+    <t>INTWK0002206150577</t>
+  </si>
+  <si>
+    <t>INTWK0002206150601</t>
+  </si>
+  <si>
+    <t>INTWK0002206150572</t>
+  </si>
+  <si>
+    <t>INTWK0002206150574</t>
+  </si>
+  <si>
+    <t>INTWK0002206150606</t>
+  </si>
+  <si>
+    <t>INTWK0002206150594</t>
+  </si>
+  <si>
+    <t>INTWK0002206150608</t>
+  </si>
+  <si>
+    <t>INTWK0002206150579</t>
+  </si>
+  <si>
+    <t>INTWK0002206150509</t>
+  </si>
+  <si>
+    <t>INTWK0002206150592</t>
+  </si>
+  <si>
+    <t>INTWK0002206150648</t>
+  </si>
+  <si>
+    <t>INTWK0002206150650</t>
+  </si>
+  <si>
+    <t>INTWK0002206150610</t>
+  </si>
+  <si>
+    <t>INTWK0002206150643</t>
+  </si>
+  <si>
+    <t>INTWK0002206150646</t>
+  </si>
+  <si>
+    <t>INTWK0002206150642</t>
+  </si>
+  <si>
+    <t>INTWK0002206150647</t>
+  </si>
+  <si>
+    <t>INTWK0002206150644</t>
+  </si>
+  <si>
+    <t>INTWK0002206150649</t>
+  </si>
+  <si>
+    <t>INTWK0002206150641</t>
+  </si>
+  <si>
+    <t>INTWK0002206150645</t>
+  </si>
+  <si>
+    <t>INTWK0002206170166</t>
+  </si>
+  <si>
+    <t>INTWK0002206170164</t>
+  </si>
+  <si>
+    <t>INTWK0002206170162</t>
+  </si>
+  <si>
+    <t>INTWK0002206170160</t>
+  </si>
+  <si>
+    <t>INTWK0002206170163</t>
+  </si>
+  <si>
+    <t>INTWK0002206170161</t>
+  </si>
+  <si>
+    <t>INTWK0002206170167</t>
+  </si>
+  <si>
+    <t>INTWK0002206170168</t>
+  </si>
+  <si>
+    <t>INTWK0002206170159</t>
+  </si>
+  <si>
+    <t>INTWK0002206170165</t>
+  </si>
+  <si>
+    <t>INTWK0002206150083</t>
+  </si>
+  <si>
+    <t>INTWK0002206150085</t>
+  </si>
+  <si>
+    <t>INTWK0002206150086</t>
+  </si>
+  <si>
+    <t>INTWK0002206150084</t>
+  </si>
+  <si>
+    <t>INTWK0002206150350</t>
+  </si>
+  <si>
+    <t>INTWK0002206150348</t>
+  </si>
+  <si>
+    <t>INTWK0002206150349</t>
+  </si>
+  <si>
+    <t>INTWK0002206150361</t>
+  </si>
+  <si>
+    <t>INTWK0002206160290</t>
+  </si>
+  <si>
+    <t>INTWK0002206170325</t>
+  </si>
+  <si>
+    <t>INTWK0002206170333</t>
+  </si>
+  <si>
+    <t>INTWK0002206160365</t>
+  </si>
+  <si>
+    <t>INTWK0002206170285</t>
+  </si>
+  <si>
+    <t>INTWK0002206160369</t>
+  </si>
+  <si>
+    <t>INTWK0002206160368</t>
+  </si>
+  <si>
+    <t>INTWK0002206170007</t>
+  </si>
+  <si>
+    <t>INTWK0002206170006</t>
+  </si>
+  <si>
+    <t>INTWK0002206170304</t>
+  </si>
+  <si>
+    <t>INTWK0002206170008</t>
+  </si>
+  <si>
+    <t>INTWK0002206170293</t>
+  </si>
+  <si>
+    <t>INTWK0002206170328</t>
+  </si>
+  <si>
+    <t>INTWK0002206170284</t>
+  </si>
+  <si>
+    <t>INTWK0002206170326</t>
+  </si>
+  <si>
+    <t>INTWK0002206170338</t>
+  </si>
+  <si>
+    <t>INTWK0002206170335</t>
+  </si>
+  <si>
+    <t>INTWK0002206170330</t>
+  </si>
+  <si>
+    <t>INTWK0002206170307</t>
+  </si>
+  <si>
+    <t>INTWK0002206170310</t>
+  </si>
+  <si>
+    <t>INTWK0002206170303</t>
+  </si>
+  <si>
+    <t>INTWK0002206170340</t>
+  </si>
+  <si>
+    <t>INTWK0002206170331</t>
+  </si>
+  <si>
+    <t>INTWK0002206170332</t>
+  </si>
+  <si>
+    <t>INTWK0002206170292</t>
+  </si>
+  <si>
+    <t>INTWK0002206170286</t>
+  </si>
+  <si>
+    <t>INTWK0002206170230</t>
+  </si>
+  <si>
+    <t>INTWK0002206170305</t>
+  </si>
+  <si>
+    <t>INTWK0002206170294</t>
+  </si>
+  <si>
+    <t>INTWK0002206170339</t>
+  </si>
+  <si>
+    <t>INTWK0002206170295</t>
+  </si>
+  <si>
+    <t>INTWK0002206170337</t>
+  </si>
+  <si>
+    <t>INTWK0002206170287</t>
+  </si>
+  <si>
+    <t>INTWK0002206170288</t>
+  </si>
+  <si>
+    <t>INTWK0002206170306</t>
+  </si>
+  <si>
+    <t>INTWK0002206170282</t>
+  </si>
+  <si>
+    <t>INTWK0002206170291</t>
+  </si>
+  <si>
+    <t>INTWK0002206160363</t>
+  </si>
+  <si>
+    <t>INTWK0002206160362</t>
+  </si>
+  <si>
+    <t>INTWK0002206170334</t>
+  </si>
+  <si>
+    <t>INTWK0002206170329</t>
+  </si>
+  <si>
+    <t>INTWK0002206170289</t>
+  </si>
+  <si>
+    <t>INTWK0002206170336</t>
+  </si>
+  <si>
+    <t>INTWK0002206170283</t>
+  </si>
+  <si>
+    <t>INTWK0002206160364</t>
+  </si>
+  <si>
+    <t>INTWK0002206170324</t>
+  </si>
+  <si>
+    <t>INTWK0002206170290</t>
+  </si>
+  <si>
+    <t>INTWK0002206170308</t>
+  </si>
+  <si>
+    <t>INTWK0002206170281</t>
+  </si>
+  <si>
+    <t>INTWK0002206170322</t>
+  </si>
+  <si>
+    <t>INTWK0002206170327</t>
+  </si>
+  <si>
+    <t>INTWK0002206160366</t>
+  </si>
+  <si>
+    <t>INTWK0002206160367</t>
+  </si>
+  <si>
+    <t>INTWK0002206170323</t>
+  </si>
+  <si>
+    <t>INTWK0002206170321</t>
+  </si>
+  <si>
+    <t>INTWK0002206160289</t>
+  </si>
+  <si>
+    <t>INTWK0002206160359</t>
+  </si>
+  <si>
+    <t>INTWK0002206160355</t>
+  </si>
+  <si>
+    <t>INTWK0002206160360</t>
+  </si>
+  <si>
+    <t>INTWK0002206160354</t>
+  </si>
+  <si>
+    <t>INTWK0002206160358</t>
+  </si>
+  <si>
+    <t>INTWK0002206160372</t>
+  </si>
+  <si>
+    <t>INTWK0002206170191</t>
+  </si>
+  <si>
+    <t>INTWK0002206150276</t>
+  </si>
+  <si>
+    <t>INTWK0002206150313</t>
+  </si>
+  <si>
+    <t>INTWK0002206150275</t>
+  </si>
+  <si>
+    <t>INTWK0002206150312</t>
+  </si>
+  <si>
+    <t>INTWK0002206200211</t>
+  </si>
+  <si>
+    <t>INTWK0002206200212</t>
+  </si>
+  <si>
+    <t>INTWK0002206200216</t>
+  </si>
+  <si>
+    <t>INTWK0002206200206</t>
+  </si>
+  <si>
+    <t>INTWK0002206200204</t>
+  </si>
+  <si>
+    <t>INTWK0002206200201</t>
+  </si>
+  <si>
+    <t>INTWK0002206200207</t>
+  </si>
+  <si>
+    <t>INTWK0002206200189</t>
+  </si>
+  <si>
+    <t>INTWK0002206200202</t>
+  </si>
+  <si>
+    <t>INTWK0002206200210</t>
+  </si>
+  <si>
+    <t>INTWK0002206200190</t>
+  </si>
+  <si>
+    <t>INTWK0002206200217</t>
+  </si>
+  <si>
+    <t>INTWK0002206200215</t>
+  </si>
+  <si>
+    <t>INTWK0002206200203</t>
+  </si>
+  <si>
+    <t>INTWK0002206200213</t>
+  </si>
+  <si>
+    <t>INTWK0002206200208</t>
+  </si>
+  <si>
+    <t>INTWK0002206200188</t>
+  </si>
+  <si>
+    <t>INTWK0002206130027</t>
+  </si>
+  <si>
+    <t>INTWK0002206130028</t>
+  </si>
+  <si>
+    <t>INTWK0002206170266</t>
+  </si>
+  <si>
+    <t>INTWK0002206170270</t>
+  </si>
+  <si>
+    <t>INTWK0002206170272</t>
+  </si>
+  <si>
+    <t>INTWK0002206170267</t>
+  </si>
+  <si>
+    <t>INTWK0002206170262</t>
+  </si>
+  <si>
+    <t>INTWK0002206170268</t>
+  </si>
+  <si>
+    <t>INTWK0002206170263</t>
+  </si>
+  <si>
+    <t>INTWK0002206170260</t>
+  </si>
+  <si>
+    <t>INTWK0002206170271</t>
+  </si>
+  <si>
+    <t>INTWK0002206170269</t>
+  </si>
+  <si>
+    <t>INTWK0002206170264</t>
+  </si>
+  <si>
+    <t>INTWK0002206170265</t>
+  </si>
+  <si>
+    <t>INTWK0002206170259</t>
+  </si>
+  <si>
+    <t>INTWK0002206170257</t>
+  </si>
+  <si>
+    <t>INTWK0002206170273</t>
+  </si>
+  <si>
+    <t>INTWK0002206170258</t>
+  </si>
+  <si>
+    <t>INTWK0002206170261</t>
+  </si>
+  <si>
+    <t>INTWK0002206200024</t>
+  </si>
+  <si>
+    <t>INTWK0002206200023</t>
+  </si>
+  <si>
+    <t>INTWK0002206200025</t>
+  </si>
+  <si>
+    <t>INTWK0002206200021</t>
+  </si>
+  <si>
+    <t>INTWK0002206200022</t>
+  </si>
+  <si>
+    <t>INTWK0002206160357</t>
+  </si>
+  <si>
+    <t>INTWK0002206160356</t>
+  </si>
+  <si>
+    <t>INTWK0002206160371</t>
+  </si>
+  <si>
+    <t>INTWK0002206160302</t>
+  </si>
+  <si>
+    <t>INTWK0002206160301</t>
+  </si>
+  <si>
+    <t>INTWK0002206160303</t>
+  </si>
+  <si>
+    <t>INTWK0002206200136</t>
+  </si>
+  <si>
+    <t>INTWK0002206170010</t>
+  </si>
+  <si>
+    <t>INTWK0002206170021</t>
+  </si>
+  <si>
+    <t>INTWK0002206210157</t>
+  </si>
+  <si>
+    <t>INTWK0002206200138</t>
+  </si>
+  <si>
+    <t>INTWK0002206200134</t>
+  </si>
+  <si>
+    <t>INTWK0002206200137</t>
+  </si>
+  <si>
+    <t>INTWK0002206150376</t>
+  </si>
+  <si>
+    <t>INTWK0002206150378</t>
+  </si>
+  <si>
+    <t>INTWK0002206150377</t>
+  </si>
+  <si>
+    <t>INTWK0002206150380</t>
+  </si>
+  <si>
+    <t>INTWK0002206150379</t>
+  </si>
+  <si>
+    <t>INTWK0002206150375</t>
+  </si>
+  <si>
+    <t>INTWK0002206150252</t>
+  </si>
+  <si>
+    <t>INTWK0002206140251</t>
+  </si>
+  <si>
+    <t>INTWK0002206210140</t>
+  </si>
+  <si>
+    <t>INTWK0002206140220</t>
+  </si>
+  <si>
+    <t>INTWK0002206140219</t>
+  </si>
+  <si>
+    <t>INTWK0002206160271</t>
+  </si>
+  <si>
+    <t>INTWK0002206160267</t>
+  </si>
+  <si>
+    <t>INTWK0002206160268</t>
+  </si>
+  <si>
+    <t>INTWK0002206150671</t>
+  </si>
+  <si>
+    <t>INTWK0002206150251</t>
+  </si>
+  <si>
+    <t>INTWK0002206150220</t>
+  </si>
+  <si>
+    <t>INTWK0002206150640</t>
+  </si>
+  <si>
+    <t>INTWK0002206150629</t>
+  </si>
+  <si>
+    <t>INTWK0002206150614</t>
+  </si>
+  <si>
+    <t>INTWK0002206150630</t>
+  </si>
+  <si>
+    <t>INTWK0002206150625</t>
+  </si>
+  <si>
+    <t>INTWK0002206150633</t>
+  </si>
+  <si>
+    <t>INTWK0002206150620</t>
+  </si>
+  <si>
+    <t>INTWK0002206150611</t>
+  </si>
+  <si>
+    <t>INTWK0002206150626</t>
+  </si>
+  <si>
+    <t>INTWK0002206150621</t>
+  </si>
+  <si>
+    <t>INTWK0002206150632</t>
+  </si>
+  <si>
+    <t>INTWK0002206150617</t>
+  </si>
+  <si>
+    <t>INTWK0002206150618</t>
+  </si>
+  <si>
+    <t>INTWK0002206150623</t>
+  </si>
+  <si>
+    <t>INTWK0002206150615</t>
+  </si>
+  <si>
+    <t>INTWK0002206150622</t>
+  </si>
+  <si>
+    <t>INTWK0002206150634</t>
+  </si>
+  <si>
+    <t>INTWK0002206150628</t>
+  </si>
+  <si>
+    <t>INTWK0002206150631</t>
+  </si>
+  <si>
+    <t>INTWK0002206150612</t>
+  </si>
+  <si>
+    <t>INTWK0002206150616</t>
+  </si>
+  <si>
+    <t>INTWK0002206170141</t>
+  </si>
+  <si>
+    <t>INTWK0002206170140</t>
+  </si>
+  <si>
+    <t>INTWK0002206150619</t>
+  </si>
+  <si>
+    <t>INTWK0002206150624</t>
+  </si>
+  <si>
+    <t>INTWK0002206150627</t>
+  </si>
+  <si>
+    <t>INTWK0002206150613</t>
+  </si>
+  <si>
+    <t>INTWK0002206200371</t>
+  </si>
+  <si>
+    <t>INTWK0002206200375</t>
+  </si>
+  <si>
+    <t>INTWK0002206200240</t>
+  </si>
+  <si>
+    <t>INTWK0002206200373</t>
+  </si>
+  <si>
+    <t>INTWK0002206200396</t>
+  </si>
+  <si>
+    <t>INTWK0002206200377</t>
+  </si>
+  <si>
+    <t>INTWK0002206200372</t>
+  </si>
+  <si>
+    <t>INTWK0002206200374</t>
+  </si>
+  <si>
+    <t>INTWK0002206200239</t>
+  </si>
+  <si>
+    <t>INTWK0002206200382</t>
+  </si>
+  <si>
+    <t>INTWK0002206200376</t>
+  </si>
+  <si>
+    <t>INTWK0002206170505</t>
+  </si>
+  <si>
+    <t>INTWK0002206170440</t>
+  </si>
+  <si>
+    <t>INTWK0002206170504</t>
+  </si>
+  <si>
+    <t>INTWK0002206170501</t>
+  </si>
+  <si>
+    <t>INTWK0002206170507</t>
+  </si>
+  <si>
+    <t>INTWK0002206170502</t>
+  </si>
+  <si>
+    <t>INTWK0002206170509</t>
+  </si>
+  <si>
+    <t>INTWK0002206170508</t>
+  </si>
+  <si>
+    <t>INTWK0002206170503</t>
+  </si>
+  <si>
+    <t>INTWK0002206170318</t>
+  </si>
+  <si>
+    <t>INTWK0002206170351</t>
+  </si>
+  <si>
+    <t>INTWK0002206170353</t>
+  </si>
+  <si>
+    <t>INTWK0002206170352</t>
+  </si>
+  <si>
+    <t>INTWK0002206200164</t>
+  </si>
+  <si>
+    <t>INTWK0002206200163</t>
+  </si>
+  <si>
+    <t>INTWK0002206150490</t>
+  </si>
+  <si>
+    <t>INTWK0002206150491</t>
+  </si>
+  <si>
+    <t>INTWK0002206150489</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,19 +1282,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>44733.33118055556</v>
+        <v>44734.33122685185</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1365,19 +1302,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>44733.32152777778</v>
+        <v>44734.33114583333</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1385,19 +1322,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>44733.33188657407</v>
+        <v>44734.33118055556</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1405,19 +1342,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>44733.33243055556</v>
+        <v>44734.33122685185</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1425,19 +1362,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>44733.33263888889</v>
+        <v>44734.33126157407</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -1445,19 +1382,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>44733.33305555556</v>
+        <v>44734.3315162037</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1465,167 +1402,167 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>44733.33472222222</v>
+        <v>44734.33172453703</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>44733.33479166667</v>
+        <v>44734.33175925926</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
-        <v>44733.33490740741</v>
+        <v>44734.3319675926</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>44733.33525462963</v>
+        <v>44734.3320949074</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>44733.34091435185</v>
+        <v>44734.33233796297</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2">
-        <v>44733.34138888889</v>
+        <v>44734.33237268519</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
-        <v>44733.34163194444</v>
+        <v>44734.33246527778</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>44733.34221064814</v>
+        <v>44734.33302083334</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1634,30 +1571,30 @@
         <v>100</v>
       </c>
       <c r="D16" s="2">
-        <v>44733.34261574074</v>
+        <v>44734.3330787037</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>44733.343125</v>
+        <v>44734.33398148148</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1665,19 +1602,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
-        <v>44733.34318287037</v>
+        <v>44734.33407407408</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1685,19 +1622,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
-        <v>44733.34346064815</v>
+        <v>44734.3341087963</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1705,19 +1642,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
-        <v>44733.34413194445</v>
+        <v>44734.33618055555</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -1725,19 +1662,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>44733.34423611111</v>
+        <v>44734.33623842592</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -1745,19 +1682,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>44733.34429398148</v>
+        <v>44734.33627314815</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -1765,19 +1702,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
-        <v>44733.34436342592</v>
+        <v>44734.33811342593</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -1785,19 +1722,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>44733.34650462963</v>
+        <v>44734.33875</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1805,19 +1742,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2">
-        <v>44733.34655092593</v>
+        <v>44734.35263888889</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1825,19 +1762,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
-        <v>44733.34662037037</v>
+        <v>44734.35375</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -1845,19 +1782,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2">
-        <v>44733.34680555556</v>
+        <v>44734.35380787037</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -1865,19 +1802,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2">
-        <v>44733.34690972222</v>
+        <v>44734.35439814815</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -1885,19 +1822,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2">
-        <v>44733.34703703703</v>
+        <v>44734.35451388889</v>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1905,19 +1842,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>44733.34711805556</v>
+        <v>44734.35459490741</v>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1925,19 +1862,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2">
-        <v>44733.34724537037</v>
+        <v>44734.35497685185</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -1945,19 +1882,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2">
-        <v>44733.34736111111</v>
+        <v>44734.35519675926</v>
       </c>
       <c r="E32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -1965,19 +1902,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
-        <v>44733.34743055556</v>
+        <v>44734.3553587963</v>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -1985,19 +1922,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
-        <v>44733.35635416667</v>
+        <v>44734.35539351852</v>
       </c>
       <c r="E34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -2005,19 +1942,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2">
-        <v>44733.35722222222</v>
+        <v>44734.35570601852</v>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -2025,19 +1962,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
-        <v>44733.35954861111</v>
+        <v>44734.3566087963</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -2045,19 +1982,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
-        <v>44733.3625462963</v>
+        <v>44734.35666666667</v>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -2065,19 +2002,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2">
-        <v>44733.36760416667</v>
+        <v>44734.35672453704</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -2085,19 +2022,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2">
-        <v>44733.36768518519</v>
+        <v>44734.35682870371</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -2105,19 +2042,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2">
-        <v>44733.36783564815</v>
+        <v>44734.3571875</v>
       </c>
       <c r="E40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -2125,19 +2062,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>44733.36797453704</v>
+        <v>44734.35770833334</v>
       </c>
       <c r="E41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -2145,139 +2082,139 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2">
-        <v>44733.39037037037</v>
+        <v>44734.35775462963</v>
       </c>
       <c r="E42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2">
-        <v>44733.39049768518</v>
+        <v>44734.35797453704</v>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2">
-        <v>44733.40357638889</v>
+        <v>44734.35832175926</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
-        <v>44733.40364583334</v>
+        <v>44734.3593287037</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
-        <v>44733.40387731481</v>
+        <v>44734.35952546296</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44734.35960648148</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47">
         <v>8</v>
-      </c>
-      <c r="D47" s="2">
-        <v>44733.40393518518</v>
-      </c>
-      <c r="E47">
-        <v>21</v>
-      </c>
-      <c r="F47">
-        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2">
-        <v>44733.4040625</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -2285,19 +2222,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2">
-        <v>44733.40417824074</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -2305,19 +2242,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2">
-        <v>44733.40428240741</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -2325,19 +2262,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
-        <v>44733.40457175926</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -2345,19 +2282,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2">
-        <v>44733.40494212963</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -2365,19 +2302,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
-        <v>44733.40545138889</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E53">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -2385,19 +2322,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2">
-        <v>44733.40553240741</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -2405,19 +2342,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2">
-        <v>44733.40563657408</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E55">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -2425,19 +2362,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2">
-        <v>44733.40630787037</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F56">
         <v>9</v>
@@ -2445,19 +2382,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
-        <v>44733.40636574074</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57">
         <v>9</v>
@@ -2465,19 +2402,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
-        <v>44733.40644675926</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E58">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -2485,19 +2422,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D59" s="2">
-        <v>44733.40657407408</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E59">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -2505,19 +2442,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2">
-        <v>44733.40837962963</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E60">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60">
         <v>9</v>
@@ -2525,19 +2462,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D61" s="2">
-        <v>44733.40847222223</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E61">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>9</v>
@@ -2545,19 +2482,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2">
-        <v>44733.40854166666</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -2565,19 +2502,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2">
-        <v>44733.40862268519</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -2585,19 +2522,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2">
-        <v>44733.40878472223</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E64">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64">
         <v>9</v>
@@ -2605,19 +2542,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2">
-        <v>44733.40887731482</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E65">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -2625,19 +2562,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2">
-        <v>44733.40894675926</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E66">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66">
         <v>9</v>
@@ -2645,19 +2582,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2">
-        <v>44733.40902777778</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E67">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>9</v>
@@ -2665,19 +2602,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D68" s="2">
-        <v>44733.41027777778</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F68">
         <v>9</v>
@@ -2685,19 +2622,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D69" s="2">
-        <v>44733.41037037037</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E69">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F69">
         <v>9</v>
@@ -2705,19 +2642,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D70" s="2">
-        <v>44733.41042824074</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E70">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F70">
         <v>9</v>
@@ -2725,19 +2662,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D71" s="2">
-        <v>44733.41049768519</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E71">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F71">
         <v>9</v>
@@ -2745,19 +2682,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D72" s="2">
-        <v>44733.41059027778</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -2765,19 +2702,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
-        <v>44733.41090277778</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E73">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -2785,19 +2722,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D74" s="2">
-        <v>44733.41096064815</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E74">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -2805,19 +2742,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D75" s="2">
-        <v>44733.41103009259</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75">
         <v>9</v>
@@ -2825,19 +2762,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
       </c>
       <c r="C76">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="D76" s="2">
-        <v>44733.41128472222</v>
+        <v>44734.38392361111</v>
       </c>
       <c r="E76">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F76">
         <v>9</v>
@@ -2845,19 +2782,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2">
-        <v>44733.41163194444</v>
+        <v>44734.3890625</v>
       </c>
       <c r="E77">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F77">
         <v>9</v>
@@ -2865,199 +2802,199 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2">
-        <v>44733.42280092592</v>
+        <v>44734.38925925926</v>
       </c>
       <c r="E78">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2">
-        <v>44733.42335648148</v>
+        <v>44734.38946759259</v>
       </c>
       <c r="E79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
       <c r="C80">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
-        <v>44733.42336805556</v>
+        <v>44734.38962962963</v>
       </c>
       <c r="E80">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D81" s="2">
-        <v>44733.42336805556</v>
+        <v>44734.39230324074</v>
       </c>
       <c r="E81">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>44733.42336805556</v>
+        <v>44734.39515046297</v>
       </c>
       <c r="E82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>44733.42336805556</v>
+        <v>44734.39527777778</v>
       </c>
       <c r="E83">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D84" s="2">
-        <v>44733.42346064815</v>
+        <v>44734.39546296297</v>
       </c>
       <c r="E84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2">
-        <v>44733.42353009259</v>
+        <v>44734.39755787037</v>
       </c>
       <c r="E85">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>44733.42368055556</v>
+        <v>44734.39805555555</v>
       </c>
       <c r="E86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2">
-        <v>44733.42444444444</v>
+        <v>44734.41846064815</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -3065,19 +3002,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2">
-        <v>44733.42452546296</v>
+        <v>44734.41849537037</v>
       </c>
       <c r="E88">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -3085,19 +3022,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="C89">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>44733.4258449074</v>
+        <v>44734.41854166667</v>
       </c>
       <c r="E89">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -3105,19 +3042,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
       <c r="C90">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2">
-        <v>44733.42591435185</v>
+        <v>44734.41858796297</v>
       </c>
       <c r="E90">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -3125,19 +3062,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2">
-        <v>44733.4259837963</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E91">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -3145,7 +3082,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
@@ -3154,10 +3091,10 @@
         <v>30</v>
       </c>
       <c r="D92" s="2">
-        <v>44733.42611111111</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -3165,19 +3102,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2">
-        <v>44733.42730324074</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -3185,7 +3122,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
@@ -3194,10 +3131,10 @@
         <v>10</v>
       </c>
       <c r="D94" s="2">
-        <v>44733.42738425926</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E94">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -3205,19 +3142,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2">
-        <v>44733.42751157407</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E95">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -3225,19 +3162,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2">
-        <v>44733.42759259259</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -3245,19 +3182,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2">
-        <v>44733.42769675926</v>
+        <v>44734.42621527778</v>
       </c>
       <c r="E97">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -3265,19 +3202,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2">
-        <v>44733.42778935185</v>
+        <v>44734.42675925926</v>
       </c>
       <c r="E98">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -3285,19 +3222,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2">
-        <v>44733.42782407408</v>
+        <v>44734.42695601852</v>
       </c>
       <c r="E99">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -3305,19 +3242,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2">
-        <v>44733.42789351852</v>
+        <v>44734.42701388889</v>
       </c>
       <c r="E100">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -3325,19 +3262,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2">
-        <v>44733.43043981482</v>
+        <v>44734.42709490741</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -3345,19 +3282,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2">
-        <v>44733.43050925926</v>
+        <v>44734.4271875</v>
       </c>
       <c r="E102">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -3365,19 +3302,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
       <c r="C103">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D103" s="2">
-        <v>44733.43061342592</v>
+        <v>44734.42724537037</v>
       </c>
       <c r="E103">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -3385,19 +3322,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2">
-        <v>44733.43070601852</v>
+        <v>44734.42783564814</v>
       </c>
       <c r="E104">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -3405,19 +3342,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2">
-        <v>44733.43074074074</v>
+        <v>44734.42787037037</v>
       </c>
       <c r="E105">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -3425,19 +3362,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2">
-        <v>44733.43085648148</v>
+        <v>44734.42791666667</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -3445,19 +3382,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2">
-        <v>44733.43091435185</v>
+        <v>44734.42800925926</v>
       </c>
       <c r="E107">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -3465,19 +3402,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2">
-        <v>44733.43119212963</v>
+        <v>44734.42807870371</v>
       </c>
       <c r="E108">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -3485,19 +3422,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42815972222</v>
       </c>
       <c r="E109">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -3505,19 +3442,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42912037037</v>
       </c>
       <c r="E110">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -3525,19 +3462,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
       </c>
       <c r="C111">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42920138889</v>
       </c>
       <c r="E111">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -3545,19 +3482,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
       </c>
       <c r="C112">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42929398148</v>
       </c>
       <c r="E112">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -3565,7 +3502,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
@@ -3574,10 +3511,10 @@
         <v>24</v>
       </c>
       <c r="D113" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42936342592</v>
       </c>
       <c r="E113">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -3585,19 +3522,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
       </c>
       <c r="C114">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42951388889</v>
       </c>
       <c r="E114">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -3605,19 +3542,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.42996527778</v>
       </c>
       <c r="E115">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3625,19 +3562,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43003472222</v>
       </c>
       <c r="E116">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F116">
         <v>10</v>
@@ -3645,7 +3582,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -3654,10 +3591,10 @@
         <v>24</v>
       </c>
       <c r="D117" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43013888889</v>
       </c>
       <c r="E117">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -3665,7 +3602,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -3674,10 +3611,10 @@
         <v>24</v>
       </c>
       <c r="D118" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43023148148</v>
       </c>
       <c r="E118">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F118">
         <v>10</v>
@@ -3685,19 +3622,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43425925926</v>
       </c>
       <c r="E119">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -3705,19 +3642,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B120" t="s">
         <v>124</v>
       </c>
       <c r="C120">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.4343287037</v>
       </c>
       <c r="E120">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -3725,19 +3662,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B121" t="s">
         <v>125</v>
       </c>
       <c r="C121">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43439814815</v>
       </c>
       <c r="E121">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -3745,19 +3682,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
       </c>
       <c r="C122">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43444444444</v>
       </c>
       <c r="E122">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F122">
         <v>10</v>
@@ -3765,19 +3702,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2">
-        <v>44733.43347222222</v>
+        <v>44734.43449074074</v>
       </c>
       <c r="E123">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -3785,19 +3722,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B124" t="s">
         <v>128</v>
       </c>
       <c r="C124">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2">
-        <v>44733.43355324074</v>
+        <v>44734.43454861111</v>
       </c>
       <c r="E124">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -3805,19 +3742,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
       </c>
       <c r="C125">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D125" s="2">
-        <v>44733.4337037037</v>
+        <v>44734.43460648148</v>
       </c>
       <c r="E125">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -3825,19 +3762,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
       </c>
       <c r="C126">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2">
-        <v>44733.43375</v>
+        <v>44734.43469907407</v>
       </c>
       <c r="E126">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -3845,19 +3782,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
       </c>
       <c r="C127">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2">
-        <v>44733.44069444444</v>
+        <v>44734.43475694444</v>
       </c>
       <c r="E127">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -3865,19 +3802,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
       </c>
       <c r="C128">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2">
-        <v>44733.44114583333</v>
+        <v>44734.43480324074</v>
       </c>
       <c r="E128">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -3885,19 +3822,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
       </c>
       <c r="C129">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2">
-        <v>44733.44123842593</v>
+        <v>44734.43496527777</v>
       </c>
       <c r="E129">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -3905,19 +3842,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
       </c>
       <c r="C130">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2">
-        <v>44733.4413425926</v>
+        <v>44734.43503472222</v>
       </c>
       <c r="E130">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -3925,19 +3862,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B131" t="s">
         <v>135</v>
       </c>
       <c r="C131">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2">
-        <v>44733.44144675926</v>
+        <v>44734.43506944444</v>
       </c>
       <c r="E131">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F131">
         <v>10</v>
@@ -3945,19 +3882,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
       </c>
       <c r="C132">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D132" s="2">
-        <v>44733.44221064815</v>
+        <v>44734.43512731481</v>
       </c>
       <c r="E132">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -3965,19 +3902,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
       </c>
       <c r="C133">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D133" s="2">
-        <v>44733.44230324074</v>
+        <v>44734.43518518518</v>
       </c>
       <c r="E133">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -3985,19 +3922,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B134" t="s">
         <v>138</v>
       </c>
       <c r="C134">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D134" s="2">
-        <v>44733.44238425926</v>
+        <v>44734.43530092593</v>
       </c>
       <c r="E134">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -4005,19 +3942,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B135" t="s">
         <v>139</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
-        <v>44733.44263888889</v>
+        <v>44734.43590277778</v>
       </c>
       <c r="E135">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -4025,19 +3962,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B136" t="s">
         <v>140</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D136" s="2">
-        <v>44733.44380787037</v>
+        <v>44734.43603009259</v>
       </c>
       <c r="E136">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F136">
         <v>10</v>
@@ -4045,19 +3982,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B137" t="s">
         <v>141</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D137" s="2">
-        <v>44733.44333333334</v>
+        <v>44734.43607638889</v>
       </c>
       <c r="E137">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -4065,19 +4002,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B138" t="s">
         <v>142</v>
       </c>
       <c r="C138">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D138" s="2">
-        <v>44733.44341435185</v>
+        <v>44734.43719907408</v>
       </c>
       <c r="E138">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -4085,19 +4022,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B139" t="s">
         <v>143</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2">
-        <v>44733.44366898148</v>
+        <v>44734.43625</v>
       </c>
       <c r="E139">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -4105,19 +4042,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D140" s="2">
-        <v>44733.44388888889</v>
+        <v>44734.43631944444</v>
       </c>
       <c r="E140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -4125,19 +4062,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D141" s="2">
-        <v>44733.44420138889</v>
+        <v>44734.43637731481</v>
       </c>
       <c r="E141">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F141">
         <v>10</v>
@@ -4145,19 +4082,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B142" t="s">
         <v>146</v>
       </c>
       <c r="C142">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2">
-        <v>44733.44927083333</v>
+        <v>44734.43725694445</v>
       </c>
       <c r="E142">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -4165,19 +4102,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B143" t="s">
         <v>147</v>
       </c>
       <c r="C143">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D143" s="2">
-        <v>44733.45037037037</v>
+        <v>44734.43731481482</v>
       </c>
       <c r="E143">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -4185,7 +4122,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B144" t="s">
         <v>148</v>
@@ -4194,10 +4131,10 @@
         <v>24</v>
       </c>
       <c r="D144" s="2">
-        <v>44733.45045138889</v>
+        <v>44734.43738425926</v>
       </c>
       <c r="E144">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -4205,7 +4142,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B145" t="s">
         <v>149</v>
@@ -4214,10 +4151,10 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>44733.45055555556</v>
+        <v>44734.43798611111</v>
       </c>
       <c r="E145">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -4225,19 +4162,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B146" t="s">
         <v>150</v>
       </c>
       <c r="C146">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D146" s="2">
-        <v>44733.45064814815</v>
+        <v>44734.43802083333</v>
       </c>
       <c r="E146">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F146">
         <v>10</v>
@@ -4245,19 +4182,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B147" t="s">
         <v>151</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D147" s="2">
-        <v>44733.45071759259</v>
+        <v>44734.43805555555</v>
       </c>
       <c r="E147">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F147">
         <v>10</v>
@@ -4265,19 +4202,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B148" t="s">
         <v>152</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D148" s="2">
-        <v>44733.45082175926</v>
+        <v>44734.43813657408</v>
       </c>
       <c r="E148">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F148">
         <v>10</v>
@@ -4285,19 +4222,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B149" t="s">
         <v>153</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D149" s="2">
-        <v>44733.45087962963</v>
+        <v>44734.43820601852</v>
       </c>
       <c r="E149">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F149">
         <v>10</v>
@@ -4305,19 +4242,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B150" t="s">
         <v>154</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2">
-        <v>44733.45114583334</v>
+        <v>44734.43849537037</v>
       </c>
       <c r="E150">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F150">
         <v>10</v>
@@ -4325,7 +4262,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B151" t="s">
         <v>155</v>
@@ -4334,10 +4271,10 @@
         <v>12</v>
       </c>
       <c r="D151" s="2">
-        <v>44733.45127314814</v>
+        <v>44734.44695601852</v>
       </c>
       <c r="E151">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -4345,19 +4282,19 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B152" t="s">
         <v>156</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2">
-        <v>44733.45159722222</v>
+        <v>44734.44699074074</v>
       </c>
       <c r="E152">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -4365,19 +4302,19 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153" s="2">
-        <v>44733.45162037037</v>
+        <v>44734.44706018519</v>
       </c>
       <c r="E153">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F153">
         <v>10</v>
@@ -4385,267 +4322,267 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B154" t="s">
         <v>158</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D154" s="2">
-        <v>44733.50335648148</v>
+        <v>44734.44712962963</v>
       </c>
       <c r="E154">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B155" t="s">
         <v>159</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2">
-        <v>44733.50351851852</v>
+        <v>44734.44743055556</v>
       </c>
       <c r="E155">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F155">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B156" t="s">
         <v>160</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D156" s="2">
-        <v>44733.50373842593</v>
+        <v>44734.44754629629</v>
       </c>
       <c r="E156">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B157" t="s">
         <v>161</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" s="2">
-        <v>44733.50386574074</v>
+        <v>44734.42513888889</v>
       </c>
       <c r="E157">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B158" t="s">
         <v>162</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
-        <v>44733.50475694444</v>
+        <v>44734.43097222222</v>
       </c>
       <c r="E158">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B159" t="s">
         <v>163</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
-        <v>44733.50503472222</v>
+        <v>44734.43888888889</v>
       </c>
       <c r="E159">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F159">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B160" t="s">
         <v>164</v>
       </c>
       <c r="C160">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2">
-        <v>44733.50523148148</v>
+        <v>44734.43944444445</v>
       </c>
       <c r="E160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F160">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B161" t="s">
         <v>165</v>
       </c>
       <c r="C161">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
-        <v>44733.50568287037</v>
+        <v>44734.43950231482</v>
       </c>
       <c r="E161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B162" t="s">
         <v>166</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D162" s="2">
-        <v>44733.50596064814</v>
+        <v>44734.4425462963</v>
       </c>
       <c r="E162">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B163" t="s">
         <v>167</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2">
-        <v>44733.50606481481</v>
+        <v>44734.44258101852</v>
       </c>
       <c r="E163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B164" t="s">
         <v>168</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D164" s="2">
-        <v>44733.5066087963</v>
+        <v>44734.44260416667</v>
       </c>
       <c r="E164">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B165" t="s">
         <v>169</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D165" s="2">
-        <v>44733.50758101852</v>
+        <v>44734.44326388889</v>
       </c>
       <c r="E165">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F165">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B166" t="s">
         <v>170</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D166" s="2">
-        <v>44733.50818287037</v>
+        <v>44734.44331018518</v>
       </c>
       <c r="E166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B167" t="s">
         <v>171</v>
@@ -4654,338 +4591,338 @@
         <v>20</v>
       </c>
       <c r="D167" s="2">
-        <v>44733.50930555556</v>
+        <v>44734.44388888889</v>
       </c>
       <c r="E167">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F167">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B168" t="s">
         <v>172</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D168" s="2">
-        <v>44733.50998842593</v>
+        <v>44734.44396990741</v>
       </c>
       <c r="E168">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F168">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B169" t="s">
         <v>173</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D169" s="2">
-        <v>44733.51049768519</v>
+        <v>44734.44427083333</v>
       </c>
       <c r="E169">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F169">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B170" t="s">
         <v>174</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D170" s="2">
-        <v>44733.51077546296</v>
+        <v>44734.44430555555</v>
       </c>
       <c r="E170">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F170">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B171" t="s">
         <v>175</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D171" s="2">
-        <v>44733.51131944444</v>
+        <v>44734.44439814815</v>
       </c>
       <c r="E171">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F171">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B172" t="s">
         <v>176</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="D172" s="2">
-        <v>44733.51179398148</v>
+        <v>44734.45053240741</v>
       </c>
       <c r="E172">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F172">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B173" t="s">
         <v>177</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D173" s="2">
-        <v>44733.51207175926</v>
+        <v>44734.45063657407</v>
       </c>
       <c r="E173">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B174" t="s">
         <v>178</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D174" s="2">
-        <v>44733.51219907407</v>
+        <v>44734.4506712963</v>
       </c>
       <c r="E174">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F174">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B175" t="s">
         <v>179</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D175" s="2">
-        <v>44733.51225694444</v>
+        <v>44734.45071759259</v>
       </c>
       <c r="E175">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F175">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B176" t="s">
         <v>180</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D176" s="2">
-        <v>44733.51268518518</v>
+        <v>44734.45075231481</v>
       </c>
       <c r="E176">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F176">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B177" t="s">
         <v>181</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D177" s="2">
-        <v>44733.51278935185</v>
+        <v>44734.45078703704</v>
       </c>
       <c r="E177">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F177">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B178" t="s">
         <v>182</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D178" s="2">
-        <v>44733.51288194444</v>
+        <v>44734.45165509259</v>
       </c>
       <c r="E178">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F178">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B179" t="s">
         <v>183</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D179" s="2">
-        <v>44733.51296296297</v>
+        <v>44734.47162037037</v>
       </c>
       <c r="E179">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F179">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B180" t="s">
         <v>184</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D180" s="2">
-        <v>44733.51331018518</v>
+        <v>44734.47194444444</v>
       </c>
       <c r="E180">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F180">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B181" t="s">
         <v>185</v>
       </c>
       <c r="C181">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" s="2">
-        <v>44733.51332175926</v>
+        <v>44734.49309027778</v>
       </c>
       <c r="E181">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F181">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B182" t="s">
         <v>186</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D182" s="2">
-        <v>44733.51392361111</v>
+        <v>44734.49313657408</v>
       </c>
       <c r="E182">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F182">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B183" t="s">
         <v>187</v>
       </c>
       <c r="C183">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D183" s="2">
-        <v>44733.5140625</v>
+        <v>44734.49317129629</v>
       </c>
       <c r="E183">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F183">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B184" t="s">
         <v>188</v>
@@ -4994,18 +4931,18 @@
         <v>24</v>
       </c>
       <c r="D184" s="2">
-        <v>44733.51462962963</v>
+        <v>44734.49321759259</v>
       </c>
       <c r="E184">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F184">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B185" t="s">
         <v>189</v>
@@ -5014,598 +4951,598 @@
         <v>24</v>
       </c>
       <c r="D185" s="2">
-        <v>44733.51493055555</v>
+        <v>44734.49327546296</v>
       </c>
       <c r="E185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F185">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B186" t="s">
         <v>190</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D186" s="2">
-        <v>44733.51547453704</v>
+        <v>44734.49335648148</v>
       </c>
       <c r="E186">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F186">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B187" t="s">
         <v>191</v>
       </c>
       <c r="C187">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D187" s="2">
-        <v>44733.51577546296</v>
+        <v>44734.4933912037</v>
       </c>
       <c r="E187">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F187">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B188" t="s">
         <v>192</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D188" s="2">
-        <v>44733.51637731482</v>
+        <v>44734.49342592592</v>
       </c>
       <c r="E188">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F188">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B189" t="s">
         <v>193</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D189" s="2">
-        <v>44733.51680555556</v>
+        <v>44734.49344907407</v>
       </c>
       <c r="E189">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F189">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B190" t="s">
         <v>194</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D190" s="2">
-        <v>44733.51733796296</v>
+        <v>44734.49387731482</v>
       </c>
       <c r="E190">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F190">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B191" t="s">
         <v>195</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D191" s="2">
-        <v>44733.51747685186</v>
+        <v>44734.49393518519</v>
       </c>
       <c r="E191">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F191">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B192" t="s">
         <v>196</v>
       </c>
       <c r="C192">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2">
-        <v>44733.51813657407</v>
+        <v>44734.49400462963</v>
       </c>
       <c r="E192">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F192">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B193" t="s">
         <v>197</v>
       </c>
       <c r="C193">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D193" s="2">
-        <v>44733.52011574074</v>
+        <v>44734.49403935186</v>
       </c>
       <c r="E193">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F193">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B194" t="s">
         <v>198</v>
       </c>
       <c r="C194">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D194" s="2">
-        <v>44733.52092592593</v>
+        <v>44734.49430555556</v>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F194">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B195" t="s">
         <v>199</v>
       </c>
       <c r="C195">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="D195" s="2">
-        <v>44733.52153935185</v>
+        <v>44734.49439814815</v>
       </c>
       <c r="E195">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F195">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B196" t="s">
         <v>200</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D196" s="2">
-        <v>44733.52351851852</v>
+        <v>44734.49461805556</v>
       </c>
       <c r="E196">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F196">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B197" t="s">
         <v>201</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D197" s="2">
-        <v>44733.52400462963</v>
+        <v>44734.49467592593</v>
       </c>
       <c r="E197">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F197">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B198" t="s">
         <v>202</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D198" s="2">
-        <v>44733.52417824074</v>
+        <v>44734.44498842592</v>
       </c>
       <c r="E198">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F198">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B199" t="s">
         <v>203</v>
       </c>
       <c r="C199">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D199" s="2">
-        <v>44733.52548611111</v>
+        <v>44734.44505787037</v>
       </c>
       <c r="E199">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F199">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B200" t="s">
         <v>204</v>
       </c>
       <c r="C200">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D200" s="2">
-        <v>44733.52863425926</v>
+        <v>44734.44527777778</v>
       </c>
       <c r="E200">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F200">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B201" t="s">
         <v>205</v>
       </c>
       <c r="C201">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D201" s="2">
-        <v>44733.52872685185</v>
+        <v>44734.44537037037</v>
       </c>
       <c r="E201">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F201">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B202" t="s">
         <v>206</v>
       </c>
       <c r="C202">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="D202" s="2">
-        <v>44733.53806712963</v>
+        <v>44734.44548611111</v>
       </c>
       <c r="E202">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F202">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B203" t="s">
         <v>207</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D203" s="2">
-        <v>44733.57508101852</v>
+        <v>44734.44809027778</v>
       </c>
       <c r="E203">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F203">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B204" t="s">
         <v>208</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D204" s="2">
-        <v>44733.57523148148</v>
+        <v>44734.4481712963</v>
       </c>
       <c r="E204">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F204">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B205" t="s">
         <v>209</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D205" s="2">
-        <v>44733.57540509259</v>
+        <v>44734.44822916666</v>
       </c>
       <c r="E205">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F205">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B206" t="s">
         <v>210</v>
       </c>
       <c r="C206">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D206" s="2">
-        <v>44733.52674768519</v>
+        <v>44734.44834490741</v>
       </c>
       <c r="E206">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F206">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B207" t="s">
         <v>211</v>
       </c>
       <c r="C207">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D207" s="2">
-        <v>44733.52707175926</v>
+        <v>44734.4483912037</v>
       </c>
       <c r="E207">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F207">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B208" t="s">
         <v>212</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D208" s="2">
-        <v>44733.52793981481</v>
+        <v>44734.44847222222</v>
       </c>
       <c r="E208">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F208">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B209" t="s">
         <v>213</v>
       </c>
       <c r="C209">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D209" s="2">
-        <v>44733.53736111111</v>
+        <v>44734.54516203704</v>
       </c>
       <c r="E209">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F209">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B210" t="s">
         <v>214</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D210" s="2">
-        <v>44733.59847222222</v>
+        <v>44734.54525462963</v>
       </c>
       <c r="E210">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F210">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B211" t="s">
         <v>215</v>
       </c>
       <c r="C211">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D211" s="2">
-        <v>44733.59971064814</v>
+        <v>44734.54537037037</v>
       </c>
       <c r="E211">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F211">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B212" t="s">
         <v>216</v>
       </c>
       <c r="C212">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2">
-        <v>44733.59997685185</v>
+        <v>44734.54575231481</v>
       </c>
       <c r="E212">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F212">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B213" t="s">
         <v>217</v>
       </c>
       <c r="C213">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D213" s="2">
-        <v>44733.60013888889</v>
+        <v>44734.54587962963</v>
       </c>
       <c r="E213">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F213">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B214" t="s">
         <v>218</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D214" s="2">
-        <v>44733.60148148148</v>
+        <v>44734.54600694445</v>
       </c>
       <c r="E214">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F214">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B215" t="s">
         <v>219</v>
@@ -5614,198 +5551,198 @@
         <v>3</v>
       </c>
       <c r="D215" s="2">
-        <v>44733.60159722222</v>
+        <v>44734.54609953704</v>
       </c>
       <c r="E215">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F215">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B216" t="s">
         <v>220</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D216" s="2">
-        <v>44733.60171296296</v>
+        <v>44734.54637731481</v>
       </c>
       <c r="E216">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F216">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B217" t="s">
         <v>221</v>
       </c>
       <c r="C217">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D217" s="2">
-        <v>44733.60178240741</v>
+        <v>44734.54642361111</v>
       </c>
       <c r="E217">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F217">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B218" t="s">
         <v>222</v>
       </c>
       <c r="C218">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D218" s="2">
-        <v>44733.60436342593</v>
+        <v>44734.54681712963</v>
       </c>
       <c r="E218">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F218">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B219" t="s">
         <v>223</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D219" s="2">
-        <v>44733.60443287037</v>
+        <v>44734.54686342592</v>
       </c>
       <c r="E219">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F219">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B220" t="s">
         <v>224</v>
       </c>
       <c r="C220">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D220" s="2">
-        <v>44733.60445601852</v>
+        <v>44734.54699074074</v>
       </c>
       <c r="E220">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F220">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B221" t="s">
         <v>225</v>
       </c>
       <c r="C221">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D221" s="2">
-        <v>44733.60472222222</v>
+        <v>44734.5471875</v>
       </c>
       <c r="E221">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F221">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B222" t="s">
         <v>226</v>
       </c>
       <c r="C222">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D222" s="2">
-        <v>44733.60482638889</v>
+        <v>44734.55598379629</v>
       </c>
       <c r="E222">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F222">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B223" t="s">
         <v>227</v>
       </c>
       <c r="C223">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D223" s="2">
-        <v>44733.60487268519</v>
+        <v>44734.55636574074</v>
       </c>
       <c r="E223">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F223">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B224" t="s">
         <v>228</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D224" s="2">
-        <v>44733.60497685185</v>
+        <v>44734.55641203704</v>
       </c>
       <c r="E224">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F224">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B225" t="s">
         <v>229</v>
@@ -5814,178 +5751,178 @@
         <v>24</v>
       </c>
       <c r="D225" s="2">
-        <v>44733.60537037037</v>
+        <v>44734.55699074074</v>
       </c>
       <c r="E225">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F225">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B226" t="s">
         <v>230</v>
       </c>
       <c r="C226">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D226" s="2">
-        <v>44733.42280092592</v>
+        <v>44734.55709490741</v>
       </c>
       <c r="E226">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F226">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B227" t="s">
         <v>231</v>
       </c>
       <c r="C227">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D227" s="2">
-        <v>44733.42280092592</v>
+        <v>44734.55716435185</v>
       </c>
       <c r="E227">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F227">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B228" t="s">
         <v>232</v>
       </c>
       <c r="C228">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D228" s="2">
-        <v>44733.42280092592</v>
+        <v>44734.55802083333</v>
       </c>
       <c r="E228">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B229" t="s">
         <v>233</v>
       </c>
       <c r="C229">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="D229" s="2">
-        <v>44733.44568287037</v>
+        <v>44734.55820601852</v>
       </c>
       <c r="E229">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F229">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B230" t="s">
         <v>234</v>
       </c>
       <c r="C230">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D230" s="2">
-        <v>44733.44586805555</v>
+        <v>44734.56101851852</v>
       </c>
       <c r="E230">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F230">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B231" t="s">
         <v>235</v>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="D231" s="2">
-        <v>44733.44599537037</v>
+        <v>44734.56111111111</v>
       </c>
       <c r="E231">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F231">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B232" t="s">
         <v>236</v>
       </c>
       <c r="C232">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="D232" s="2">
-        <v>44733.44606481482</v>
+        <v>44734.56121527778</v>
       </c>
       <c r="E232">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F232">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B233" t="s">
         <v>237</v>
       </c>
       <c r="C233">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D233" s="2">
-        <v>44733.44614583333</v>
+        <v>44734.56133101852</v>
       </c>
       <c r="E233">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F233">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>126159</v>
+        <v>42560</v>
       </c>
       <c r="B234" t="s">
         <v>238</v>
@@ -5994,198 +5931,198 @@
         <v>12</v>
       </c>
       <c r="D234" s="2">
-        <v>44733.44623842592</v>
+        <v>44734.59532407407</v>
       </c>
       <c r="E234">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F234">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B235" t="s">
         <v>239</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2">
-        <v>44733.45855324074</v>
+        <v>44734.59538194445</v>
       </c>
       <c r="E235">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F235">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B236" t="s">
         <v>240</v>
       </c>
       <c r="C236">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2">
-        <v>44733.47680555555</v>
+        <v>44734.59550925926</v>
       </c>
       <c r="E236">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F236">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B237" t="s">
         <v>241</v>
       </c>
       <c r="C237">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2">
-        <v>44733.47690972222</v>
+        <v>44734.5955787037</v>
       </c>
       <c r="E237">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F237">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B238" t="s">
         <v>242</v>
       </c>
       <c r="C238">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D238" s="2">
-        <v>44733.47762731482</v>
+        <v>44734.59571759259</v>
       </c>
       <c r="E238">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F238">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B239" t="s">
         <v>243</v>
       </c>
       <c r="C239">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D239" s="2">
-        <v>44733.47773148148</v>
+        <v>44734.59579861111</v>
       </c>
       <c r="E239">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F239">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B240" t="s">
         <v>244</v>
       </c>
       <c r="C240">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D240" s="2">
-        <v>44733.4777662037</v>
+        <v>44734.59628472223</v>
       </c>
       <c r="E240">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F240">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B241" t="s">
         <v>245</v>
       </c>
       <c r="C241">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D241" s="2">
-        <v>44733.47783564815</v>
+        <v>44734.59634259259</v>
       </c>
       <c r="E241">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F241">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B242" t="s">
         <v>246</v>
       </c>
       <c r="C242">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D242" s="2">
-        <v>44733.48362268518</v>
+        <v>44734.59641203703</v>
       </c>
       <c r="E242">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F242">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B243" t="s">
         <v>247</v>
       </c>
       <c r="C243">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D243" s="2">
-        <v>44733.48368055555</v>
+        <v>44734.59649305556</v>
       </c>
       <c r="E243">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F243">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B244" t="s">
         <v>248</v>
@@ -6194,258 +6131,258 @@
         <v>30</v>
       </c>
       <c r="D244" s="2">
-        <v>44733.48373842592</v>
+        <v>44734.59949074074</v>
       </c>
       <c r="E244">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F244">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B245" t="s">
         <v>249</v>
       </c>
       <c r="C245">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="D245" s="2">
-        <v>44733.48391203704</v>
+        <v>44734.59952546296</v>
       </c>
       <c r="E245">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F245">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B246" t="s">
         <v>250</v>
       </c>
       <c r="C246">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D246" s="2">
-        <v>44733.48396990741</v>
+        <v>44734.59965277778</v>
       </c>
       <c r="E246">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F246">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B247" t="s">
         <v>251</v>
       </c>
       <c r="C247">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D247" s="2">
-        <v>44733.48418981482</v>
+        <v>44734.59975694444</v>
       </c>
       <c r="E247">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F247">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B248" t="s">
         <v>252</v>
       </c>
       <c r="C248">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D248" s="2">
-        <v>44733.48447916667</v>
+        <v>44734.59980324074</v>
       </c>
       <c r="E248">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F248">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B249" t="s">
         <v>253</v>
       </c>
       <c r="C249">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D249" s="2">
-        <v>44733.48469907408</v>
+        <v>44734.59987268518</v>
       </c>
       <c r="E249">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F249">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B250" t="s">
         <v>254</v>
       </c>
       <c r="C250">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D250" s="2">
-        <v>44733.48474537037</v>
+        <v>44734.60076388889</v>
       </c>
       <c r="E250">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F250">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B251" t="s">
         <v>255</v>
       </c>
       <c r="C251">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D251" s="2">
-        <v>44733.48504629629</v>
+        <v>44734.60085648148</v>
       </c>
       <c r="E251">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F251">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B252" t="s">
         <v>256</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D252" s="2">
-        <v>44733.48798611111</v>
+        <v>44734.60090277778</v>
       </c>
       <c r="E252">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F252">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B253" t="s">
         <v>257</v>
       </c>
       <c r="C253">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D253" s="2">
-        <v>44733.48814814815</v>
+        <v>44734.6009837963</v>
       </c>
       <c r="E253">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F253">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B254" t="s">
         <v>258</v>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D254" s="2">
-        <v>44733.48833333333</v>
+        <v>44734.60106481481</v>
       </c>
       <c r="E254">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F254">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B255" t="s">
         <v>259</v>
       </c>
       <c r="C255">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2">
-        <v>44733.4884375</v>
+        <v>44734.60118055555</v>
       </c>
       <c r="E255">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F255">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B256" t="s">
         <v>260</v>
       </c>
       <c r="C256">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D256" s="2">
-        <v>44733.48850694444</v>
+        <v>44734.60126157408</v>
       </c>
       <c r="E256">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F256">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B257" t="s">
         <v>261</v>
@@ -6454,378 +6391,378 @@
         <v>10</v>
       </c>
       <c r="D257" s="2">
-        <v>44733.48854166667</v>
+        <v>44734.6012962963</v>
       </c>
       <c r="E257">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F257">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B258" t="s">
         <v>262</v>
       </c>
       <c r="C258">
-        <v>462</v>
+        <v>24</v>
       </c>
       <c r="D258" s="2">
-        <v>44733.49039351852</v>
+        <v>44734.60150462963</v>
       </c>
       <c r="E258">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F258">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B259" t="s">
         <v>263</v>
       </c>
       <c r="C259">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="D259" s="2">
-        <v>44733.49049768518</v>
+        <v>44734.60158564815</v>
       </c>
       <c r="E259">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F259">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B260" t="s">
         <v>264</v>
       </c>
       <c r="C260">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D260" s="2">
-        <v>44733.49084490741</v>
+        <v>44734.60524305556</v>
       </c>
       <c r="E260">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F260">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B261" t="s">
         <v>265</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D261" s="2">
-        <v>44733.49480324074</v>
+        <v>44734.60534722222</v>
       </c>
       <c r="E261">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F261">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B262" t="s">
         <v>266</v>
       </c>
       <c r="C262">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D262" s="2">
-        <v>44733.49505787037</v>
+        <v>44734.60541666667</v>
       </c>
       <c r="E262">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F262">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B263" t="s">
         <v>267</v>
       </c>
       <c r="C263">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D263" s="2">
-        <v>44733.49512731482</v>
+        <v>44734.6055324074</v>
       </c>
       <c r="E263">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F263">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B264" t="s">
         <v>268</v>
       </c>
       <c r="C264">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D264" s="2">
-        <v>44733.49518518519</v>
+        <v>44734.60640046297</v>
       </c>
       <c r="E264">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F264">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B265" t="s">
         <v>269</v>
       </c>
       <c r="C265">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D265" s="2">
-        <v>44733.49523148148</v>
+        <v>44734.60657407407</v>
       </c>
       <c r="E265">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F265">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B266" t="s">
         <v>270</v>
       </c>
       <c r="C266">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D266" s="2">
-        <v>44733.49534722222</v>
+        <v>44734.60664351852</v>
       </c>
       <c r="E266">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F266">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B267" t="s">
         <v>271</v>
       </c>
       <c r="C267">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D267" s="2">
-        <v>44733.49542824074</v>
+        <v>44734.60688657407</v>
       </c>
       <c r="E267">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F267">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B268" t="s">
         <v>272</v>
       </c>
       <c r="C268">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D268" s="2">
-        <v>44733.49552083333</v>
+        <v>44734.60693287037</v>
       </c>
       <c r="E268">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F268">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B269" t="s">
         <v>273</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D269" s="2">
-        <v>44733.49575231481</v>
+        <v>44734.60714120371</v>
       </c>
       <c r="E269">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F269">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B270" t="s">
         <v>274</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D270" s="2">
-        <v>44733.49594907407</v>
+        <v>44734.60755787037</v>
       </c>
       <c r="E270">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F270">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B271" t="s">
         <v>275</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="2">
-        <v>44733.49612268519</v>
+        <v>44734.64115740741</v>
       </c>
       <c r="E271">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F271">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B272" t="s">
         <v>276</v>
       </c>
       <c r="C272">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D272" s="2">
-        <v>44733.49621527778</v>
+        <v>44734.64133101852</v>
       </c>
       <c r="E272">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F272">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B273" t="s">
         <v>277</v>
       </c>
       <c r="C273">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D273" s="2">
-        <v>44733.49631944444</v>
+        <v>44734.64148148148</v>
       </c>
       <c r="E273">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F273">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B274" t="s">
         <v>278</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D274" s="2">
-        <v>44733.58248842593</v>
+        <v>44734.64171296296</v>
       </c>
       <c r="E274">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F274">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B275" t="s">
         <v>279</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D275" s="2">
-        <v>44733.58262731481</v>
+        <v>44734.64193287037</v>
       </c>
       <c r="E275">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F275">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B276" t="s">
         <v>280</v>
@@ -6834,193 +6771,193 @@
         <v>1</v>
       </c>
       <c r="D276" s="2">
-        <v>44733.58274305556</v>
+        <v>44734.64216435186</v>
       </c>
       <c r="E276">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F276">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B277" t="s">
         <v>281</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277" s="2">
-        <v>44733.58300925926</v>
+        <v>44734.64258101852</v>
       </c>
       <c r="E277">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F277">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B278" t="s">
         <v>282</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" s="2">
-        <v>44733.583125</v>
+        <v>44734.64273148148</v>
       </c>
       <c r="E278">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F278">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B279" t="s">
         <v>283</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279" s="2">
-        <v>44733.5834375</v>
+        <v>44734.64438657407</v>
       </c>
       <c r="E279">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F279">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B280" t="s">
         <v>284</v>
       </c>
       <c r="C280">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D280" s="2">
-        <v>44733.58780092592</v>
+        <v>44734.64516203704</v>
       </c>
       <c r="E280">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F280">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B281" t="s">
         <v>285</v>
       </c>
       <c r="C281">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D281" s="2">
-        <v>44733.58787037037</v>
+        <v>44734.64519675926</v>
       </c>
       <c r="E281">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F281">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B282" t="s">
         <v>286</v>
       </c>
       <c r="C282">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D282" s="2">
-        <v>44733.58795138889</v>
+        <v>44734.64530092593</v>
       </c>
       <c r="E282">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F282">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B283" t="s">
         <v>287</v>
       </c>
       <c r="C283">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D283" s="2">
-        <v>44733.58806712963</v>
+        <v>44734.64539351852</v>
       </c>
       <c r="E283">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F283">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B284" t="s">
         <v>288</v>
       </c>
       <c r="C284">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D284" s="2">
-        <v>44733.58818287037</v>
+        <v>44734.64556712963</v>
       </c>
       <c r="E284">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F284">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>42437</v>
+        <v>42560</v>
       </c>
       <c r="B285" t="s">
         <v>289</v>
       </c>
       <c r="C285">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D285" s="2">
-        <v>44733.5883912037</v>
+        <v>44734.64775462963</v>
       </c>
       <c r="E285">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F285">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7031,16 +6968,16 @@
         <v>290</v>
       </c>
       <c r="C286">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D286" s="2">
-        <v>44733.58842592593</v>
+        <v>44734.52679398148</v>
       </c>
       <c r="E286">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F286">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7051,16 +6988,16 @@
         <v>291</v>
       </c>
       <c r="C287">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D287" s="2">
-        <v>44733.58846064815</v>
+        <v>44734.52721064815</v>
       </c>
       <c r="E287">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F287">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7071,436 +7008,16 @@
         <v>292</v>
       </c>
       <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288" s="2">
+        <v>44734.52724537037</v>
+      </c>
+      <c r="E288">
+        <v>22</v>
+      </c>
+      <c r="F288">
         <v>12</v>
-      </c>
-      <c r="D288" s="2">
-        <v>44733.58854166666</v>
-      </c>
-      <c r="E288">
-        <v>21</v>
-      </c>
-      <c r="F288">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289">
-        <v>42437</v>
-      </c>
-      <c r="B289" t="s">
-        <v>293</v>
-      </c>
-      <c r="C289">
-        <v>48</v>
-      </c>
-      <c r="D289" s="2">
-        <v>44733.58857638889</v>
-      </c>
-      <c r="E289">
-        <v>21</v>
-      </c>
-      <c r="F289">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290">
-        <v>42437</v>
-      </c>
-      <c r="B290" t="s">
-        <v>294</v>
-      </c>
-      <c r="C290">
-        <v>48</v>
-      </c>
-      <c r="D290" s="2">
-        <v>44733.58862268519</v>
-      </c>
-      <c r="E290">
-        <v>21</v>
-      </c>
-      <c r="F290">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291">
-        <v>42437</v>
-      </c>
-      <c r="B291" t="s">
-        <v>295</v>
-      </c>
-      <c r="C291">
-        <v>72</v>
-      </c>
-      <c r="D291" s="2">
-        <v>44733.58991898148</v>
-      </c>
-      <c r="E291">
-        <v>21</v>
-      </c>
-      <c r="F291">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292">
-        <v>42437</v>
-      </c>
-      <c r="B292" t="s">
-        <v>296</v>
-      </c>
-      <c r="C292">
-        <v>72</v>
-      </c>
-      <c r="D292" s="2">
-        <v>44733.5899537037</v>
-      </c>
-      <c r="E292">
-        <v>21</v>
-      </c>
-      <c r="F292">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293">
-        <v>42437</v>
-      </c>
-      <c r="B293" t="s">
-        <v>297</v>
-      </c>
-      <c r="C293">
-        <v>36</v>
-      </c>
-      <c r="D293" s="2">
-        <v>44733.59001157407</v>
-      </c>
-      <c r="E293">
-        <v>21</v>
-      </c>
-      <c r="F293">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294">
-        <v>42437</v>
-      </c>
-      <c r="B294" t="s">
-        <v>298</v>
-      </c>
-      <c r="C294">
-        <v>36</v>
-      </c>
-      <c r="D294" s="2">
-        <v>44733.59012731481</v>
-      </c>
-      <c r="E294">
-        <v>21</v>
-      </c>
-      <c r="F294">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295">
-        <v>42437</v>
-      </c>
-      <c r="B295" t="s">
-        <v>299</v>
-      </c>
-      <c r="C295">
-        <v>36</v>
-      </c>
-      <c r="D295" s="2">
-        <v>44733.59016203704</v>
-      </c>
-      <c r="E295">
-        <v>21</v>
-      </c>
-      <c r="F295">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296">
-        <v>42437</v>
-      </c>
-      <c r="B296" t="s">
-        <v>300</v>
-      </c>
-      <c r="C296">
-        <v>24</v>
-      </c>
-      <c r="D296" s="2">
-        <v>44733.59159722222</v>
-      </c>
-      <c r="E296">
-        <v>21</v>
-      </c>
-      <c r="F296">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297">
-        <v>42437</v>
-      </c>
-      <c r="B297" t="s">
-        <v>301</v>
-      </c>
-      <c r="C297">
-        <v>48</v>
-      </c>
-      <c r="D297" s="2">
-        <v>44733.59162037037</v>
-      </c>
-      <c r="E297">
-        <v>21</v>
-      </c>
-      <c r="F297">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298">
-        <v>42437</v>
-      </c>
-      <c r="B298" t="s">
-        <v>302</v>
-      </c>
-      <c r="C298">
-        <v>24</v>
-      </c>
-      <c r="D298" s="2">
-        <v>44733.59181712963</v>
-      </c>
-      <c r="E298">
-        <v>21</v>
-      </c>
-      <c r="F298">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299">
-        <v>42437</v>
-      </c>
-      <c r="B299" t="s">
-        <v>303</v>
-      </c>
-      <c r="C299">
-        <v>10</v>
-      </c>
-      <c r="D299" s="2">
-        <v>44733.59186342593</v>
-      </c>
-      <c r="E299">
-        <v>21</v>
-      </c>
-      <c r="F299">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300">
-        <v>42437</v>
-      </c>
-      <c r="B300" t="s">
-        <v>304</v>
-      </c>
-      <c r="C300">
-        <v>10</v>
-      </c>
-      <c r="D300" s="2">
-        <v>44733.59193287037</v>
-      </c>
-      <c r="E300">
-        <v>21</v>
-      </c>
-      <c r="F300">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301">
-        <v>42437</v>
-      </c>
-      <c r="B301" t="s">
-        <v>305</v>
-      </c>
-      <c r="C301">
-        <v>60</v>
-      </c>
-      <c r="D301" s="2">
-        <v>44733.59438657408</v>
-      </c>
-      <c r="E301">
-        <v>21</v>
-      </c>
-      <c r="F301">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302">
-        <v>42437</v>
-      </c>
-      <c r="B302" t="s">
-        <v>306</v>
-      </c>
-      <c r="C302">
-        <v>10</v>
-      </c>
-      <c r="D302" s="2">
-        <v>44733.59453703704</v>
-      </c>
-      <c r="E302">
-        <v>21</v>
-      </c>
-      <c r="F302">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303">
-        <v>42437</v>
-      </c>
-      <c r="B303" t="s">
-        <v>307</v>
-      </c>
-      <c r="C303">
-        <v>60</v>
-      </c>
-      <c r="D303" s="2">
-        <v>44733.59459490741</v>
-      </c>
-      <c r="E303">
-        <v>21</v>
-      </c>
-      <c r="F303">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304">
-        <v>42437</v>
-      </c>
-      <c r="B304" t="s">
-        <v>308</v>
-      </c>
-      <c r="C304">
-        <v>24</v>
-      </c>
-      <c r="D304" s="2">
-        <v>44733.59469907408</v>
-      </c>
-      <c r="E304">
-        <v>21</v>
-      </c>
-      <c r="F304">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305">
-        <v>42437</v>
-      </c>
-      <c r="B305" t="s">
-        <v>309</v>
-      </c>
-      <c r="C305">
-        <v>24</v>
-      </c>
-      <c r="D305" s="2">
-        <v>44733.59598379629</v>
-      </c>
-      <c r="E305">
-        <v>21</v>
-      </c>
-      <c r="F305">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306">
-        <v>42437</v>
-      </c>
-      <c r="B306" t="s">
-        <v>310</v>
-      </c>
-      <c r="C306">
-        <v>24</v>
-      </c>
-      <c r="D306" s="2">
-        <v>44733.59601851852</v>
-      </c>
-      <c r="E306">
-        <v>21</v>
-      </c>
-      <c r="F306">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307">
-        <v>42437</v>
-      </c>
-      <c r="B307" t="s">
-        <v>311</v>
-      </c>
-      <c r="C307">
-        <v>24</v>
-      </c>
-      <c r="D307" s="2">
-        <v>44733.59612268519</v>
-      </c>
-      <c r="E307">
-        <v>21</v>
-      </c>
-      <c r="F307">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308">
-        <v>42437</v>
-      </c>
-      <c r="B308" t="s">
-        <v>312</v>
-      </c>
-      <c r="C308">
-        <v>30</v>
-      </c>
-      <c r="D308" s="2">
-        <v>44733.59623842593</v>
-      </c>
-      <c r="E308">
-        <v>21</v>
-      </c>
-      <c r="F308">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309">
-        <v>42540</v>
-      </c>
-      <c r="B309" t="s">
-        <v>313</v>
-      </c>
-      <c r="C309">
-        <v>40</v>
-      </c>
-      <c r="D309" s="2">
-        <v>44733.42875</v>
-      </c>
-      <c r="E309">
-        <v>21</v>
-      </c>
-      <c r="F309">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
